--- a/data/hotels_by_city/Houston/Houston_shard_108.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_108.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107783-Reviews-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Bush-Intercontinental-Airport.h84475.Hotel-Information?chkin=7%2F8%2F2018&amp;chkout=7%2F9%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530300775007&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=2ccf6ba3-096e-4f13-b868-1be10e349b4a&amp;mctc=9&amp;exp_dp=70.3&amp;exp_ts=1530300781526&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1461 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r586804553-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107783</t>
+  </si>
+  <si>
+    <t>586804553</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Fantastic Customer Service! Returned my headphones:)</t>
+  </si>
+  <si>
+    <t>Overall I had a great experience with the staff at the Comfort Suites! I accidentally left (my rather expensive:/) headphones in my room. When I called back the front desk staff were happy to help me find them and put me in touch with their manager. Holly, the manager, was ever so helpful as she arranged to send these headphones across the country to me. Overall, the staff bent over backwards for me to return my lost item and I couldn't be more grateful! Thank you for everything, you guys! Keep up the great work!!!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r586142749-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586142749</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Great Staff, Room Ok</t>
+  </si>
+  <si>
+    <t>Stayed here after a delayed flight from Montego Bay. We had missed dinner as our midday flight didn't arrive until near midnight.  The staff checked us in quickly and after we came down looking for something to eat the staff were very helpful in finding someone who would deliver to the hotel.Room was ok, air conditioning was very noisy but was comfortable enough.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r572965905-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572965905</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deceiving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrived late at 11:30 pm and although they promise you a shuttle till midnight we had to uber it. The room wasn’t a suite but just a larger room with a sofa. To our disappointment there were no blankets, pillows nor sheets for the sofa. The room had a dusty smell and a loud AC unit. The shower had a low pressure and the water reached the “little warm” temperature. So next time in Houston for a overnight stay by the airport I’ll try something else. </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r558918535-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558918535</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Ok stay</t>
+  </si>
+  <si>
+    <t>I was greeted kindly by a lady behind the desk upon my arrival. She was very nice and professional. I later found out her name was Breannna. My king suite was large and the bed was comfy. However the hallway smelled of marijuana. That night I tried finding a sports bar nearby, but there is nothing unless you want hotel bars which charge $7/beer. Early in the morning  around 6 a.m.  I heard continued knocking on the door across from me and some man calling out a ladies name. He knocked for a good 5-7 minutes. I was trying to sleep in a bit...nope. The hotel is also not in a great part of town so be careful. Other than that I have nothing but good things to say about the workers and cleanliness of my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I was greeted kindly by a lady behind the desk upon my arrival. She was very nice and professional. I later found out her name was Breannna. My king suite was large and the bed was comfy. However the hallway smelled of marijuana. That night I tried finding a sports bar nearby, but there is nothing unless you want hotel bars which charge $7/beer. Early in the morning  around 6 a.m.  I heard continued knocking on the door across from me and some man calling out a ladies name. He knocked for a good 5-7 minutes. I was trying to sleep in a bit...nope. The hotel is also not in a great part of town so be careful. Other than that I have nothing but good things to say about the workers and cleanliness of my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r522861264-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522861264</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>only minutes to airport. the hotel itself is awesome because of how clean and nice the rooms are. the staff very friendly. very nice pool too. take advantage of the free breakfast because its better than most other hotels. not too much to do around the area, but that was fine with us because we had a rental car. I will stay here again for sure.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r505293392-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505293392</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>A fantastic hotel. Very friendly and helpful manager and nothing was too big an ask (even finding tools to break a luggage padlock I had forgotten the keys for). The pool is also a very nice addition, especially after a long flight. Excellent rooms too- surprisingly spacious. Thoroughly recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Jack K, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>A fantastic hotel. Very friendly and helpful manager and nothing was too big an ask (even finding tools to break a luggage padlock I had forgotten the keys for). The pool is also a very nice addition, especially after a long flight. Excellent rooms too- surprisingly spacious. Thoroughly recommended. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r476989465-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476989465</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Unorganized</t>
+  </si>
+  <si>
+    <t>Was sent here with an airline voucher. Had a reservation through the airline. Called from the airport for the shuttle, 20 minutes I was told. 2 hours and calls later, a shuttle finally shows up and picks up the 3 of us that have been waiting, then swings around the airport and picks up others, some without reservations or vouchers. We get to the hotel and since my luggage was the last to be taken off, I was the last in line to check in. No worries right? I've got a reservation and the voucher. WRONG! Was told they just gave the last person the last room and there was no rooms left. After taking folks without a reservation before me. As a Diamond member, this is absolutely the poorest way possible to be treated. Makes me lose a lot of respect and business for Choice Hotels. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Jack K, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Was sent here with an airline voucher. Had a reservation through the airline. Called from the airport for the shuttle, 20 minutes I was told. 2 hours and calls later, a shuttle finally shows up and picks up the 3 of us that have been waiting, then swings around the airport and picks up others, some without reservations or vouchers. We get to the hotel and since my luggage was the last to be taken off, I was the last in line to check in. No worries right? I've got a reservation and the voucher. WRONG! Was told they just gave the last person the last room and there was no rooms left. After taking folks without a reservation before me. As a Diamond member, this is absolutely the poorest way possible to be treated. Makes me lose a lot of respect and business for Choice Hotels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r473953608-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473953608</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>irritating</t>
+  </si>
+  <si>
+    <t>no shuttle if you have an early flight, bring extra $$$ for a VERY expensive taxi for the short ride to the terminalno breakfast if you have an early flightno hot water in the showerinefficient a/c - all the cool air blows up under the curtains so you have to keep turning the temp down to get cool.   glad it wasn't summernight light didn't workbed ok, but bring your own alarm clock, the wake up call was 20 minutes latenoisy - in the flight path...MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>no shuttle if you have an early flight, bring extra $$$ for a VERY expensive taxi for the short ride to the terminalno breakfast if you have an early flightno hot water in the showerinefficient a/c - all the cool air blows up under the curtains so you have to keep turning the temp down to get cool.   glad it wasn't summernight light didn't workbed ok, but bring your own alarm clock, the wake up call was 20 minutes latenoisy - in the flight path...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r473805987-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473805987</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t>We had an early flight, so we went the night before our flight.  The hotel is so convenient to the airport and made getting to the airport early painless. The room was clean and quiet.  Too bad that their continental breakfast doesn't open until 6:00 and we had to be at the airport at 5:30</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r468782409-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468782409</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Good choice for airport hotel</t>
+  </si>
+  <si>
+    <t>Room was big with nice TV, fridge, microwave.  Bed was very comfortable.  Shuttle was fast, but sometimes crowded.  Continental breakfast was fine.  There are lots of airport hotels at IAH, but I've found this hotel to be better than most.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r468486381-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468486381</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Perfect for the ocasdion</t>
+  </si>
+  <si>
+    <t>Four of us stayed one night at this airport hotel, arriving quite late in the evening. There's no food available after breakfast and the options around the hotel itself quite limited after 8/9 pm. We walked around the corner to a bar called Hooters and grabbed a bite from a greasy cafe next door, which wasn't great.Rooms are dated in decor, thigh. Wry confutable queen size beds, good shower and basic toiletries. This was booked as part of a package, therefore we didn't get the price breakdown.Breakfast was excellent; self -service with pancakes, eggs, meats, fruits, cereal, juices and yogurts.  The hotel also price a free shuttle service back to the airport.The only reservation about the hotel I had was the free shuttle service from the airport which needs to be provoked. I tried to make contact with the hotel in advance to arrange the shuttle, though was unable to make contact as there was no direct email or telephone number. So it might be an idea to try and make advance arrangements as the taxi driver tried to charge almost $30 and he was driving around aimlessly in circles. Though luckily enough we were in a position to agree an appropriate fare.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Four of us stayed one night at this airport hotel, arriving quite late in the evening. There's no food available after breakfast and the options around the hotel itself quite limited after 8/9 pm. We walked around the corner to a bar called Hooters and grabbed a bite from a greasy cafe next door, which wasn't great.Rooms are dated in decor, thigh. Wry confutable queen size beds, good shower and basic toiletries. This was booked as part of a package, therefore we didn't get the price breakdown.Breakfast was excellent; self -service with pancakes, eggs, meats, fruits, cereal, juices and yogurts.  The hotel also price a free shuttle service back to the airport.The only reservation about the hotel I had was the free shuttle service from the airport which needs to be provoked. I tried to make contact with the hotel in advance to arrange the shuttle, though was unable to make contact as there was no direct email or telephone number. So it might be an idea to try and make advance arrangements as the taxi driver tried to charge almost $30 and he was driving around aimlessly in circles. Though luckily enough we were in a position to agree an appropriate fare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r463071132-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463071132</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Best Value and Wi Fi by Bush International Airport</t>
+  </si>
+  <si>
+    <t>This hotel is located right after you exit the airport and is at the perfect spot to access all major highway. The rooms are clean and spacious with cozy bed. Rooms are newly renovated and looks fresh. I was pleasantly surprised with their free high speed Wi-Fi. Staff very friendly and accommodating.Would stay at this place again.Lisa</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r437246453-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437246453</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>very accomodating</t>
+  </si>
+  <si>
+    <t>stayed here first and last nites of our trip to houston - using their shuttle to and from the airport made it very easy for us to manage the rental car we had.  comfortable clean room, decent breakfast, no surprises.  very friendly staff.only negative if you're a light sleeper - sound of airplanes going overhead on the 3rd floor</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r435482231-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435482231</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Still Pretty Decent!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love Comfort Suites and always try to stay at Comfort Suites Bush Intercontinental when I have to come to Houston. Although this is an older property they do try to keep it up. Now they are renovating the rooms. It is looking up. The customer service here is always really good. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r425167558-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425167558</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>this is a very nice hotel to stay at. the staff members really make you feel welcome. they all great you with a smile. the hotel itself was very clean and well keep. good appearance and easy to get to. it is worth your stay. ill be back.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r382847643-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382847643</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Airport hotel </t>
+  </si>
+  <si>
+    <t>We were here for couple of days. The rooms were nice and clean. The bed and the pillows were very comfortable. Breakfast was good variety.   They had shuttle from the airport to hotel and back which was great. I would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Jack K, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>We were here for couple of days. The rooms were nice and clean. The bed and the pillows were very comfortable. Breakfast was good variety.   They had shuttle from the airport to hotel and back which was great. I would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r370285291-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370285291</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Nice overnight near airport</t>
+  </si>
+  <si>
+    <t>This hotel was hard to contact (we didn't have a cell phone, and the Houston airport hides its payphones), but when a helpful United employee called them for us, we had a pickup not too much later.The room was fine; clean and comfortable, not too far from the airport.Nothing much in the neighborhood, but we had to leave early in the morning, and the hot breakfast was great, so we didn't need much.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r365429764-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365429764</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Great value. Close to airport, shuttle, free wifi</t>
+  </si>
+  <si>
+    <t>I booked this place while stuck in Houston during the storm. Great value for the price. 
+They have an airport shuttle that runs regularly from 5AM to late PM. I would only do the shuttle. The place is probably 5 miles from the airport, which is a cheap cab ride. However, the cab I grabbed from the airport cab stand imposed a minimum $18 charge for the short ride (was too tired to argue with the driver if it was a scam since this rate wasn't posted). SO, only only ever take the hotel airport shuttle. You just call them when you arrive and make arrangements for where to be picked up.  
+The check in and checkout was easy and the staff were very helpful and accommodating - which I appreciated considering how frazzled I was after 2 days with no luggage and no flight out. My sincere thanks to the airport shuttle driver who ventured out on storm day at 5AM to get a group of us to the airport before the roads got too flooded.
+The place is a bit dated (standard bathroom, tub, shower, carpet and older style furniture). The walls are also thin so you can really hear a lot. 
+However, the bed was very comfortable and the room was clean. There is a hot breakfast starting at 6AM.  
+There is free wifi throughout and no limit on the number of devices you can connect to....I booked this place while stuck in Houston during the storm. Great value for the price. They have an airport shuttle that runs regularly from 5AM to late PM. I would only do the shuttle. The place is probably 5 miles from the airport, which is a cheap cab ride. However, the cab I grabbed from the airport cab stand imposed a minimum $18 charge for the short ride (was too tired to argue with the driver if it was a scam since this rate wasn't posted). SO, only only ever take the hotel airport shuttle. You just call them when you arrive and make arrangements for where to be picked up.  The check in and checkout was easy and the staff were very helpful and accommodating - which I appreciated considering how frazzled I was after 2 days with no luggage and no flight out. My sincere thanks to the airport shuttle driver who ventured out on storm day at 5AM to get a group of us to the airport before the roads got too flooded.The place is a bit dated (standard bathroom, tub, shower, carpet and older style furniture). The walls are also thin so you can really hear a lot. However, the bed was very comfortable and the room was clean. There is a hot breakfast starting at 6AM.  There is free wifi throughout and no limit on the number of devices you can connect to. This is not a fancy place and probably comparable to the Days Inn or Best Western. Basic, nothing fancy, a bit dated but certainly comfortable and serves your needs if you need an economical place to stay for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this place while stuck in Houston during the storm. Great value for the price. 
+They have an airport shuttle that runs regularly from 5AM to late PM. I would only do the shuttle. The place is probably 5 miles from the airport, which is a cheap cab ride. However, the cab I grabbed from the airport cab stand imposed a minimum $18 charge for the short ride (was too tired to argue with the driver if it was a scam since this rate wasn't posted). SO, only only ever take the hotel airport shuttle. You just call them when you arrive and make arrangements for where to be picked up.  
+The check in and checkout was easy and the staff were very helpful and accommodating - which I appreciated considering how frazzled I was after 2 days with no luggage and no flight out. My sincere thanks to the airport shuttle driver who ventured out on storm day at 5AM to get a group of us to the airport before the roads got too flooded.
+The place is a bit dated (standard bathroom, tub, shower, carpet and older style furniture). The walls are also thin so you can really hear a lot. 
+However, the bed was very comfortable and the room was clean. There is a hot breakfast starting at 6AM.  
+There is free wifi throughout and no limit on the number of devices you can connect to....I booked this place while stuck in Houston during the storm. Great value for the price. They have an airport shuttle that runs regularly from 5AM to late PM. I would only do the shuttle. The place is probably 5 miles from the airport, which is a cheap cab ride. However, the cab I grabbed from the airport cab stand imposed a minimum $18 charge for the short ride (was too tired to argue with the driver if it was a scam since this rate wasn't posted). SO, only only ever take the hotel airport shuttle. You just call them when you arrive and make arrangements for where to be picked up.  The check in and checkout was easy and the staff were very helpful and accommodating - which I appreciated considering how frazzled I was after 2 days with no luggage and no flight out. My sincere thanks to the airport shuttle driver who ventured out on storm day at 5AM to get a group of us to the airport before the roads got too flooded.The place is a bit dated (standard bathroom, tub, shower, carpet and older style furniture). The walls are also thin so you can really hear a lot. However, the bed was very comfortable and the room was clean. There is a hot breakfast starting at 6AM.  There is free wifi throughout and no limit on the number of devices you can connect to. This is not a fancy place and probably comparable to the Days Inn or Best Western. Basic, nothing fancy, a bit dated but certainly comfortable and serves your needs if you need an economical place to stay for the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r354842461-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354842461</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>Came in late...</t>
+  </si>
+  <si>
+    <t>Our flight was late but the front desk was very cordial and made our stay a very pleasant one. We will be staying there again on our return flight. This property is very close to the airport for those needing a place to hole up for those long layovers.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r350903615-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350903615</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We had an overnight layover, so spent the night here. Free shuttle to and from the airport. We are Choice Priv. members so got to check out late. The room was large and clean. Very nice bathroom. The young ladies at the front desk were wonderful. They helped us with everything from finding somewhere to eat to printing our boarding passes for the next day. We were exhausted from an overseas flight and we slept GREAT on the plush beds. If ever in the area again, will stay.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r347169730-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347169730</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>We had a very bad experience while staying at this hotel. We checked in and then left to go to dinner. We were stopped to yield before entering the highway down the road from the hotel and we were hit by the vehicle in back of us. It turned out to be the shuttle bus from this hotel. When my husband went back to talk to shuttle driver the driver told my husband he had to leave to go pick up someone at the airport. He left the scene of the accident. When the police arrived he called the hotel to tell them to get the driver back there immediately. The hotel was well aware of the accident but no one from the hotel at any point showed concern and asked if we were ok. Would have been nice to have been offered a discount to compensate for the 3 hours it took to get car towed and replacement rental car.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We had a very bad experience while staying at this hotel. We checked in and then left to go to dinner. We were stopped to yield before entering the highway down the road from the hotel and we were hit by the vehicle in back of us. It turned out to be the shuttle bus from this hotel. When my husband went back to talk to shuttle driver the driver told my husband he had to leave to go pick up someone at the airport. He left the scene of the accident. When the police arrived he called the hotel to tell them to get the driver back there immediately. The hotel was well aware of the accident but no one from the hotel at any point showed concern and asked if we were ok. Would have been nice to have been offered a discount to compensate for the 3 hours it took to get car towed and replacement rental car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r339572886-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339572886</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Disapointing place</t>
+  </si>
+  <si>
+    <t>Hotel located very close to the airport, providing a free shuttle. Rooms are clean but very old. It is not worth the money you are paying. Breakfast is a very poor choices. So if you have no choice it is bearable for one night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Jack K, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Hotel located very close to the airport, providing a free shuttle. Rooms are clean but very old. It is not worth the money you are paying. Breakfast is a very poor choices. So if you have no choice it is bearable for one night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r334905892-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334905892</t>
+  </si>
+  <si>
+    <t>12/25/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good for a quick hotel stay and excellent service </t>
+  </si>
+  <si>
+    <t>We stayed here during a flight layover and it was perfect for what we wanted. The ladies at reception were so friendly and pointed us in the direction of nearby restaurants. The room was huge and they had added a little honeymoon message for us which was very sweet and much appreciated. Breakfast was self service and adequate. The shuttle to the airport was quick and efficient. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jack K, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded December 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here during a flight layover and it was perfect for what we wanted. The ladies at reception were so friendly and pointed us in the direction of nearby restaurants. The room was huge and they had added a little honeymoon message for us which was very sweet and much appreciated. Breakfast was self service and adequate. The shuttle to the airport was quick and efficient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r334894290-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334894290</t>
+  </si>
+  <si>
+    <t>Superb Experience</t>
+  </si>
+  <si>
+    <t>I have stayed in Comfort Suites in my recent visit to Houston. I found that it  is very close to the IAH airport, provides free shuttle, and is a very quiet place. Comfortable bed, good towels, and excellent breakfast in a very reasonable price. The general manager, Jack K, as well as other staff members were very pleasant. This was an outstanding hotel experience. I will stay again !!Bishnu</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r323234235-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323234235</t>
+  </si>
+  <si>
+    <t>10/30/2015</t>
+  </si>
+  <si>
+    <t>excellent choice</t>
+  </si>
+  <si>
+    <t>Very convenient to meet friends flying in to George Bush.  Food close by and airport minutes away.  Staff very friendly, rooms great and good breakfast.  We would stay there again.  If you want to see the planes, ask for a room at the front of the hotel!</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r300391524-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300391524</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Front Desk lied about rate, wanted to charge me almost double when I showed up.</t>
+  </si>
+  <si>
+    <t>I was in Houston for a job interview and called the Comfort Suites when my flight home was cancelled.  Susan quoted me a rate of $79 on the phone with the corporate discount for the company I was interviewing with, but when I showed up she would not honor that rate and told me that it was $159 because she wouldn't accept the paperwork from my employer telling me they offered the rate and to ask for it with the confirmation.  She was the same person I had spoken with on the phone and explained the situation to originally when I had booked from the airport.  Now I was stuck at Comfort Suites without a shuttle and had to walk to a couple of different hotels to find a rate I could afford.  I had asked to speak with the manager, Jack Kaphle, but he was unreachable.  Overall, the service was terrible and the front desk was very rude.  What was most upsetting was the fact that after explaining the situation and asking for the corporate rate, I was told it would be no problem... until I was stuck there.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I was in Houston for a job interview and called the Comfort Suites when my flight home was cancelled.  Susan quoted me a rate of $79 on the phone with the corporate discount for the company I was interviewing with, but when I showed up she would not honor that rate and told me that it was $159 because she wouldn't accept the paperwork from my employer telling me they offered the rate and to ask for it with the confirmation.  She was the same person I had spoken with on the phone and explained the situation to originally when I had booked from the airport.  Now I was stuck at Comfort Suites without a shuttle and had to walk to a couple of different hotels to find a rate I could afford.  I had asked to speak with the manager, Jack Kaphle, but he was unreachable.  Overall, the service was terrible and the front desk was very rude.  What was most upsetting was the fact that after explaining the situation and asking for the corporate rate, I was told it would be no problem... until I was stuck there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r289084003-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289084003</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Great room for a layover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuttle picked us up in 10 min, drive was only 8 min, check in took 3 min. Happy to find that we had a fabulous suite with pillow top beds/ lots of pillows/ heavy curtains- all for $88 and breakfast included. Only annoyance was the 24 hour coffee station only had powder creamer. They make shelf stable cream tubs that are very inexpensive now. Usually a hotel this nice would have that. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r284015135-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284015135</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Horrible service</t>
+  </si>
+  <si>
+    <t>Due to mechanical issue I missed my flight connection out of Houston and received a hotel and can voucher from United. For some reason the cab took me to the wrong comfort suites but dropped me off at 2 in the morning. This hotel wouldn't accept my voucher even if it was with the same chain ( it didn't specify the address on the voucher so how would I know which hotel I had to go to.). I had traveled from Europe and been up for over 24 hours and was exhausted . Since they wouldn't accept the hotel voucher , I asked how much it would be for a room. They told me $129!!! I told them that it is 2 am and most likely they will not sell out all the rooms, could they give me a discount. They told me $89, that was the best they could do. I had a flight at 6 in the morning so clearly wouldn't spend much time there, but no that was their best and final price. I had to get a cab around 2.30 am to take me to the correct hotel, which did not feel safe, as a female traveling by myself. I understand that you can't give rooms away but, I would think some money would be better than NO money.Worst customer service ever!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Due to mechanical issue I missed my flight connection out of Houston and received a hotel and can voucher from United. For some reason the cab took me to the wrong comfort suites but dropped me off at 2 in the morning. This hotel wouldn't accept my voucher even if it was with the same chain ( it didn't specify the address on the voucher so how would I know which hotel I had to go to.). I had traveled from Europe and been up for over 24 hours and was exhausted . Since they wouldn't accept the hotel voucher , I asked how much it would be for a room. They told me $129!!! I told them that it is 2 am and most likely they will not sell out all the rooms, could they give me a discount. They told me $89, that was the best they could do. I had a flight at 6 in the morning so clearly wouldn't spend much time there, but no that was their best and final price. I had to get a cab around 2.30 am to take me to the correct hotel, which did not feel safe, as a female traveling by myself. I understand that you can't give rooms away but, I would think some money would be better than NO money.Worst customer service ever!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r276628837-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>276628837</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>This was a one night stay for a global entry appt at the airport, so we weren't looking for fancy. However, this was very disappointing.While the staff was extremely pleasant, this hotel is in need of major update/redo. The bed was terrible -- soft and uneven -- obviously very old mattress. All the furnishings were old and beat up. Hallways had peeling paint. The bathroom was large, but the only outlet was on the wall opposite the sink/mirror (most likely used to be a light switch or something.) This was also where the hairdryer was attached to the wall. Hard to plug in my boyfriend's electric razor and hard to use the mirror as one blows hair dry.Breakfast was also hugely disappointing. Eggs -- obviously powdered and overcooked - and sausages were cold (and this was at 7:30 AM). Fruit was apples or oranges. No bananas for cereal. Coffee was fine.We purposely chose a Comfort Suites because we had an outstanding experience at one in Ft. Stockton last year. We are now in a 50/50 situation and I will think twice before booking another Comfort Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This was a one night stay for a global entry appt at the airport, so we weren't looking for fancy. However, this was very disappointing.While the staff was extremely pleasant, this hotel is in need of major update/redo. The bed was terrible -- soft and uneven -- obviously very old mattress. All the furnishings were old and beat up. Hallways had peeling paint. The bathroom was large, but the only outlet was on the wall opposite the sink/mirror (most likely used to be a light switch or something.) This was also where the hairdryer was attached to the wall. Hard to plug in my boyfriend's electric razor and hard to use the mirror as one blows hair dry.Breakfast was also hugely disappointing. Eggs -- obviously powdered and overcooked - and sausages were cold (and this was at 7:30 AM). Fruit was apples or oranges. No bananas for cereal. Coffee was fine.We purposely chose a Comfort Suites because we had an outstanding experience at one in Ft. Stockton last year. We are now in a 50/50 situation and I will think twice before booking another Comfort Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r270057498-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270057498</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Very pleasant surprise</t>
+  </si>
+  <si>
+    <t>I selected this place just to have a place to shower and get a good night sleep. I was pleasantly surprised as to how nice, quiet, clean, and the accommodations were indicative of a place you would pay much, much more. The night staff when I checked in was very informative. The morning staff was very pleasant. I have paid so much more and did not feel as comfortable as I did here. Great place to stay would highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r257529535-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257529535</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>What's the point</t>
+  </si>
+  <si>
+    <t>If I wanted a average or standard hotel experience why would I pay to stay here?  Good question.  This hotel, according to them, is average and standard.  The uncomfortable mattress- standard, the thin towels-standard, the rickety desk chair - standard, cheap, thin shower curtain - standard.  Need I say more?  Oh, and don't let the name "suites" fool you, that is standard too I guess. A partial wall, with glass doors dividing the bedroom from the sitting room.  So even if someone wanted to sleep while others watched TV, there is no way to limit the sound or the light.  Speaking of light, how hard would it be to put some other light other than the stark ceiling light, or an itty bitty desk light in the sitting area?   One good thing..... The breakfast was pretty good, I'm sorry standard.  Which is a good thing because there is NOTHING near here.  Oh and the food must be pretty good because the staff sure ate it up!  I know this is just a lay over hotel, but maybe you should raise your standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>If I wanted a average or standard hotel experience why would I pay to stay here?  Good question.  This hotel, according to them, is average and standard.  The uncomfortable mattress- standard, the thin towels-standard, the rickety desk chair - standard, cheap, thin shower curtain - standard.  Need I say more?  Oh, and don't let the name "suites" fool you, that is standard too I guess. A partial wall, with glass doors dividing the bedroom from the sitting room.  So even if someone wanted to sleep while others watched TV, there is no way to limit the sound or the light.  Speaking of light, how hard would it be to put some other light other than the stark ceiling light, or an itty bitty desk light in the sitting area?   One good thing..... The breakfast was pretty good, I'm sorry standard.  Which is a good thing because there is NOTHING near here.  Oh and the food must be pretty good because the staff sure ate it up!  I know this is just a lay over hotel, but maybe you should raise your standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r255677171-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255677171</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Hop - Skip &amp; a Jump to IAH</t>
+  </si>
+  <si>
+    <t>Have stayed at many Comfort Suites and have never been let down but this one was a little special. We had an early morning flight and wanted to stay near the airport and this one was very close. We figured on a park and ride at a near by parking lot but while staying at the Comfort found out that for $5 a day we could leave our car there and they provided shuttle service back and forth to the airport. This made out trip start out with a 4Star send off - Thanks Again to the Staff of Comfort</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r255428139-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255428139</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Weather delay</t>
+  </si>
+  <si>
+    <t>Spent one night due to missed flight connections so I really did not have time to research local hotels.  Found this property to be clean &amp; quiet.  The front desk was very helpful &amp; very importantly the airport shuttle ran on time.  Breakfast bar in the morning was slightly below standards that I expect from this brand &amp; similar brands.   Fast food was about a brisk 5-7 minute walk (well lit).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r230136941-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230136941</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Lots of bugs in room</t>
+  </si>
+  <si>
+    <t>Piles of dead ants in corners of room, poor service from front desk, poor wifi reception ( if any) Lazy staff, not willing to help with concerns, more interested in visiting with each other in Spanish in front of guests</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r223404781-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223404781</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Comfortable Rooms</t>
+  </si>
+  <si>
+    <t>Very prompt and friendly shuttle service. Rooms were fairly large and very clean which is my #1 concern at hotels. Breakfast was very average and check in was horrific. I missed my connection, which was the reason for my overnight in Houston. I made the reservation through Nationwide Hospitality Incorporated, which failed to fax the hotel my confirmation. When I showed up at the hotel an hour later they wouldn't let me check in despite by email confirmation I provided. I then spent 30-40 mins in the lobby on hold with NHI trying to get them to re-fax my confirmation with no help or sympathy from the front desk. I understand this probably isn't the hotel's fault, however it seems there should be a better way to track and manage this.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Very prompt and friendly shuttle service. Rooms were fairly large and very clean which is my #1 concern at hotels. Breakfast was very average and check in was horrific. I missed my connection, which was the reason for my overnight in Houston. I made the reservation through Nationwide Hospitality Incorporated, which failed to fax the hotel my confirmation. When I showed up at the hotel an hour later they wouldn't let me check in despite by email confirmation I provided. I then spent 30-40 mins in the lobby on hold with NHI trying to get them to re-fax my confirmation with no help or sympathy from the front desk. I understand this probably isn't the hotel's fault, however it seems there should be a better way to track and manage this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r210814172-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210814172</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Neither the top or bottom</t>
+  </si>
+  <si>
+    <t>May be a tad hard to find, if you're not looking hard and driving yourself. On Kennedy Blvd. heading South, If you miss the turn in, you have to go 1/4 mile, make a U turn across a divided Hwy., then go back a mile to make another U turn. Check in was fast and efficient. Did not use the shuttle bus since we had a rental car. Next to a Country Inn. Appears to be a few restaurants around, but did not try any.
+ Room was very large. The a/c fan cycled on and off, despite turning on a switch labeled "continuous" fan. Metal deflector sheet on a/c unit rattled whenever unit was on. Some airplane noise but not bad. Bathroom door squeaked VERY loudly. Would wake anyone up during the nightly trips to the bathroom.Mentioned to desk the next morning but NOT fixed when we returned that night. Nice shower and ammenities. No nightlights, so room was dark as the inside of a cave if the lights were off. Only solution appeared to be to leave the bathroom exhaust fan and light on and it's noisy. Pillow stuffing appears to be skimpy and lumpy. They apparently made up for it by shaking the contents to one end and tucking in the pillow case. This leaves one with a pillow about 15" square. Great, IF you never turned over. There were 4 pillows for each bed. Beds were comfy....May be a tad hard to find, if you're not looking hard and driving yourself. On Kennedy Blvd. heading South, If you miss the turn in, you have to go 1/4 mile, make a U turn across a divided Hwy., then go back a mile to make another U turn. Check in was fast and efficient. Did not use the shuttle bus since we had a rental car. Next to a Country Inn. Appears to be a few restaurants around, but did not try any. Room was very large. The a/c fan cycled on and off, despite turning on a switch labeled "continuous" fan. Metal deflector sheet on a/c unit rattled whenever unit was on. Some airplane noise but not bad. Bathroom door squeaked VERY loudly. Would wake anyone up during the nightly trips to the bathroom.Mentioned to desk the next morning but NOT fixed when we returned that night. Nice shower and ammenities. No nightlights, so room was dark as the inside of a cave if the lights were off. Only solution appeared to be to leave the bathroom exhaust fan and light on and it's noisy. Pillow stuffing appears to be skimpy and lumpy. They apparently made up for it by shaking the contents to one end and tucking in the pillow case. This leaves one with a pillow about 15" square. Great, IF you never turned over. There were 4 pillows for each bed. Beds were comfy. No printed nor on screen TV guide.Continental breakfast was the usual fare. Belgian waffles in the shape of Texas. Fixed hot tea the 1st morning, but the water was only lukewarm. Finally translated to attendant to microwave the water in the back area. 2nd morning, the same drill, except this time the water was COLD.There is one computer and printer in business office. Note on printer that they charge for more than 5 sheets. Overall, just an OK hotel, convenient to airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>May be a tad hard to find, if you're not looking hard and driving yourself. On Kennedy Blvd. heading South, If you miss the turn in, you have to go 1/4 mile, make a U turn across a divided Hwy., then go back a mile to make another U turn. Check in was fast and efficient. Did not use the shuttle bus since we had a rental car. Next to a Country Inn. Appears to be a few restaurants around, but did not try any.
+ Room was very large. The a/c fan cycled on and off, despite turning on a switch labeled "continuous" fan. Metal deflector sheet on a/c unit rattled whenever unit was on. Some airplane noise but not bad. Bathroom door squeaked VERY loudly. Would wake anyone up during the nightly trips to the bathroom.Mentioned to desk the next morning but NOT fixed when we returned that night. Nice shower and ammenities. No nightlights, so room was dark as the inside of a cave if the lights were off. Only solution appeared to be to leave the bathroom exhaust fan and light on and it's noisy. Pillow stuffing appears to be skimpy and lumpy. They apparently made up for it by shaking the contents to one end and tucking in the pillow case. This leaves one with a pillow about 15" square. Great, IF you never turned over. There were 4 pillows for each bed. Beds were comfy....May be a tad hard to find, if you're not looking hard and driving yourself. On Kennedy Blvd. heading South, If you miss the turn in, you have to go 1/4 mile, make a U turn across a divided Hwy., then go back a mile to make another U turn. Check in was fast and efficient. Did not use the shuttle bus since we had a rental car. Next to a Country Inn. Appears to be a few restaurants around, but did not try any. Room was very large. The a/c fan cycled on and off, despite turning on a switch labeled "continuous" fan. Metal deflector sheet on a/c unit rattled whenever unit was on. Some airplane noise but not bad. Bathroom door squeaked VERY loudly. Would wake anyone up during the nightly trips to the bathroom.Mentioned to desk the next morning but NOT fixed when we returned that night. Nice shower and ammenities. No nightlights, so room was dark as the inside of a cave if the lights were off. Only solution appeared to be to leave the bathroom exhaust fan and light on and it's noisy. Pillow stuffing appears to be skimpy and lumpy. They apparently made up for it by shaking the contents to one end and tucking in the pillow case. This leaves one with a pillow about 15" square. Great, IF you never turned over. There were 4 pillows for each bed. Beds were comfy. No printed nor on screen TV guide.Continental breakfast was the usual fare. Belgian waffles in the shape of Texas. Fixed hot tea the 1st morning, but the water was only lukewarm. Finally translated to attendant to microwave the water in the back area. 2nd morning, the same drill, except this time the water was COLD.There is one computer and printer in business office. Note on printer that they charge for more than 5 sheets. Overall, just an OK hotel, convenient to airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r197166030-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197166030</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Best customer service in any hotel I've ever stayed</t>
+  </si>
+  <si>
+    <t>I had originally booked a two night stay at this hotel; several months back I had booked a night at another hotel nearby and they had mistakenly made the reservation for the wrong date (this hotel is owned by the same company that owned this Comfort Suites).I mentioned this to the nice lady at the front and she talked to the manager who promptly proceeded to confirm this with the other hotel and took the night off of my stay at this hotel.I thought I was going to have to jump through a lot of hoops to get that night back; but no.Definitely some of the best customer service I've seen in a long time.Well done.Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had originally booked a two night stay at this hotel; several months back I had booked a night at another hotel nearby and they had mistakenly made the reservation for the wrong date (this hotel is owned by the same company that owned this Comfort Suites).I mentioned this to the nice lady at the front and she talked to the manager who promptly proceeded to confirm this with the other hotel and took the night off of my stay at this hotel.I thought I was going to have to jump through a lot of hoops to get that night back; but no.Definitely some of the best customer service I've seen in a long time.Well done.Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r197108712-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197108712</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Decent room with great customer service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for 1 night before flying out of IAH. We paid for a standard room and they gave us a suite..which was great of course. The room was huge and clean but the AC never kicked fully on. We realized this in the middle of the night when we are sweating..didn't call the front desk because we didn't want to wake our son. That was our only complaint. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r195143512-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195143512</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Was able to leave car while taking a cruise</t>
+  </si>
+  <si>
+    <t>Nice clean comfortable hotel. We live in Houston but because of forecast ice we opted to go to the airport the night before our early morning flight. The hotel had a very nice continental breakfast. The hotel allows to guests to leave their car in their hotel parking lot when taking a cruise for a charge of $5 per day . The hotel provides free shuttle service  to and from the terminal</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r180776918-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180776918</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>Losing its appeal through staff attitude</t>
+  </si>
+  <si>
+    <t>The hotel itself is fine, rooms well laid out, breakfast more than ample, clean spaces, very comfortable bed but sometimes the way you are handles also carries weight and in the last few times i stayed here i noticed some attitude changes in staffing, this trip was no different. Especially on our arrival service was less than stellar. The phone was not answered promptly a few times and finally we were told the driver was at the airport and would be with us right away. So after my three year old suffering almost half an hour of carbon monoxide and smoke inhalation in the smokers area where you are forced to wait for the hotel buses, i called again to be told he will be right there. he was BUT when he saw our 5 cases he simply opened the back door and ignored us to start chatting to a friend behind, i had to load all the bags to the bus and also unload them with no assistance. The front desk clerk looked like she was about to go out to a party with a denim jacket, tattoos on the neck and an attitude to match. She was not really interested in us much at all and could not be bothered to answer any of my questions.  When i was rolling our luggage on the upstairs corridor she seemed however very happy on her personal calls which seemed to...The hotel itself is fine, rooms well laid out, breakfast more than ample, clean spaces, very comfortable bed but sometimes the way you are handles also carries weight and in the last few times i stayed here i noticed some attitude changes in staffing, this trip was no different. Especially on our arrival service was less than stellar. The phone was not answered promptly a few times and finally we were told the driver was at the airport and would be with us right away. So after my three year old suffering almost half an hour of carbon monoxide and smoke inhalation in the smokers area where you are forced to wait for the hotel buses, i called again to be told he will be right there. he was BUT when he saw our 5 cases he simply opened the back door and ignored us to start chatting to a friend behind, i had to load all the bags to the bus and also unload them with no assistance. The front desk clerk looked like she was about to go out to a party with a denim jacket, tattoos on the neck and an attitude to match. She was not really interested in us much at all and could not be bothered to answer any of my questions.  When i was rolling our luggage on the upstairs corridor she seemed however very happy on her personal calls which seemed to cheer her up no end! In the morning the young lady was helpful dressed nicely and pointed us in the right direction and ordered a cab for us to the shopping areas. The morning driver (a different one) was also more pleasant and assisted with luggage. Seems like the night staff don't care much and this is the second time i experience this. Also the prices were much higher than in the past. In contrast i visited the brand new Best Western Plus right behind the hotel, the receptionist was very responsive and showed me the new rooms which were lovely and the prices seemed good. I wont say the rooms were better but they were obviously fresh and new and the lobby area was nicely presented. Maybe time for a change, staff DO make a difference in consumers choices, i hope the management look for the right staff with a can do attitude, there are a lot of choices at the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>The hotel itself is fine, rooms well laid out, breakfast more than ample, clean spaces, very comfortable bed but sometimes the way you are handles also carries weight and in the last few times i stayed here i noticed some attitude changes in staffing, this trip was no different. Especially on our arrival service was less than stellar. The phone was not answered promptly a few times and finally we were told the driver was at the airport and would be with us right away. So after my three year old suffering almost half an hour of carbon monoxide and smoke inhalation in the smokers area where you are forced to wait for the hotel buses, i called again to be told he will be right there. he was BUT when he saw our 5 cases he simply opened the back door and ignored us to start chatting to a friend behind, i had to load all the bags to the bus and also unload them with no assistance. The front desk clerk looked like she was about to go out to a party with a denim jacket, tattoos on the neck and an attitude to match. She was not really interested in us much at all and could not be bothered to answer any of my questions.  When i was rolling our luggage on the upstairs corridor she seemed however very happy on her personal calls which seemed to...The hotel itself is fine, rooms well laid out, breakfast more than ample, clean spaces, very comfortable bed but sometimes the way you are handles also carries weight and in the last few times i stayed here i noticed some attitude changes in staffing, this trip was no different. Especially on our arrival service was less than stellar. The phone was not answered promptly a few times and finally we were told the driver was at the airport and would be with us right away. So after my three year old suffering almost half an hour of carbon monoxide and smoke inhalation in the smokers area where you are forced to wait for the hotel buses, i called again to be told he will be right there. he was BUT when he saw our 5 cases he simply opened the back door and ignored us to start chatting to a friend behind, i had to load all the bags to the bus and also unload them with no assistance. The front desk clerk looked like she was about to go out to a party with a denim jacket, tattoos on the neck and an attitude to match. She was not really interested in us much at all and could not be bothered to answer any of my questions.  When i was rolling our luggage on the upstairs corridor she seemed however very happy on her personal calls which seemed to cheer her up no end! In the morning the young lady was helpful dressed nicely and pointed us in the right direction and ordered a cab for us to the shopping areas. The morning driver (a different one) was also more pleasant and assisted with luggage. Seems like the night staff don't care much and this is the second time i experience this. Also the prices were much higher than in the past. In contrast i visited the brand new Best Western Plus right behind the hotel, the receptionist was very responsive and showed me the new rooms which were lovely and the prices seemed good. I wont say the rooms were better but they were obviously fresh and new and the lobby area was nicely presented. Maybe time for a change, staff DO make a difference in consumers choices, i hope the management look for the right staff with a can do attitude, there are a lot of choices at the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r176126562-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176126562</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>Charged prior to check-in</t>
+  </si>
+  <si>
+    <t>I booked our stay for 1 night via choicehotels. I usually do not have any issues with payment, but I have stayed in Comfort Suites and always have an issue with this brand. On this occassion, I was charged that morning for a 3 pm check-in time. I still supposed to have the option to cancel up until 6 pm on the reservation date. When I called the hotel to inquire about it, the lady on the phone refused to provide her name; tried to over talk me; told me that it is their policy to charge the card. I asked for a manager...told that the problem was not with them, but my bank...the card was a debit card (credit card with option for debit); I would be asked to present card again upon check-in for it to be swiped (double billed). My issue is that this never happens to me with other chains. Depending who you talk to, this is not suppose to happen. Get to hotel into room...for a handicapped room...small; beds not queen as requested; sofa not pull-out as advertised; shower too small for a person with my handicap; pool area shared with other hotel brand; exercise room only had a treadmill and stationary bike in what looks like a closet; no market; and staff seemed to have an attitude. I have given up on the Comfort Suite brand...I'd rather stay at the Motel 6,  Rodeway Inn,...I booked our stay for 1 night via choicehotels. I usually do not have any issues with payment, but I have stayed in Comfort Suites and always have an issue with this brand. On this occassion, I was charged that morning for a 3 pm check-in time. I still supposed to have the option to cancel up until 6 pm on the reservation date. When I called the hotel to inquire about it, the lady on the phone refused to provide her name; tried to over talk me; told me that it is their policy to charge the card. I asked for a manager...told that the problem was not with them, but my bank...the card was a debit card (credit card with option for debit); I would be asked to present card again upon check-in for it to be swiped (double billed). My issue is that this never happens to me with other chains. Depending who you talk to, this is not suppose to happen. Get to hotel into room...for a handicapped room...small; beds not queen as requested; sofa not pull-out as advertised; shower too small for a person with my handicap; pool area shared with other hotel brand; exercise room only had a treadmill and stationary bike in what looks like a closet; no market; and staff seemed to have an attitude. I have given up on the Comfort Suite brand...I'd rather stay at the Motel 6,  Rodeway Inn, Econolodge, etc., before staying at this brand again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I booked our stay for 1 night via choicehotels. I usually do not have any issues with payment, but I have stayed in Comfort Suites and always have an issue with this brand. On this occassion, I was charged that morning for a 3 pm check-in time. I still supposed to have the option to cancel up until 6 pm on the reservation date. When I called the hotel to inquire about it, the lady on the phone refused to provide her name; tried to over talk me; told me that it is their policy to charge the card. I asked for a manager...told that the problem was not with them, but my bank...the card was a debit card (credit card with option for debit); I would be asked to present card again upon check-in for it to be swiped (double billed). My issue is that this never happens to me with other chains. Depending who you talk to, this is not suppose to happen. Get to hotel into room...for a handicapped room...small; beds not queen as requested; sofa not pull-out as advertised; shower too small for a person with my handicap; pool area shared with other hotel brand; exercise room only had a treadmill and stationary bike in what looks like a closet; no market; and staff seemed to have an attitude. I have given up on the Comfort Suite brand...I'd rather stay at the Motel 6,  Rodeway Inn,...I booked our stay for 1 night via choicehotels. I usually do not have any issues with payment, but I have stayed in Comfort Suites and always have an issue with this brand. On this occassion, I was charged that morning for a 3 pm check-in time. I still supposed to have the option to cancel up until 6 pm on the reservation date. When I called the hotel to inquire about it, the lady on the phone refused to provide her name; tried to over talk me; told me that it is their policy to charge the card. I asked for a manager...told that the problem was not with them, but my bank...the card was a debit card (credit card with option for debit); I would be asked to present card again upon check-in for it to be swiped (double billed). My issue is that this never happens to me with other chains. Depending who you talk to, this is not suppose to happen. Get to hotel into room...for a handicapped room...small; beds not queen as requested; sofa not pull-out as advertised; shower too small for a person with my handicap; pool area shared with other hotel brand; exercise room only had a treadmill and stationary bike in what looks like a closet; no market; and staff seemed to have an attitude. I have given up on the Comfort Suite brand...I'd rather stay at the Motel 6,  Rodeway Inn, Econolodge, etc., before staying at this brand again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r170773917-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170773917</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>If you need a hotel close to the airport</t>
+  </si>
+  <si>
+    <t>I was in the need of a hotel due to a flight connection cancelation so I called the distressed passengers hotel booking and they offer 3 hotels. I asked for a hotel close to a convenient store so I could buy something to eat, wear or be able to buy basic needs. The operator told me that this hotel was close to a convenient store. But she never told me it was a gas station store beside a taco bell and it was close to the hotel but not that close to walk by myself at night. 
+The shuttle from the airport took forever to come and pick me up. When driving to the hotel I realized they were several other hotels closer to the airport and not that expensive. FInally When I arrived to the hotel is a little bit basic, it look a bit old, with those big window a/c that are really noisy. The hotel is beside Double tree and the highway. Is about 3 large blocks to get to the closer Subway and another big block to get to the convenience store of the gas station and the taco bell. 
+I can tell the front desk personnel from the night shift was not really helpful nor nice. Let´s say they just took my name, give me my key card and answer in short sentence my questions about breakfast, airport shutttle and about a store nearby. The...I was in the need of a hotel due to a flight connection cancelation so I called the distressed passengers hotel booking and they offer 3 hotels. I asked for a hotel close to a convenient store so I could buy something to eat, wear or be able to buy basic needs. The operator told me that this hotel was close to a convenient store. But she never told me it was a gas station store beside a taco bell and it was close to the hotel but not that close to walk by myself at night. The shuttle from the airport took forever to come and pick me up. When driving to the hotel I realized they were several other hotels closer to the airport and not that expensive. FInally When I arrived to the hotel is a little bit basic, it look a bit old, with those big window a/c that are really noisy. The hotel is beside Double tree and the highway. Is about 3 large blocks to get to the closer Subway and another big block to get to the convenience store of the gas station and the taco bell. I can tell the front desk personnel from the night shift was not really helpful nor nice. Let´s say they just took my name, give me my key card and answer in short sentence my questions about breakfast, airport shutttle and about a store nearby. The morning personnel was a bit more friendly and helpful.The room was old fashioned but functional with 2 double beds, It is spacious with a little fridge and microwave and a coffeemaker and a big bathroom.The good things are they offer Free breakfast with fruit, bagels,and waffles, Free WiFi and complimentary Airport shuttle.I expected a little bit more but It was Ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I was in the need of a hotel due to a flight connection cancelation so I called the distressed passengers hotel booking and they offer 3 hotels. I asked for a hotel close to a convenient store so I could buy something to eat, wear or be able to buy basic needs. The operator told me that this hotel was close to a convenient store. But she never told me it was a gas station store beside a taco bell and it was close to the hotel but not that close to walk by myself at night. 
+The shuttle from the airport took forever to come and pick me up. When driving to the hotel I realized they were several other hotels closer to the airport and not that expensive. FInally When I arrived to the hotel is a little bit basic, it look a bit old, with those big window a/c that are really noisy. The hotel is beside Double tree and the highway. Is about 3 large blocks to get to the closer Subway and another big block to get to the convenience store of the gas station and the taco bell. 
+I can tell the front desk personnel from the night shift was not really helpful nor nice. Let´s say they just took my name, give me my key card and answer in short sentence my questions about breakfast, airport shutttle and about a store nearby. The...I was in the need of a hotel due to a flight connection cancelation so I called the distressed passengers hotel booking and they offer 3 hotels. I asked for a hotel close to a convenient store so I could buy something to eat, wear or be able to buy basic needs. The operator told me that this hotel was close to a convenient store. But she never told me it was a gas station store beside a taco bell and it was close to the hotel but not that close to walk by myself at night. The shuttle from the airport took forever to come and pick me up. When driving to the hotel I realized they were several other hotels closer to the airport and not that expensive. FInally When I arrived to the hotel is a little bit basic, it look a bit old, with those big window a/c that are really noisy. The hotel is beside Double tree and the highway. Is about 3 large blocks to get to the closer Subway and another big block to get to the convenience store of the gas station and the taco bell. I can tell the front desk personnel from the night shift was not really helpful nor nice. Let´s say they just took my name, give me my key card and answer in short sentence my questions about breakfast, airport shutttle and about a store nearby. The morning personnel was a bit more friendly and helpful.The room was old fashioned but functional with 2 double beds, It is spacious with a little fridge and microwave and a coffeemaker and a big bathroom.The good things are they offer Free breakfast with fruit, bagels,and waffles, Free WiFi and complimentary Airport shuttle.I expected a little bit more but It was Ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r165221348-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165221348</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>This hotel is very close to the airport and the highway.  The front desk staff was friendly and helpful.  Some downfalls are when my room was cleaned the towels were not replaced and water pressure in the shower was lacking.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r163573026-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163573026</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Good breakfast, clean, friendly and shuttle service.</t>
+  </si>
+  <si>
+    <t>Working for the airlines I needed a place with daily shuttle service to work and close to the airport.  This hotel lived up to the promise.  Desk staff was okay, not the best but kept me happy.Great breakfast every morning, clean room, etc.  This is the basic comfort suites hotel.  I will stay there again and would recommend to others.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r163224013-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163224013</t>
+  </si>
+  <si>
+    <t>06/06/2013</t>
+  </si>
+  <si>
+    <t>Convenient to Bush Airport</t>
+  </si>
+  <si>
+    <t>This hotel is one in a strip of hotels close to the airport. Front desk staff were friendly and very helpful. They have a regular shuttle service to and from the airport. The hotel is on a divided highway. If you're coming from the airport, the hotel is on your right, but if you're going towards the airport you have to pass it and make a u-turn to get back to it. No problem, as long as you know about it!No complaints: everything was as expected, except the staff at the front desk were way better than expected!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r155439406-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155439406</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Nicest Staff</t>
+  </si>
+  <si>
+    <t>I arrived about 3 hours before check in due to my flight. They were so accomodating. They put me in a room right away &amp; even offered me breakfast. The breakfast was very good, good variety.  It was the staff that made the difference. From the manager to the cleaning ladies. It was a nice experience. Rooms were clean and I had no problems with anything from the bed to the bathroom. =)</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r154636189-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154636189</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Great place to spend the night!</t>
+  </si>
+  <si>
+    <t>Only stayed one night here, but the room was HUGE and the person at the front desk was very nice.  The room and bedding were all clean and I can say nothing bad about it.  I only stayed for about 8 hours for a quick overnight sleep, but I didn't find anything wrong with the room whatsoever.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r153239257-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153239257</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Close to the airport</t>
+  </si>
+  <si>
+    <t>We stayed here for one night on the way to Hawaii. There is nothing fancy about the hotel but is was adequate for our needs. It offered a decent breakfast and a free shuttle to the airport. The room was clean albeit a little worn down. The staff did allow me to keep my vehicle parked here while we were in Hawaii. This saved us about a hundred bucks in parking fees. This alone would earn repeat business from me. Well done!</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r151500844-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151500844</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>Great second time stay</t>
+  </si>
+  <si>
+    <t>This is our second time to stay here. Coming in from south Louisiana, it was easy to drive to. We arrived at 2 pm and were checked in within minutes. The room was clean, well stocked with towels/ wash cloths and temp great once adjusting A/C.There are 5/6 restaurants, a bar, cigar shop, and spa within walking distance. Walmart is a couple miles down the road.Enjoyed being able to leave car here while on 2 week cruise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r150040252-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150040252</t>
+  </si>
+  <si>
+    <t>01/19/2013</t>
+  </si>
+  <si>
+    <t>Bad Customer service</t>
+  </si>
+  <si>
+    <t>Made the reservation thru Expedia . verified with Expedia that we need early check in for two crew members Expedia verified it would not be a problem . When the crew arrived for an early check in the front desk person was rude unhelpful and basically would not offer a check in until after 3pm. The crew had to find a different hotel to check in . Further Expedia would not refund the charges .MoreShow less</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded February 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2013</t>
+  </si>
+  <si>
+    <t>Made the reservation thru Expedia . verified with Expedia that we need early check in for two crew members Expedia verified it would not be a problem . When the crew arrived for an early check in the front desk person was rude unhelpful and basically would not offer a check in until after 3pm. The crew had to find a different hotel to check in . Further Expedia would not refund the charges .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r148010966-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148010966</t>
+  </si>
+  <si>
+    <t>12/24/2012</t>
+  </si>
+  <si>
+    <t>Texas hospitality</t>
+  </si>
+  <si>
+    <t>My family stayed here while attending a Houston Astros game and was wary of staying here because of some slightly negative reviews of this hotel.  Not the case with this property.  The hotel is maintained very well and exceeded my expectations especially of its location near the airport.  The noise from the jets are only heard when outside by the pool.  Breakfast is good, beds are soft and comfortable, and the staff is attentive and friendly.After staying at this Comfort Suites hotel I wonder why some reviewers are so critical.  Rest assured that this property is representing the Quality Hotels brand very nicely.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r145002511-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145002511</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>Very nice for an overnight stay</t>
+  </si>
+  <si>
+    <t>I choose this hotel because of it's location close to the airport and fit to the government Perdiem rate.  Honestly I was skeptical about the quality of the hotel.  This is the first time I chose a comfort inn hotel, and it blew my mind, it was a very nice and clean hotel, despite a small issue I have upon my arrival when I was given a room that smell like some one have been smoking in there.  They quickly changed my room to the 3rd floor and I have no complained.  Everything was perfect.  The breakfast in the morning was sufficient enough, also the shuttle to and from the airport.  The driver in the morning that take me to the airport was very helpful.  I will definitely stay in this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I choose this hotel because of it's location close to the airport and fit to the government Perdiem rate.  Honestly I was skeptical about the quality of the hotel.  This is the first time I chose a comfort inn hotel, and it blew my mind, it was a very nice and clean hotel, despite a small issue I have upon my arrival when I was given a room that smell like some one have been smoking in there.  They quickly changed my room to the 3rd floor and I have no complained.  Everything was perfect.  The breakfast in the morning was sufficient enough, also the shuttle to and from the airport.  The driver in the morning that take me to the airport was very helpful.  I will definitely stay in this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r144773423-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144773423</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>OK, but may be better nearby</t>
+  </si>
+  <si>
+    <t>I had an overnight layover between domestic and international flights and stayed at Comfort Suites. The Good Points: You can call the hotel using a free courtesy phone in baggage claim at Bush Intercontinental Airport so the shuttle knows to come pick you up. The shuttle came within 15 minutes and that was at 9:45 pm. Fast 10 minutes to the hotel from the airport. Fast check-in with my reservation using Booking.com (which was easy and great, by the way). Shuttle was efficient in the morning ... EXCEPT watch that you are waiting for the shuttle at least 10 minutes early. I showed up for the 7:00 am shuttle at 6:55 am and it had already left. The receptionist had to call the driver back for me and another guest. The room is simple yet very spacious. Bathroom shower is great. Breakfast OK, not anything to write home about. Room is quiet despite being close to a freeway and the airport.The Bad Points: Reception staff don't know much. When asked about making long-distance phone calls from the room, the front desk staff did not know the cost. In-room "high speed" internet connection is the farthest thing from high speed I've ever seen. Couldn't connect to Skype over a 30 minute period because the connection was too slow. Bed sheets were quite worn and a little stained in parts. Watch the departing shuttle times (see above).MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded November 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2012</t>
+  </si>
+  <si>
+    <t>I had an overnight layover between domestic and international flights and stayed at Comfort Suites. The Good Points: You can call the hotel using a free courtesy phone in baggage claim at Bush Intercontinental Airport so the shuttle knows to come pick you up. The shuttle came within 15 minutes and that was at 9:45 pm. Fast 10 minutes to the hotel from the airport. Fast check-in with my reservation using Booking.com (which was easy and great, by the way). Shuttle was efficient in the morning ... EXCEPT watch that you are waiting for the shuttle at least 10 minutes early. I showed up for the 7:00 am shuttle at 6:55 am and it had already left. The receptionist had to call the driver back for me and another guest. The room is simple yet very spacious. Bathroom shower is great. Breakfast OK, not anything to write home about. Room is quiet despite being close to a freeway and the airport.The Bad Points: Reception staff don't know much. When asked about making long-distance phone calls from the room, the front desk staff did not know the cost. In-room "high speed" internet connection is the farthest thing from high speed I've ever seen. Couldn't connect to Skype over a 30 minute period because the connection was too slow. Bed sheets were quite worn and a little stained in parts. Watch the departing shuttle times (see above).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r143634124-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143634124</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>First time to Houston, TX</t>
+  </si>
+  <si>
+    <t>I visited Houston, TX for the first time in my life for a mini-vacation. i stayed at this hotel &amp; it was one of my best hotel stays ever. i had many to choose from since the airport area had tons of hotels to choose from, but i decided to try the comfort suites because of good review. i really enjoyed my stay, the rooms were clean, the beds comfortable &amp; the service was great. i would definately stay here again &amp; recommend this hotel.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r141919159-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141919159</t>
+  </si>
+  <si>
+    <t>10/03/2012</t>
+  </si>
+  <si>
+    <t>"Many stays over 8 years"</t>
+  </si>
+  <si>
+    <t>I am a flight attendant commuter who stays here in between trips.  Rooms are always clean, the beds are comfortable, it is close to the airport and the van runs on time--these things are all important to anyone in the airline business.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r140766675-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140766675</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>The staff make this Hotel</t>
+  </si>
+  <si>
+    <t>Good, solid hotel with clean rooms, all the standard amenities (coffee maker, etc), plus a fridge and microwave, free internet, and a business center, which are very nice extras that a lot of other hotels at this level don't provide.  What truly makes this hotel stand out, though, is the staff.  I've been a frequent guest and I've always been very impressed with the folks that work here, from the van drivers to the front desk (hey, Marie!) to the ladies that make sure your room is clean and ready.  There are plenty of choices in the area, but I've always come back here because of the service!  Thanks for taking such great care of me on way too many occasions! P.J. from COMoreShow less</t>
+  </si>
+  <si>
+    <t>Good, solid hotel with clean rooms, all the standard amenities (coffee maker, etc), plus a fridge and microwave, free internet, and a business center, which are very nice extras that a lot of other hotels at this level don't provide.  What truly makes this hotel stand out, though, is the staff.  I've been a frequent guest and I've always been very impressed with the folks that work here, from the van drivers to the front desk (hey, Marie!) to the ladies that make sure your room is clean and ready.  There are plenty of choices in the area, but I've always come back here because of the service!  Thanks for taking such great care of me on way too many occasions! P.J. from COMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r139823388-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139823388</t>
+  </si>
+  <si>
+    <t>09/09/2012</t>
+  </si>
+  <si>
+    <t>Good overnight accomodation</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night. We were between flights and just needed overnight accomodation.  The Comfort Suites Hotel is perfect for that kind of situation. It is located within walking distance of several take-out restaurants. The shuttle service is free and reliable. They provide a free breakfast, available after 7AM. Internet is free.  Our room was very comfortable. I booked this on booking.com for $69, so no complaints whatsoever!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r137678908-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137678908</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Great hotel, very nice staff</t>
+  </si>
+  <si>
+    <t>I have stayed at this Comfort Suites many times and have always been completely satisfied. The rooms are very comfortable and clean , with all the amenities a traveler could want. Free internet, coffe maker, microwave, and refrigerator. A great flat screen tv with all kinds of chanels. And a very nice complimentary breakfast as well.The staff is always very friendly and welcoming, as well as the hotel van drivers. Transportation to and from the hotel is very dependable, which is important to me.I would recommend Comfort Suites to everyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r137254036-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137254036</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>Great weekend in Houston!</t>
+  </si>
+  <si>
+    <t>Stayed in the hotel this passed weekend. The room was great, very clean, and with a great space. Employee are great, and the breakfast was good. Also the shuttle was on time in the morning and in the afternoon. The location is very convenient to the airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r137090193-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137090193</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>worst customer service I have ever experienced</t>
+  </si>
+  <si>
+    <t>I will start at the beginning.  We arrived at IAH, went through customs, got our luggage and were standing at the hotel shuttle pick-up sign before we called the hotel for pick-up.  They said no problem, someone would be right there to pick us up.  After waiting 35 minutes without being picked up, my husband called the hotel again.  The girl that answered the phone said that the shuttle driver came by and we weren't there.  He told her that we were standing right next to the sign for hotel shuttle pick-up and no shuttle had ever gone by for their hotel.  All of a sudden, mid-sentence, the phone went dead.  Ten minutes later, we were still at the hotel shuttle pick-up sign discussing what we were going to do, when the shutle driver showed up.  He never spoke a single word to us when he arrived or during the drive to the hotel.  Not sorry I didn't see you or hello or anything.  When we arrived at the hotel, my husband asked the girl at the desk why she hung up on him.  At first, she didn't acknowledge even talking to him.  When he asked her a second time, she said that she had put him on hold.  She had not put him on hold.  He was mid-sentence and she never said anything about being put on hold.  At that time, I inquired about the shuttle in the morning...I will start at the beginning.  We arrived at IAH, went through customs, got our luggage and were standing at the hotel shuttle pick-up sign before we called the hotel for pick-up.  They said no problem, someone would be right there to pick us up.  After waiting 35 minutes without being picked up, my husband called the hotel again.  The girl that answered the phone said that the shuttle driver came by and we weren't there.  He told her that we were standing right next to the sign for hotel shuttle pick-up and no shuttle had ever gone by for their hotel.  All of a sudden, mid-sentence, the phone went dead.  Ten minutes later, we were still at the hotel shuttle pick-up sign discussing what we were going to do, when the shutle driver showed up.  He never spoke a single word to us when he arrived or during the drive to the hotel.  Not sorry I didn't see you or hello or anything.  When we arrived at the hotel, my husband asked the girl at the desk why she hung up on him.  At first, she didn't acknowledge even talking to him.  When he asked her a second time, she said that she had put him on hold.  She had not put him on hold.  He was mid-sentence and she never said anything about being put on hold.  At that time, I inquired about the shuttle in the morning because we had a 9A.M. flight.  She said that the shuttle started at 5A.M. and went every 1/2 hour throughout the day so we didn't need a reservation.  The hotel smelled like it hadn't been vacuumed in months.  The appearance was O.K. but the carpeted hallways and the room itself smelled. In the morning,the breakfast was available early and the shuttle was on schedule.  The different shuttle driver was quite pleasant.  We did receive a 10% discount but that was because both phones in our room were not working.   We will be staying near IAH again next month and I am so glad that I waited until after this stay to make the second reservation.  Needless to say, it will be at another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded August 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2012</t>
+  </si>
+  <si>
+    <t>I will start at the beginning.  We arrived at IAH, went through customs, got our luggage and were standing at the hotel shuttle pick-up sign before we called the hotel for pick-up.  They said no problem, someone would be right there to pick us up.  After waiting 35 minutes without being picked up, my husband called the hotel again.  The girl that answered the phone said that the shuttle driver came by and we weren't there.  He told her that we were standing right next to the sign for hotel shuttle pick-up and no shuttle had ever gone by for their hotel.  All of a sudden, mid-sentence, the phone went dead.  Ten minutes later, we were still at the hotel shuttle pick-up sign discussing what we were going to do, when the shutle driver showed up.  He never spoke a single word to us when he arrived or during the drive to the hotel.  Not sorry I didn't see you or hello or anything.  When we arrived at the hotel, my husband asked the girl at the desk why she hung up on him.  At first, she didn't acknowledge even talking to him.  When he asked her a second time, she said that she had put him on hold.  She had not put him on hold.  He was mid-sentence and she never said anything about being put on hold.  At that time, I inquired about the shuttle in the morning...I will start at the beginning.  We arrived at IAH, went through customs, got our luggage and were standing at the hotel shuttle pick-up sign before we called the hotel for pick-up.  They said no problem, someone would be right there to pick us up.  After waiting 35 minutes without being picked up, my husband called the hotel again.  The girl that answered the phone said that the shuttle driver came by and we weren't there.  He told her that we were standing right next to the sign for hotel shuttle pick-up and no shuttle had ever gone by for their hotel.  All of a sudden, mid-sentence, the phone went dead.  Ten minutes later, we were still at the hotel shuttle pick-up sign discussing what we were going to do, when the shutle driver showed up.  He never spoke a single word to us when he arrived or during the drive to the hotel.  Not sorry I didn't see you or hello or anything.  When we arrived at the hotel, my husband asked the girl at the desk why she hung up on him.  At first, she didn't acknowledge even talking to him.  When he asked her a second time, she said that she had put him on hold.  She had not put him on hold.  He was mid-sentence and she never said anything about being put on hold.  At that time, I inquired about the shuttle in the morning because we had a 9A.M. flight.  She said that the shuttle started at 5A.M. and went every 1/2 hour throughout the day so we didn't need a reservation.  The hotel smelled like it hadn't been vacuumed in months.  The appearance was O.K. but the carpeted hallways and the room itself smelled. In the morning,the breakfast was available early and the shuttle was on schedule.  The different shuttle driver was quite pleasant.  We did receive a 10% discount but that was because both phones in our room were not working.   We will be staying near IAH again next month and I am so glad that I waited until after this stay to make the second reservation.  Needless to say, it will be at another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r121426980-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121426980</t>
+  </si>
+  <si>
+    <t>12/05/2011</t>
+  </si>
+  <si>
+    <t>Great overnight choice</t>
+  </si>
+  <si>
+    <t>Location was very convenient - close to airport and easy to find.  The breakfast included was simple but had a good choice of self serve foods.  The room was quite big for the price.  It was a good choice for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Location was very convenient - close to airport and easy to find.  The breakfast included was simple but had a good choice of self serve foods.  The room was quite big for the price.  It was a good choice for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r121311259-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121311259</t>
+  </si>
+  <si>
+    <t>12/02/2011</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>The hotel was fine -large, spacious room, comfprtable bed, very top quality interior decor, microwave and storage cabinet in the room -which was very convenient, very clean room -everythihing worked fine -except that the TV had limited channel options -so for instance, it didn't have Bravo :). Staff were adequate -professional about their business but didn't go out of their way to be nice and didn't strike me as particularly friendly. Let's just say, away from home, I have a seen a whole lot better.That said, stay was satisfactory and I won't mind staying there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r116985056-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116985056</t>
+  </si>
+  <si>
+    <t>08/20/2011</t>
+  </si>
+  <si>
+    <t>Ugh!</t>
+  </si>
+  <si>
+    <t>First, we were put into a room with stains all over the comforters and trash on the floor. We were given attitude about it then put into another room with hair all over the bathroom. We were too tired to do anything about it. The last straw however was being woke up at 7am by housekeeping! All these doors were slamming starting around 6 but my husband got woken up at 7, went to the hallway and it was the maids! He told them politely to please stop slamming the doors, that itwas shaking the whole room. We were given attitude when we complained and were told the doors were heavy and they have to clean the rooms. Uhhhh hello, the guests are the reason the cleaning staff is even here. Care should be taken as to not disturb them. Closing the door instead of letting it slam itself would have been awesome. We were also told that they couldn't do anything about all of this as there is no manager on duty. All i can say about this stay is wtf!MoreShow less</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded September 20, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2011</t>
+  </si>
+  <si>
+    <t>First, we were put into a room with stains all over the comforters and trash on the floor. We were given attitude about it then put into another room with hair all over the bathroom. We were too tired to do anything about it. The last straw however was being woke up at 7am by housekeeping! All these doors were slamming starting around 6 but my husband got woken up at 7, went to the hallway and it was the maids! He told them politely to please stop slamming the doors, that itwas shaking the whole room. We were given attitude when we complained and were told the doors were heavy and they have to clean the rooms. Uhhhh hello, the guests are the reason the cleaning staff is even here. Care should be taken as to not disturb them. Closing the door instead of letting it slam itself would have been awesome. We were also told that they couldn't do anything about all of this as there is no manager on duty. All i can say about this stay is wtf!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r115456523-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115456523</t>
+  </si>
+  <si>
+    <t>07/17/2011</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>Pros:Room clean (but I did go over it with clorox wipes and spray for bedding)WiFi worked but slowMicrowave clean workedBreakfast (Fresh Fruit, waffles, yogurt, danishes, cereal, toast,instant oatmeal etc.)Good water pressure in showerAC excellentwe received a brand new flat screen TV as did all the rooms I believeCustomer Service A+Cons I didn't use the pool as I did not smell any colorine and I had to exchange my key 3 times becuase it just wouldn't work. I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded October 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2011</t>
+  </si>
+  <si>
+    <t>Pros:Room clean (but I did go over it with clorox wipes and spray for bedding)WiFi worked but slowMicrowave clean workedBreakfast (Fresh Fruit, waffles, yogurt, danishes, cereal, toast,instant oatmeal etc.)Good water pressure in showerAC excellentwe received a brand new flat screen TV as did all the rooms I believeCustomer Service A+Cons I didn't use the pool as I did not smell any colorine and I had to exchange my key 3 times becuase it just wouldn't work. I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r86569406-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>86569406</t>
+  </si>
+  <si>
+    <t>11/09/2010</t>
+  </si>
+  <si>
+    <t>YOU CAN FIND BETTER</t>
+  </si>
+  <si>
+    <t>5 night stay that started out ok and went downhill from there, after travel into town and worn out sleep was all that mattered, but a noisy inside air unit defeated that possibilty.
+Rooms operate off of a "Green" policy that requires your key to be in a holder on the wall for lights/ HVAC to operate, so room was hot and stuffy upon arrival. First day out we were gone 2 hours 8a-10a and upon return none of our keys would open our rooms, back to the desk for reprogram, but wait, you have to have the key for the power as well as the key for the door reporgrammed together. left out again about 12n and returned @ 5p, maid had cleaned the room, taking the shampoo and soap I had just opened from the shower and not replacing it (which I didn't see until 6a the next day. She also removed the card in the power slot which I had to get replaced along with another door key. Day 2 finds us again locked out of our rooms when we return. After a short nap I go downstairs to the workout room to find a treadmill and a bike along with a clock on the wall still showing DST and a flat screen TV mounted on the wall with no control for it, which didn't hinder me since I was iPoding it anyway. About 20 min into...5 night stay that started out ok and went downhill from there, after travel into town and worn out sleep was all that mattered, but a noisy inside air unit defeated that possibilty.Rooms operate off of a "Green" policy that requires your key to be in a holder on the wall for lights/ HVAC to operate, so room was hot and stuffy upon arrival. First day out we were gone 2 hours 8a-10a and upon return none of our keys would open our rooms, back to the desk for reprogram, but wait, you have to have the key for the power as well as the key for the door reporgrammed together. left out again about 12n and returned @ 5p, maid had cleaned the room, taking the shampoo and soap I had just opened from the shower and not replacing it (which I didn't see until 6a the next day. She also removed the card in the power slot which I had to get replaced along with another door key. Day 2 finds us again locked out of our rooms when we return. After a short nap I go downstairs to the workout room to find a treadmill and a bike along with a clock on the wall still showing DST and a flat screen TV mounted on the wall with no control for it, which didn't hinder me since I was iPoding it anyway. About 20 min into my run I look around to see no water anywhere in the area and had to stop my routine to go out to the lobby area to get some water. After 2 sleepless nights I downloaded an app of white noise to my iPod and was able to play it through the room radio thru a Mp3/Aux cable that fed the radio for a better night of sleep. Between battling for constant room/power key replacements and lack of other things you would be better served somewhere else for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>5 night stay that started out ok and went downhill from there, after travel into town and worn out sleep was all that mattered, but a noisy inside air unit defeated that possibilty.
+Rooms operate off of a "Green" policy that requires your key to be in a holder on the wall for lights/ HVAC to operate, so room was hot and stuffy upon arrival. First day out we were gone 2 hours 8a-10a and upon return none of our keys would open our rooms, back to the desk for reprogram, but wait, you have to have the key for the power as well as the key for the door reporgrammed together. left out again about 12n and returned @ 5p, maid had cleaned the room, taking the shampoo and soap I had just opened from the shower and not replacing it (which I didn't see until 6a the next day. She also removed the card in the power slot which I had to get replaced along with another door key. Day 2 finds us again locked out of our rooms when we return. After a short nap I go downstairs to the workout room to find a treadmill and a bike along with a clock on the wall still showing DST and a flat screen TV mounted on the wall with no control for it, which didn't hinder me since I was iPoding it anyway. About 20 min into...5 night stay that started out ok and went downhill from there, after travel into town and worn out sleep was all that mattered, but a noisy inside air unit defeated that possibilty.Rooms operate off of a "Green" policy that requires your key to be in a holder on the wall for lights/ HVAC to operate, so room was hot and stuffy upon arrival. First day out we were gone 2 hours 8a-10a and upon return none of our keys would open our rooms, back to the desk for reprogram, but wait, you have to have the key for the power as well as the key for the door reporgrammed together. left out again about 12n and returned @ 5p, maid had cleaned the room, taking the shampoo and soap I had just opened from the shower and not replacing it (which I didn't see until 6a the next day. She also removed the card in the power slot which I had to get replaced along with another door key. Day 2 finds us again locked out of our rooms when we return. After a short nap I go downstairs to the workout room to find a treadmill and a bike along with a clock on the wall still showing DST and a flat screen TV mounted on the wall with no control for it, which didn't hinder me since I was iPoding it anyway. About 20 min into my run I look around to see no water anywhere in the area and had to stop my routine to go out to the lobby area to get some water. After 2 sleepless nights I downloaded an app of white noise to my iPod and was able to play it through the room radio thru a Mp3/Aux cable that fed the radio for a better night of sleep. Between battling for constant room/power key replacements and lack of other things you would be better served somewhere else for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r64484356-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>64484356</t>
+  </si>
+  <si>
+    <t>05/18/2010</t>
+  </si>
+  <si>
+    <t>Does the Job</t>
+  </si>
+  <si>
+    <t>This meets the requirements of a comfortable, clean, quiet place to sleep near the airport - if thats what you want you shouldn't have any problems. More than that it depends on what you want. No restaurant on site for example. But in the immediate vicinity there is Subway or equivalent so you won't starve (unlike some places I've been where I had to subsist on vending machine crackers) and I'd think there are restaurants in nearby full-service hotels. It has all the usual amenities and a fair breakfast with waffles being the only hot food item. Wasn't flying so didn't get a chance to see how airport transport works. I seem to recall from previous experience tho the adjacent Clarion may have the better park/fly deal for Choice Elite members.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>This meets the requirements of a comfortable, clean, quiet place to sleep near the airport - if thats what you want you shouldn't have any problems. More than that it depends on what you want. No restaurant on site for example. But in the immediate vicinity there is Subway or equivalent so you won't starve (unlike some places I've been where I had to subsist on vending machine crackers) and I'd think there are restaurants in nearby full-service hotels. It has all the usual amenities and a fair breakfast with waffles being the only hot food item. Wasn't flying so didn't get a chance to see how airport transport works. I seem to recall from previous experience tho the adjacent Clarion may have the better park/fly deal for Choice Elite members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r32802587-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>32802587</t>
+  </si>
+  <si>
+    <t>06/21/2009</t>
+  </si>
+  <si>
+    <t>close to airport &amp; comfortable</t>
+  </si>
+  <si>
+    <t>After travelling for 20 hours we were glad to stay in a hotel close to the airport. Comfort Suites can be reached in only a few minutes from the car rental station. The rooms were large and comfortable. Check-in was really fast and breakfast was also good - there was quite a variety of foods to pick from and everything looked well maintained. There are even a few restaurants in walking distance. We'd certainly stay there again when flying into Houston an looking for a place to stay close to the airport.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r29058944-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>29058944</t>
+  </si>
+  <si>
+    <t>04/29/2009</t>
+  </si>
+  <si>
+    <t>You will be disappointed</t>
+  </si>
+  <si>
+    <t>The hotel was in need of a remodel.  The mattress was sunken on the sides.  The carpet was worn out.  The hotel has bad breath.  The sheets on the bed were wrinkled up like they had not been changed from the last guest.  The stuffing in the pillows has kind of petrified.  The hotel in general does not look very clean.  There is also a musty, stale smoke type of odor at this hotel.The one good thing was a super fast internet connection.  It was blazing fast!  Also, come to think of it, the room was very large, but the bath was tiny.My advice is to avoid this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r28594619-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>28594619</t>
+  </si>
+  <si>
+    <t>04/22/2009</t>
+  </si>
+  <si>
+    <t>Unhappy</t>
+  </si>
+  <si>
+    <t>The room was spacious but it smells like someone smoked on a non-smoking room. The house keeper went and sprayed the floors to cover up the smell but it still smell. There was no water pressure in the shower, the bed is ok but seems like the pillow case was not change. My overall take on the room doesn't feel clean. I will not stay in this place again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r12647660-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>12647660</t>
+  </si>
+  <si>
+    <t>01/15/2008</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t>I called hotels.com for a hotel near IAH, with a King size bed, with a hot tub.  That was my only criteria.  I got to Comfort Suites, there were no King size beds, and definitley no hot tub.  There was an outdoor pool (January) that looked like creatures were living in it.  The front desk peple were extremly lazy and talking to their friends the whole time.  The second day we called for extra cofee bags, and they were out!  They were also out of clean towels!  She was wahing them so we had to wait 2 hours to shower.  Overall, it was a terrible stay and I wouldn't go back.  Nor would I recommend it to anyone who just needs a cheap place to stay near the airport.  There's gotta be somewhere better out there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, Terry Rendon, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded June 24, 2008</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2008</t>
+  </si>
+  <si>
+    <t>I called hotels.com for a hotel near IAH, with a King size bed, with a hot tub.  That was my only criteria.  I got to Comfort Suites, there were no King size beds, and definitley no hot tub.  There was an outdoor pool (January) that looked like creatures were living in it.  The front desk peple were extremly lazy and talking to their friends the whole time.  The second day we called for extra cofee bags, and they were out!  They were also out of clean towels!  She was wahing them so we had to wait 2 hours to shower.  Overall, it was a terrible stay and I wouldn't go back.  Nor would I recommend it to anyone who just needs a cheap place to stay near the airport.  There's gotta be somewhere better out there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r11985568-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>11985568</t>
+  </si>
+  <si>
+    <t>12/27/2007</t>
+  </si>
+  <si>
+    <t>Excellent hotel close to George Bush Airport</t>
+  </si>
+  <si>
+    <t>After staying at numerous hotels near George Bush Intercontinental Airport in Houston, TX, I was pleasantly surprised to have found the Comfort Inn and Suites on JFK Blvd.  I do a lot of traveling for business in Houston and need to stay close to the airport and this is by far the best airport hotel that I've stayed at in the Houston area.  The customer service is outstanding, the rooms immaculate, and shuttle prompt.  I will not stay at any other hotel when traveling to Houston!  For $80, we stayed in a super clean suite with two queen beds and a fold away bed.  The linens were super clean and very comfortable.  I checked my receipt twice to make sure that I only paid $80 because it far surpassed the $300/night at the Marriott right on the airport property!  Comfort Inn and Suites is the place to stay when looking for a great value, clean location and outstanding customer service!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>After staying at numerous hotels near George Bush Intercontinental Airport in Houston, TX, I was pleasantly surprised to have found the Comfort Inn and Suites on JFK Blvd.  I do a lot of traveling for business in Houston and need to stay close to the airport and this is by far the best airport hotel that I've stayed at in the Houston area.  The customer service is outstanding, the rooms immaculate, and shuttle prompt.  I will not stay at any other hotel when traveling to Houston!  For $80, we stayed in a super clean suite with two queen beds and a fold away bed.  The linens were super clean and very comfortable.  I checked my receipt twice to make sure that I only paid $80 because it far surpassed the $300/night at the Marriott right on the airport property!  Comfort Inn and Suites is the place to stay when looking for a great value, clean location and outstanding customer service!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r5327774-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5327774</t>
+  </si>
+  <si>
+    <t>06/08/2006</t>
+  </si>
+  <si>
+    <t>I was in town for one day and stayed over night at this hotel and I found it to be a great experience.  The hotel close to the airport and provides airport transportation (free of charge).  The hotel is clean and the rooms are very nice.  The bathroom was also 'spacious' compared to other hotels I've stayed in.  Only draw back was the food selection---there is a subway and a 'Denny's type' restaurant nearby but I really wasn't in the mood to go out but I was able to order from a local restaurant and have the food delivered right to my room- The menus are located in the rooms--real food---not pizza.  This was nice. Also, they allowed early check-in. Check-in time is at 3:00pm and my plane arrived at noon. I called them and they sent the airport transporation van immediately for me and my room was already nice and clean!! Will stay here again definitely. Also, quiet at night!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2006</t>
+  </si>
+  <si>
+    <t>I was in town for one day and stayed over night at this hotel and I found it to be a great experience.  The hotel close to the airport and provides airport transportation (free of charge).  The hotel is clean and the rooms are very nice.  The bathroom was also 'spacious' compared to other hotels I've stayed in.  Only draw back was the food selection---there is a subway and a 'Denny's type' restaurant nearby but I really wasn't in the mood to go out but I was able to order from a local restaurant and have the food delivered right to my room- The menus are located in the rooms--real food---not pizza.  This was nice. Also, they allowed early check-in. Check-in time is at 3:00pm and my plane arrived at noon. I called them and they sent the airport transporation van immediately for me and my room was already nice and clean!! Will stay here again definitely. Also, quiet at night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r3213224-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3213224</t>
+  </si>
+  <si>
+    <t>02/20/2005</t>
+  </si>
+  <si>
+    <t>Clean Spacious Room</t>
+  </si>
+  <si>
+    <t>It was a nice clean room. Very spacious, everything was newly remodeled.  Room had a refridgerator and microwave too. The service was good also.  It was right near the airport in a good part of town.  The complimentary breakfast was nice each morning with a variety of breakfast foods, including freshly made waffles.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r2301589-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>2301589</t>
+  </si>
+  <si>
+    <t>07/14/2004</t>
+  </si>
+  <si>
+    <t>Great place, convenient to airport</t>
+  </si>
+  <si>
+    <t>The earlier reviews are very accurate.  The room was large and clean and more than sufficient.  The hotel property itself seemed new and well run.  It is very convenient to the airport as well as to a Thrifty Rent a Car pickup (but if you do get your car there - be advised that it will save you money but you might have to return your car to the airport and take a shuttle back).  The breakfast was good but without much variety -waffles, cereal or a choice of bread products.  My only minor complaint was the lack of parking - it was very hard to find a spot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r1845185-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>1845185</t>
+  </si>
+  <si>
+    <t>04/27/2004</t>
+  </si>
+  <si>
+    <t>Nice Rooms, Breakfast Needs Work</t>
+  </si>
+  <si>
+    <t>Rooms at the Comfort Suites Intercontinental Plaza are comfortable and attractive.  We got a good night of rest after a day of travel.The complimentary breakfast needs a little work.  The selections were meager, and didn't include any fresh fruit.  They did have a very good selection of coffee, though, with flavored syrups to add if you wanted.We appreciated the friendly and helpful driver of the courtesy van that picked us up at IAH.=====By the way, if you are staying at this hotel and want to save some money on a rental car, you can take the courtesy van to get to the hotel (free phone call from the baggage claim at Intercontinental).  Then rent from the Thrify location "IA2" ("HOUSTON/NEAR IAH").  It's just a 5 minute walk from the hotel, and you don't have to pay the airport franchise fees and taxes.  You can return the car to either the Intercontinental or Hobby airport Thrifty locations for no drop charge.  With one fewer day's rental and less taxes and fees, I paid over $100 less for my car than if I had rented it at IAH when I arrived.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms at the Comfort Suites Intercontinental Plaza are comfortable and attractive.  We got a good night of rest after a day of travel.The complimentary breakfast needs a little work.  The selections were meager, and didn't include any fresh fruit.  They did have a very good selection of coffee, though, with flavored syrups to add if you wanted.We appreciated the friendly and helpful driver of the courtesy van that picked us up at IAH.=====By the way, if you are staying at this hotel and want to save some money on a rental car, you can take the courtesy van to get to the hotel (free phone call from the baggage claim at Intercontinental).  Then rent from the Thrify location "IA2" ("HOUSTON/NEAR IAH").  It's just a 5 minute walk from the hotel, and you don't have to pay the airport franchise fees and taxes.  You can return the car to either the Intercontinental or Hobby airport Thrifty locations for no drop charge.  With one fewer day's rental and less taxes and fees, I paid over $100 less for my car than if I had rented it at IAH when I arrived.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1996,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2028,4836 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>151</v>
+      </c>
+      <c r="X17" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>191</v>
+      </c>
+      <c r="X23" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>199</v>
+      </c>
+      <c r="X24" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>217</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" t="s">
+        <v>104</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>104</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J32" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" t="s">
+        <v>247</v>
+      </c>
+      <c r="L32" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>249</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>262</v>
+      </c>
+      <c r="J35" t="s">
+        <v>263</v>
+      </c>
+      <c r="K35" t="s">
+        <v>264</v>
+      </c>
+      <c r="L35" t="s">
+        <v>265</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>271</v>
+      </c>
+      <c r="O36" t="s">
+        <v>104</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>274</v>
+      </c>
+      <c r="J37" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" t="s">
+        <v>276</v>
+      </c>
+      <c r="L37" t="s">
+        <v>277</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>278</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>281</v>
+      </c>
+      <c r="J38" t="s">
+        <v>282</v>
+      </c>
+      <c r="K38" t="s">
+        <v>283</v>
+      </c>
+      <c r="L38" t="s">
+        <v>284</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>287</v>
+      </c>
+      <c r="J39" t="s">
+        <v>288</v>
+      </c>
+      <c r="K39" t="s">
+        <v>289</v>
+      </c>
+      <c r="L39" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>292</v>
+      </c>
+      <c r="J40" t="s">
+        <v>293</v>
+      </c>
+      <c r="K40" t="s">
+        <v>294</v>
+      </c>
+      <c r="L40" t="s">
+        <v>295</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>296</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K41" t="s">
+        <v>300</v>
+      </c>
+      <c r="L41" t="s">
+        <v>301</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>302</v>
+      </c>
+      <c r="O41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>305</v>
+      </c>
+      <c r="J42" t="s">
+        <v>306</v>
+      </c>
+      <c r="K42" t="s">
+        <v>307</v>
+      </c>
+      <c r="L42" t="s">
+        <v>308</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>309</v>
+      </c>
+      <c r="O42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>312</v>
+      </c>
+      <c r="J43" t="s">
+        <v>313</v>
+      </c>
+      <c r="K43" t="s">
+        <v>314</v>
+      </c>
+      <c r="L43" t="s">
+        <v>315</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>316</v>
+      </c>
+      <c r="O43" t="s">
+        <v>104</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>318</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>319</v>
+      </c>
+      <c r="J44" t="s">
+        <v>320</v>
+      </c>
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" t="s">
+        <v>321</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>316</v>
+      </c>
+      <c r="O44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>322</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>323</v>
+      </c>
+      <c r="J45" t="s">
+        <v>324</v>
+      </c>
+      <c r="K45" t="s">
+        <v>325</v>
+      </c>
+      <c r="L45" t="s">
+        <v>326</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>327</v>
+      </c>
+      <c r="O45" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J46" t="s">
+        <v>330</v>
+      </c>
+      <c r="K46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L46" t="s">
+        <v>332</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>333</v>
+      </c>
+      <c r="O46" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>335</v>
+      </c>
+      <c r="J47" t="s">
+        <v>336</v>
+      </c>
+      <c r="K47" t="s">
+        <v>337</v>
+      </c>
+      <c r="L47" t="s">
+        <v>338</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>339</v>
+      </c>
+      <c r="O47" t="s">
+        <v>104</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>340</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>341</v>
+      </c>
+      <c r="J48" t="s">
+        <v>342</v>
+      </c>
+      <c r="K48" t="s">
+        <v>343</v>
+      </c>
+      <c r="L48" t="s">
+        <v>344</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>345</v>
+      </c>
+      <c r="O48" t="s">
+        <v>74</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>346</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>347</v>
+      </c>
+      <c r="J49" t="s">
+        <v>348</v>
+      </c>
+      <c r="K49" t="s">
+        <v>349</v>
+      </c>
+      <c r="L49" t="s">
+        <v>350</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>351</v>
+      </c>
+      <c r="O49" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>353</v>
+      </c>
+      <c r="J50" t="s">
+        <v>354</v>
+      </c>
+      <c r="K50" t="s">
+        <v>355</v>
+      </c>
+      <c r="L50" t="s">
+        <v>356</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>358</v>
+      </c>
+      <c r="J51" t="s">
+        <v>359</v>
+      </c>
+      <c r="K51" t="s">
+        <v>360</v>
+      </c>
+      <c r="L51" t="s">
+        <v>361</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>351</v>
+      </c>
+      <c r="O51" t="s">
+        <v>74</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>362</v>
+      </c>
+      <c r="X51" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>365</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>366</v>
+      </c>
+      <c r="J52" t="s">
+        <v>367</v>
+      </c>
+      <c r="K52" t="s">
+        <v>368</v>
+      </c>
+      <c r="L52" t="s">
+        <v>369</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>371</v>
+      </c>
+      <c r="J53" t="s">
+        <v>372</v>
+      </c>
+      <c r="K53" t="s">
+        <v>373</v>
+      </c>
+      <c r="L53" t="s">
+        <v>374</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>377</v>
+      </c>
+      <c r="J54" t="s">
+        <v>378</v>
+      </c>
+      <c r="K54" t="s">
+        <v>379</v>
+      </c>
+      <c r="L54" t="s">
+        <v>380</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>381</v>
+      </c>
+      <c r="O54" t="s">
+        <v>74</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>382</v>
+      </c>
+      <c r="X54" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>385</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>386</v>
+      </c>
+      <c r="J55" t="s">
+        <v>387</v>
+      </c>
+      <c r="K55" t="s">
+        <v>388</v>
+      </c>
+      <c r="L55" t="s">
+        <v>389</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>390</v>
+      </c>
+      <c r="O55" t="s">
+        <v>104</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>391</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>392</v>
+      </c>
+      <c r="J56" t="s">
+        <v>393</v>
+      </c>
+      <c r="K56" t="s">
+        <v>394</v>
+      </c>
+      <c r="L56" t="s">
+        <v>395</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>396</v>
+      </c>
+      <c r="O56" t="s">
+        <v>74</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>397</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>398</v>
+      </c>
+      <c r="J57" t="s">
+        <v>399</v>
+      </c>
+      <c r="K57" t="s">
+        <v>400</v>
+      </c>
+      <c r="L57" t="s">
+        <v>401</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>396</v>
+      </c>
+      <c r="O57" t="s">
+        <v>74</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>403</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K58" t="s">
+        <v>406</v>
+      </c>
+      <c r="L58" t="s">
+        <v>407</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>408</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>409</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>410</v>
+      </c>
+      <c r="J59" t="s">
+        <v>411</v>
+      </c>
+      <c r="K59" t="s">
+        <v>412</v>
+      </c>
+      <c r="L59" t="s">
+        <v>413</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>408</v>
+      </c>
+      <c r="O59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>414</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>415</v>
+      </c>
+      <c r="J60" t="s">
+        <v>416</v>
+      </c>
+      <c r="K60" t="s">
+        <v>417</v>
+      </c>
+      <c r="L60" t="s">
+        <v>418</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>408</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>419</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>420</v>
+      </c>
+      <c r="J61" t="s">
+        <v>421</v>
+      </c>
+      <c r="K61" t="s">
+        <v>422</v>
+      </c>
+      <c r="L61" t="s">
+        <v>423</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>408</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>424</v>
+      </c>
+      <c r="X61" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>427</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>428</v>
+      </c>
+      <c r="J62" t="s">
+        <v>429</v>
+      </c>
+      <c r="K62" t="s">
+        <v>430</v>
+      </c>
+      <c r="L62" t="s">
+        <v>431</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>432</v>
+      </c>
+      <c r="O62" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>424</v>
+      </c>
+      <c r="X62" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>434</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>435</v>
+      </c>
+      <c r="J63" t="s">
+        <v>436</v>
+      </c>
+      <c r="K63" t="s">
+        <v>437</v>
+      </c>
+      <c r="L63" t="s">
+        <v>438</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>432</v>
+      </c>
+      <c r="O63" t="s">
+        <v>104</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>439</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>440</v>
+      </c>
+      <c r="J64" t="s">
+        <v>441</v>
+      </c>
+      <c r="K64" t="s">
+        <v>442</v>
+      </c>
+      <c r="L64" t="s">
+        <v>443</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>444</v>
+      </c>
+      <c r="X64" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>447</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>448</v>
+      </c>
+      <c r="J65" t="s">
+        <v>449</v>
+      </c>
+      <c r="K65" t="s">
+        <v>450</v>
+      </c>
+      <c r="L65" t="s">
+        <v>451</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>452</v>
+      </c>
+      <c r="O65" t="s">
+        <v>67</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>453</v>
+      </c>
+      <c r="X65" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>456</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>457</v>
+      </c>
+      <c r="J66" t="s">
+        <v>458</v>
+      </c>
+      <c r="K66" t="s">
+        <v>459</v>
+      </c>
+      <c r="L66" t="s">
+        <v>460</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>461</v>
+      </c>
+      <c r="O66" t="s">
+        <v>74</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>463</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>464</v>
+      </c>
+      <c r="J67" t="s">
+        <v>465</v>
+      </c>
+      <c r="K67" t="s">
+        <v>466</v>
+      </c>
+      <c r="L67" t="s">
+        <v>467</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>468</v>
+      </c>
+      <c r="O67" t="s">
+        <v>74</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>470</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>471</v>
+      </c>
+      <c r="J68" t="s">
+        <v>472</v>
+      </c>
+      <c r="K68" t="s">
+        <v>473</v>
+      </c>
+      <c r="L68" t="s">
+        <v>474</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>475</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>476</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>477</v>
+      </c>
+      <c r="J69" t="s">
+        <v>478</v>
+      </c>
+      <c r="K69" t="s">
+        <v>479</v>
+      </c>
+      <c r="L69" t="s">
+        <v>480</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>475</v>
+      </c>
+      <c r="O69" t="s">
+        <v>74</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>481</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>482</v>
+      </c>
+      <c r="J70" t="s">
+        <v>483</v>
+      </c>
+      <c r="K70" t="s">
+        <v>484</v>
+      </c>
+      <c r="L70" t="s">
+        <v>485</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>475</v>
+      </c>
+      <c r="O70" t="s">
+        <v>74</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>486</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>487</v>
+      </c>
+      <c r="J71" t="s">
+        <v>488</v>
+      </c>
+      <c r="K71" t="s">
+        <v>489</v>
+      </c>
+      <c r="L71" t="s">
+        <v>490</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>491</v>
+      </c>
+      <c r="X71" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>494</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>495</v>
+      </c>
+      <c r="J72" t="s">
+        <v>496</v>
+      </c>
+      <c r="K72" t="s">
+        <v>497</v>
+      </c>
+      <c r="L72" t="s">
+        <v>498</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>499</v>
+      </c>
+      <c r="O72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>501</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>502</v>
+      </c>
+      <c r="J73" t="s">
+        <v>503</v>
+      </c>
+      <c r="K73" t="s">
+        <v>175</v>
+      </c>
+      <c r="L73" t="s">
+        <v>504</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>505</v>
+      </c>
+      <c r="O73" t="s">
+        <v>74</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>507</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>508</v>
+      </c>
+      <c r="J74" t="s">
+        <v>509</v>
+      </c>
+      <c r="K74" t="s">
+        <v>510</v>
+      </c>
+      <c r="L74" t="s">
+        <v>511</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>512</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>513</v>
+      </c>
+      <c r="J75" t="s">
+        <v>514</v>
+      </c>
+      <c r="K75" t="s">
+        <v>515</v>
+      </c>
+      <c r="L75" t="s">
+        <v>516</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>517</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>518</v>
+      </c>
+      <c r="J76" t="s">
+        <v>519</v>
+      </c>
+      <c r="K76" t="s">
+        <v>520</v>
+      </c>
+      <c r="L76" t="s">
+        <v>521</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>491</v>
+      </c>
+      <c r="X76" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_108.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_108.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="838">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r613350278-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107783</t>
+  </si>
+  <si>
+    <t>613350278</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Great stay for the price</t>
+  </si>
+  <si>
+    <t>Good place to stay if you don't mind some occasional rumblings of the sound of arriving planes. It helps to muffle the sound if you keep your ac fan constantly on.  One of the cleanest Comfort Suites i have slept in.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r606915573-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>606915573</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Good Long Stay...!!</t>
+  </si>
+  <si>
+    <t>I had very long stay at Comfort Suites last year. It was from 24th June 2017 to 29th July 2017. Located very near to Bush International Airport, it has airport pick up &amp; drop facility which is very helpful. It also has cab service within 5 miles that serves the purpose especially during weekends. The included breakfast is very good. The coffee available for 24 hours especially the bold one is superb. The rooms are neat &amp; clean and overall service is very good. Keep it up...!!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r598486573-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598486573</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Stay away!</t>
+  </si>
+  <si>
+    <t>This hotel has a bed bug problem. I was bitten, along with my traveling companions staying at the opposite end of the hallway. This isn’t a one bed problem - it’s an infestation! If this wasn’t enough to make you want to stay away, there were also ants in my room and the shower head didn’t work correctly (almost no water pressure).</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r594122909-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594122909</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Nice workers , poor hotel</t>
+  </si>
+  <si>
+    <t>I really did not enjoy my stay here. I check reviews before booking and thought the good outweighed the bad so I went with it.  However  , to my initial feeling   I should have passed staying here. I literally had to change rooms multiple times due to finding bugs, poor cleaning , and stains on the sheets. I'm not normally one to complain, but I found it ridiculous. One of the main reasons for staying here was due to the  location and them having a pool. However   it was closed so we didn't even get to use it . Breakfast was decent as it is at all complimentary hotels. Would not recommend .MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I really did not enjoy my stay here. I check reviews before booking and thought the good outweighed the bad so I went with it.  However  , to my initial feeling   I should have passed staying here. I literally had to change rooms multiple times due to finding bugs, poor cleaning , and stains on the sheets. I'm not normally one to complain, but I found it ridiculous. One of the main reasons for staying here was due to the  location and them having a pool. However   it was closed so we didn't even get to use it . Breakfast was decent as it is at all complimentary hotels. Would not recommend .More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r586804553-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107783</t>
-  </si>
-  <si>
     <t>586804553</t>
   </si>
   <si>
@@ -177,9 +261,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r586142749-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -198,9 +279,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r572965905-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -219,7 +297,40 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r564446047-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564446047</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Better than a few of the others at IAH</t>
+  </si>
+  <si>
+    <t>For pretty much any of the hotels around the IAH they're only good as a getaway hotel for an early flight out of Houston. I will say that this hotel is better than a few others I've stayed at at IAH. It is certainly better than the Country Inn next door. They share a parking lot and a parking lot that never seems to have enough spaces. I was in a large party flying out in the morning and not all of us were able to park near the front door. As many reviews have pointed out this is not in the best area of town, so I would advise to take anything of value inside. The room was fine and smelled decent. The tv in the room was lousy and really small. Other than that it is what it is, just an airport getaway hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>For pretty much any of the hotels around the IAH they're only good as a getaway hotel for an early flight out of Houston. I will say that this hotel is better than a few others I've stayed at at IAH. It is certainly better than the Country Inn next door. They share a parking lot and a parking lot that never seems to have enough spaces. I was in a large party flying out in the morning and not all of us were able to park near the front door. As many reviews have pointed out this is not in the best area of town, so I would advise to take anything of value inside. The room was fine and smelled decent. The tv in the room was lousy and really small. Other than that it is what it is, just an airport getaway hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r562218475-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562218475</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Needs Improvement</t>
+  </si>
+  <si>
+    <t>The only thing that has change since my last stay is the lobby is clean. Upon arrival in my room I noticed that a lightbulb was missing from a lamp. I called down to the lobby for a replacement and was told there were none, but I can move to another room if I wanted.The attached picture shows mold growing in the bathtub. Along with the textured bottom being blackened. Seriously? Just a tiny bit of bleach could easily take care of this.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r558918535-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
@@ -237,12 +348,6 @@
     <t>I was greeted kindly by a lady behind the desk upon my arrival. She was very nice and professional. I later found out her name was Breannna. My king suite was large and the bed was comfy. However the hallway smelled of marijuana. That night I tried finding a sports bar nearby, but there is nothing unless you want hotel bars which charge $7/beer. Early in the morning  around 6 a.m.  I heard continued knocking on the door across from me and some man calling out a ladies name. He knocked for a good 5-7 minutes. I was trying to sleep in a bit...nope. The hotel is also not in a great part of town so be careful. Other than that I have nothing but good things to say about the workers and cleanliness of my room.MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I was greeted kindly by a lady behind the desk upon my arrival. She was very nice and professional. I later found out her name was Breannna. My king suite was large and the bed was comfy. However the hallway smelled of marijuana. That night I tried finding a sports bar nearby, but there is nothing unless you want hotel bars which charge $7/beer. Early in the morning  around 6 a.m.  I heard continued knocking on the door across from me and some man calling out a ladies name. He knocked for a good 5-7 minutes. I was trying to sleep in a bit...nope. The hotel is also not in a great part of town so be careful. Other than that I have nothing but good things to say about the workers and cleanliness of my room.More</t>
   </si>
   <si>
@@ -288,6 +393,54 @@
     <t>A fantastic hotel. Very friendly and helpful manager and nothing was too big an ask (even finding tools to break a luggage padlock I had forgotten the keys for). The pool is also a very nice addition, especially after a long flight. Excellent rooms too- surprisingly spacious. Thoroughly recommended. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r499776704-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499776704</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Good stay near highway</t>
+  </si>
+  <si>
+    <t>My husband and I were in Houston for a friend's wedding and stayed at Comfort Suites. The king bed room had a separate couch area and a large desk where I could work. The breakfast was good as well. The parking lot is shared with an adjacent hotel, so you might have trouble finding a spot late at night. Since this hotel is near the freeway, we were able to get around town easily. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>My husband and I were in Houston for a friend's wedding and stayed at Comfort Suites. The king bed room had a separate couch area and a large desk where I could work. The breakfast was good as well. The parking lot is shared with an adjacent hotel, so you might have trouble finding a spot late at night. Since this hotel is near the freeway, we were able to get around town easily. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r490530459-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490530459</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Worst Experience Ever....</t>
+  </si>
+  <si>
+    <t>Got to the hotel after front desk tells us while we are the airport that the last shuttle runs at 11:45PM....our flight was cancelled at the last minute and couldn't even get our bags...had to pick them up the next day...we had to take a UBER to the hotel because it was 12:03. 12:03!!  Then when we get out 3 rooms...all ok the 3rd Floor....get the elevator and...the front desk didn't even bother telling us that the elevator was broken.   Then to sum it all up...my wife goes to get in bed and she find a roach (living), walking around her pillow. Front Desk was called and asked if we'd like to be moved...Uhhhh....Yeah!! So "I" walk down the 3 flights of stairs to get the new room key. After coming 3 flights back up to the new room on the 3rd floor...get in our room and what does my wife find. A spider on our new bed and a dead one in our bathroom.   We were too tired to do anything at that point...I'll take care of it with management in the morning. But we have 3 rooms and I'm not a HAPPY CUSTOMER!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Jack K, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Got to the hotel after front desk tells us while we are the airport that the last shuttle runs at 11:45PM....our flight was cancelled at the last minute and couldn't even get our bags...had to pick them up the next day...we had to take a UBER to the hotel because it was 12:03. 12:03!!  Then when we get out 3 rooms...all ok the 3rd Floor....get the elevator and...the front desk didn't even bother telling us that the elevator was broken.   Then to sum it all up...my wife goes to get in bed and she find a roach (living), walking around her pillow. Front Desk was called and asked if we'd like to be moved...Uhhhh....Yeah!! So "I" walk down the 3 flights of stairs to get the new room key. After coming 3 flights back up to the new room on the 3rd floor...get in our room and what does my wife find. A spider on our new bed and a dead one in our bathroom.   We were too tired to do anything at that point...I'll take care of it with management in the morning. But we have 3 rooms and I'm not a HAPPY CUSTOMER!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r476989465-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -351,6 +504,39 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r470840601-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470840601</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>Good: Property was clean but showing wear. Room was a good size with a nice layout. Staff was pleasant. Convenient to airport. Not good: The AC made a terrible noise all night, ceiling was stained from water damage, the only working ice machine and vending are on the first floor.  And not surprising being so close to the airport it is right under one flight path.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r469879538-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469879538</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Convenient but noisy</t>
+  </si>
+  <si>
+    <t>Spent one night before leaving on an international flight.  Hotel very close to airport.  Room nice with two beds and a nice size couch.  Free shuttle to and from airport.  This location is very noisy-planes flew over all night.  The air conditioner did not keep our room cool.  We needed to get to the airport very early the next morning so we were downstairs early to catch 5:30 shuttle.  Driver did not load our luggage in the van.  When we got to the airport, she delivered us to the wrong terminal!  I asked her before we unloaded our luggage to make sure we were at terminal C.  She said yes but we were actually at Terminal E.  we had to take the train to the correct terminal.  Definitely inconvenient!MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent one night before leaving on an international flight.  Hotel very close to airport.  Room nice with two beds and a nice size couch.  Free shuttle to and from airport.  This location is very noisy-planes flew over all night.  The air conditioner did not keep our room cool.  We needed to get to the airport very early the next morning so we were downstairs early to catch 5:30 shuttle.  Driver did not load our luggage in the van.  When we got to the airport, she delivered us to the wrong terminal!  I asked her before we unloaded our luggage to make sure we were at terminal C.  She said yes but we were actually at Terminal E.  we had to take the train to the correct terminal.  Definitely inconvenient!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r468782409-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -402,6 +588,42 @@
     <t>This hotel is located right after you exit the airport and is at the perfect spot to access all major highway. The rooms are clean and spacious with cozy bed. Rooms are newly renovated and looks fresh. I was pleasantly surprised with their free high speed Wi-Fi. Staff very friendly and accommodating.Would stay at this place again.Lisa</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r457168228-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457168228</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl Weekend Stay</t>
+  </si>
+  <si>
+    <t>My wife and I had a scheduled layover in Houston on what was probably one of the busiest weekends. I'm not a great football fan so when I was booking a hotel room I didn't realize the city was hosting the Super Bowl. Room rates had risen dramatically. One of the more reasonably priced hotels was this one. I checked Tripadvisor reviews and there were a number of reviews both pro and con but, because of how busy the city was going to be, I decided to book the room (anything had to be better than sleeping in the airport).Right now, I'm sitting in the hotel room as I write this review. It's clean. It's updated. It's quiet for an airport hotel. The shuttle was prompt and Preety, at the front desk, greeted me with a smile and was extremely helpful when I asked her about local restaurants - there's about 5 you can easily walk to. I'm not sure what else you could ask for in an airport hotel.Personally, I'm thrilled with the accommodations and the staff and just a little curious about where some of the negative reviews came from.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>My wife and I had a scheduled layover in Houston on what was probably one of the busiest weekends. I'm not a great football fan so when I was booking a hotel room I didn't realize the city was hosting the Super Bowl. Room rates had risen dramatically. One of the more reasonably priced hotels was this one. I checked Tripadvisor reviews and there were a number of reviews both pro and con but, because of how busy the city was going to be, I decided to book the room (anything had to be better than sleeping in the airport).Right now, I'm sitting in the hotel room as I write this review. It's clean. It's updated. It's quiet for an airport hotel. The shuttle was prompt and Preety, at the front desk, greeted me with a smile and was extremely helpful when I asked her about local restaurants - there's about 5 you can easily walk to. I'm not sure what else you could ask for in an airport hotel.Personally, I'm thrilled with the accommodations and the staff and just a little curious about where some of the negative reviews came from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r452247354-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452247354</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>Close to airport but quiet. Rooms are roomy and clean. Wifi works great and large tvs in rooms. 24 hr shuttle service to airport runs every half hour. Beds are comfortable. Coffee and tea and breakfast from 6-9 included. Great value. We paid $85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r437246453-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -451,6 +673,51 @@
   </si>
   <si>
     <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r419342293-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419342293</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Hoot County</t>
+  </si>
+  <si>
+    <t>Good location to airport after 14.5hr flight. Arrived early but check in was quick, and staff helpful. Room clean and comfortable.Breakfast was good. Close to 24hr restaurant Hot Biscuit. No issue with airport noise</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r395829452-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395829452</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Ivan is the man!</t>
+  </si>
+  <si>
+    <t>My family and i were trapped in Houston by our airline.  We called and they had a shuttle to pick us up in ten minutes.  I am a choice rewards member and stay at hotels a lot for business.  Ivan took care of us and made us feel welcome when we were tired and frustrated.  Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Jack K, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded August 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2016</t>
+  </si>
+  <si>
+    <t>My family and i were trapped in Houston by our airline.  We called and they had a shuttle to pick us up in ten minutes.  I am a choice rewards member and stay at hotels a lot for business.  Ivan took care of us and made us feel welcome when we were tired and frustrated.  Thanks!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r382847643-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
@@ -526,6 +793,42 @@
 There is free wifi throughout and no limit on the number of devices you can connect to....I booked this place while stuck in Houston during the storm. Great value for the price. They have an airport shuttle that runs regularly from 5AM to late PM. I would only do the shuttle. The place is probably 5 miles from the airport, which is a cheap cab ride. However, the cab I grabbed from the airport cab stand imposed a minimum $18 charge for the short ride (was too tired to argue with the driver if it was a scam since this rate wasn't posted). SO, only only ever take the hotel airport shuttle. You just call them when you arrive and make arrangements for where to be picked up.  The check in and checkout was easy and the staff were very helpful and accommodating - which I appreciated considering how frazzled I was after 2 days with no luggage and no flight out. My sincere thanks to the airport shuttle driver who ventured out on storm day at 5AM to get a group of us to the airport before the roads got too flooded.The place is a bit dated (standard bathroom, tub, shower, carpet and older style furniture). The walls are also thin so you can really hear a lot. However, the bed was very comfortable and the room was clean. There is a hot breakfast starting at 6AM.  There is free wifi throughout and no limit on the number of devices you can connect to. This is not a fancy place and probably comparable to the Days Inn or Best Western. Basic, nothing fancy, a bit dated but certainly comfortable and serves your needs if you need an economical place to stay for the night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r359320460-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359320460</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Ticks the right boxes...</t>
+  </si>
+  <si>
+    <t>Unless you are the exception, most people require airport hotels for the following-  a comfy bed for the night, complimentary wifi for when you miss your flight(which I did) and a half decent breakfast. Everything else is a bonus. This hotel had all the things listed so cannot complain largely though I had some minor quibbles. For one, my room had no safe, then again it might have been buried under the bed for all I know. Also  the room AC was a little bit loud when it started but this got better as the night wore on. Other than that, my stay was good. A solid effort by the hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Unless you are the exception, most people require airport hotels for the following-  a comfy bed for the night, complimentary wifi for when you miss your flight(which I did) and a half decent breakfast. Everything else is a bonus. This hotel had all the things listed so cannot complain largely though I had some minor quibbles. For one, my room had no safe, then again it might have been buried under the bed for all I know. Also  the room AC was a little bit loud when it started but this got better as the night wore on. Other than that, my stay was good. A solid effort by the hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r357419186-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357419186</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Close to airport</t>
+  </si>
+  <si>
+    <t>Great stay, the staff were very friendly and helpful. From the moment we arrived we were treated well and assisted in anything we needed. The rooms were clean and comfortable. It's a good place to stay, conventiently located near the airport.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r354842461-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -541,9 +844,6 @@
     <t>Our flight was late but the front desk was very cordial and made our stay a very pleasant one. We will be staying there again on our return flight. This property is very close to the airport for those needing a place to hole up for those long layovers.</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r350903615-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -583,6 +883,48 @@
     <t>We had a very bad experience while staying at this hotel. We checked in and then left to go to dinner. We were stopped to yield before entering the highway down the road from the hotel and we were hit by the vehicle in back of us. It turned out to be the shuttle bus from this hotel. When my husband went back to talk to shuttle driver the driver told my husband he had to leave to go pick up someone at the airport. He left the scene of the accident. When the police arrived he called the hotel to tell them to get the driver back there immediately. The hotel was well aware of the accident but no one from the hotel at any point showed concern and asked if we were ok. Would have been nice to have been offered a discount to compensate for the 3 hours it took to get car towed and replacement rental car.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r344849896-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344849896</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Not a great stay.</t>
+  </si>
+  <si>
+    <t>So we ended up here after our flight was delayed. First big downside was that the shuttle took almost forty-five minutes to arrived despite the woman at the hotel saying "it will be right there."Check-in was easy and the lobby appeared clean. When we arrived at our room, it was fine for the most part. The bedroom portion appeared clean, but the bathroom was dirty. There were hairs in multiple different places which was gross. Also, the air conditioning didn't work, which was problematic because the room got very uncomfortable. Finally, the walls are paper thin and since our room was near the lobby, it was loud and you could hear people talking.MoreShow less</t>
+  </si>
+  <si>
+    <t>So we ended up here after our flight was delayed. First big downside was that the shuttle took almost forty-five minutes to arrived despite the woman at the hotel saying "it will be right there."Check-in was easy and the lobby appeared clean. When we arrived at our room, it was fine for the most part. The bedroom portion appeared clean, but the bathroom was dirty. There were hairs in multiple different places which was gross. Also, the air conditioning didn't work, which was problematic because the room got very uncomfortable. Finally, the walls are paper thin and since our room was near the lobby, it was loud and you could hear people talking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r340105614-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340105614</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing to eat </t>
+  </si>
+  <si>
+    <t>I was in this hotel because of my short trip in Houston ! I arrived late and departure early morning , stayed 2 nights  there. It is average hotel ! Good sleep and shower! But I arrived late and hungry and not service to eat ! Only deliveries and no option in the amenities, and also far from the hotel ! The delivery is only the option with one option only ! Take care with this issue ! Other things are ok to be !!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Jack K, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2016</t>
+  </si>
+  <si>
+    <t>I was in this hotel because of my short trip in Houston ! I arrived late and departure early morning , stayed 2 nights  there. It is average hotel ! Good sleep and shower! But I arrived late and hungry and not service to eat ! Only deliveries and no option in the amenities, and also far from the hotel ! The delivery is only the option with one option only ! Take care with this issue ! Other things are ok to be !!! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r339572886-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -601,12 +943,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Jack K, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded January 16, 2016</t>
-  </si>
-  <si>
-    <t>Responded January 16, 2016</t>
-  </si>
-  <si>
     <t>Hotel located very close to the airport, providing a free shuttle. Rooms are clean but very old. It is not worth the money you are paying. Breakfast is a very poor choices. So if you have no choice it is bearable for one night stay.More</t>
   </si>
   <si>
@@ -646,6 +982,76 @@
     <t>I have stayed in Comfort Suites in my recent visit to Houston. I found that it  is very close to the IAH airport, provides free shuttle, and is a very quiet place. Comfortable bed, good towels, and excellent breakfast in a very reasonable price. The general manager, Jack K, as well as other staff members were very pleasant. This was an outstanding hotel experience. I will stay again !!Bishnu</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r331339573-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331339573</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>disapointing front desk check in experience</t>
+  </si>
+  <si>
+    <t>After staying in over 20+ hotels in the last 2 months many of which have bee part of the choice hotels family we were a little disappointed with our check in experience and a few other things. 
+After being on the road for 6 hours we were greeted by a young man who just didn't seem like he was bothered, the normal/basic run of the mill check in procedure as most people know goes a little something like this...
+1. Greeting "how are you?" welcome to "x" hotel
+2. Breakfast is from "x" until "x"
+3. Wifi code is "x"
+4. Your room is "x" and you need to take the stairs/elevator just behind you on the right.
+5. Thank you, have a great stay let me know if you need anything else.
+Ours was... 
+can I help?
+ID? 
+credit card? 
+Sign this
+Your room is "x" on the 2nd floor! 
+As we didn't know any of the above we had to ask and got the feeling that we were getting on his nerves, first impressions really count and we didn't start with a great one which was a real shame as the other staff we met the next day seemed great.
+A few other things that kind of annoying was that the front desk didn't carry any change, I'm not expecting a bank teller but just enough for a few dollars change for the vending and laundry machines on...After staying in over 20+ hotels in the last 2 months many of which have bee part of the choice hotels family we were a little disappointed with our check in experience and a few other things. After being on the road for 6 hours we were greeted by a young man who just didn't seem like he was bothered, the normal/basic run of the mill check in procedure as most people know goes a little something like this...1. Greeting "how are you?" welcome to "x" hotel2. Breakfast is from "x" until "x"3. Wifi code is "x"4. Your room is "x" and you need to take the stairs/elevator just behind you on the right.5. Thank you, have a great stay let me know if you need anything else.Ours was... can I help?ID? credit card? Sign thisYour room is "x" on the 2nd floor! As we didn't know any of the above we had to ask and got the feeling that we were getting on his nerves, first impressions really count and we didn't start with a great one which was a real shame as the other staff we met the next day seemed great.A few other things that kind of annoying was that the front desk didn't carry any change, I'm not expecting a bank teller but just enough for a few dollars change for the vending and laundry machines on two occasions I was forced to walk to other hotels nearby to change my money.The location is close to the airport, however if you need something to eat other than a Chinese and Subway that's all your going to find close by so I would find something to eat prior or go to the Deerbrook Mall which was about a 10 minute drive away.Some other reviews complained about the noise from planes, yes it is noticeable but lets face it your near an airport all the hotels in this area are going to be the same but it didn't stop us getting a good nights sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jack K, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded December 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2015</t>
+  </si>
+  <si>
+    <t>After staying in over 20+ hotels in the last 2 months many of which have bee part of the choice hotels family we were a little disappointed with our check in experience and a few other things. 
+After being on the road for 6 hours we were greeted by a young man who just didn't seem like he was bothered, the normal/basic run of the mill check in procedure as most people know goes a little something like this...
+1. Greeting "how are you?" welcome to "x" hotel
+2. Breakfast is from "x" until "x"
+3. Wifi code is "x"
+4. Your room is "x" and you need to take the stairs/elevator just behind you on the right.
+5. Thank you, have a great stay let me know if you need anything else.
+Ours was... 
+can I help?
+ID? 
+credit card? 
+Sign this
+Your room is "x" on the 2nd floor! 
+As we didn't know any of the above we had to ask and got the feeling that we were getting on his nerves, first impressions really count and we didn't start with a great one which was a real shame as the other staff we met the next day seemed great.
+A few other things that kind of annoying was that the front desk didn't carry any change, I'm not expecting a bank teller but just enough for a few dollars change for the vending and laundry machines on...After staying in over 20+ hotels in the last 2 months many of which have bee part of the choice hotels family we were a little disappointed with our check in experience and a few other things. After being on the road for 6 hours we were greeted by a young man who just didn't seem like he was bothered, the normal/basic run of the mill check in procedure as most people know goes a little something like this...1. Greeting "how are you?" welcome to "x" hotel2. Breakfast is from "x" until "x"3. Wifi code is "x"4. Your room is "x" and you need to take the stairs/elevator just behind you on the right.5. Thank you, have a great stay let me know if you need anything else.Ours was... can I help?ID? credit card? Sign thisYour room is "x" on the 2nd floor! As we didn't know any of the above we had to ask and got the feeling that we were getting on his nerves, first impressions really count and we didn't start with a great one which was a real shame as the other staff we met the next day seemed great.A few other things that kind of annoying was that the front desk didn't carry any change, I'm not expecting a bank teller but just enough for a few dollars change for the vending and laundry machines on two occasions I was forced to walk to other hotels nearby to change my money.The location is close to the airport, however if you need something to eat other than a Chinese and Subway that's all your going to find close by so I would find something to eat prior or go to the Deerbrook Mall which was about a 10 minute drive away.Some other reviews complained about the noise from planes, yes it is noticeable but lets face it your near an airport all the hotels in this area are going to be the same but it didn't stop us getting a good nights sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r326408374-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326408374</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Close to IAH Airport for early flight.</t>
+  </si>
+  <si>
+    <t>Great for an early flight, front desk very friendly.  When we went to drop our rental car at the airport early evening they had the shuttle pick us up and bring us back to the hotel.  Also recommended a great place to eat.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r323234235-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -703,6 +1109,39 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r286185718-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286185718</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Stayed there for one night.  Average rooms.  However, the reason I rate this poor is that I had arranged a taxi pickup with the front desk only to have no taxi ready first thing the next morning causing me to nearly miss my flight.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r284433626-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284433626</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Not up to the Choice hotel network of hotels</t>
+  </si>
+  <si>
+    <t>I am a frequent traveler and stay in hotels several weeks a month. I was disappointed that there was no A/C in the fitness center making it miserable to get in a decent workout. I ended up power walking in the hall way because it was over 85 degrees in fitness center. I was not able to get a hot shower at this hotel. The water was warm, but not warm enough for me. I like to stay at a hotel that has decent restaurants nearby. There are no decent restaurants (Other than fast food) near this hotel. I had to travel 6-10 miles in high traffic to find a nice restaurant. For these reasons, I would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a frequent traveler and stay in hotels several weeks a month. I was disappointed that there was no A/C in the fitness center making it miserable to get in a decent workout. I ended up power walking in the hall way because it was over 85 degrees in fitness center. I was not able to get a hot shower at this hotel. The water was warm, but not warm enough for me. I like to stay at a hotel that has decent restaurants nearby. There are no decent restaurants (Other than fast food) near this hotel. I had to travel 6-10 miles in high traffic to find a nice restaurant. For these reasons, I would not recommend this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r284015135-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -760,6 +1199,42 @@
     <t>I selected this place just to have a place to shower and get a good night sleep. I was pleasantly surprised as to how nice, quiet, clean, and the accommodations were indicative of a place you would pay much, much more. The night staff when I checked in was very informative. The morning staff was very pleasant. I have paid so much more and did not feel as comfortable as I did here. Great place to stay would highly recommend.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r267563074-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267563074</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Last minute layover stay</t>
+  </si>
+  <si>
+    <t>Picked this hotel out of the blue after having to stop in IHA for a layover out of Cancun.  The hotel is very close to the airport(10 mins) and has a convenient shuttle that runs every 30 mins.  The room was a standard double bed room with a love seat, flat screen and a nice size bathroom.  The front desk staff was very welcoming and nice. The hotel was clean and well kept.  The location is very nice, close to many fast food spots and restaurants within walking distance.  There is also a small mini-mall with a liquor store and a few other stores convenient for layover travelers.  Overall a good stay and nice choice out of the many hotels available in they IHA area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Picked this hotel out of the blue after having to stop in IHA for a layover out of Cancun.  The hotel is very close to the airport(10 mins) and has a convenient shuttle that runs every 30 mins.  The room was a standard double bed room with a love seat, flat screen and a nice size bathroom.  The front desk staff was very welcoming and nice. The hotel was clean and well kept.  The location is very nice, close to many fast food spots and restaurants within walking distance.  There is also a small mini-mall with a liquor store and a few other stores convenient for layover travelers.  Overall a good stay and nice choice out of the many hotels available in they IHA area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r264828764-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264828764</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>Easy Airport access</t>
+  </si>
+  <si>
+    <t>This is a typical Comfort Suites hotel.  The rooms are clean and a good size.  The Wifi works well.  Check in and out is always quick and easy.  I stay here once a month on my way out of country and I plan to keep staying here.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r257529535-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -809,6 +1284,42 @@
   </si>
   <si>
     <t>Spent one night due to missed flight connections so I really did not have time to research local hotels.  Found this property to be clean &amp; quiet.  The front desk was very helpful &amp; very importantly the airport shuttle ran on time.  Breakfast bar in the morning was slightly below standards that I expect from this brand &amp; similar brands.   Fast food was about a brisk 5-7 minute walk (well lit).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r251307813-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251307813</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Try this one :)</t>
+  </si>
+  <si>
+    <t>Due to United Airlines canceling flights before bad weather we got stuck in Houston, TX for a few nights.  Our 1st night we stayed at another hotel, but it was horrible, so we checked out and came to this hotel.  Very happy we moved hotels.This Comfort Inn was very clean and quiet.  Quick check in and nice size room.Breakfast was included and the area was very clean and all the food was fresh.Would stay at this location again.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r241231810-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241231810</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Clean room, great location</t>
+  </si>
+  <si>
+    <t>We stayed here for one night after arriving in Houston from Amsterdam. The location of the hotel is great, only a very short drive from the airport and Sam Houston Parkway. Taco Bell and some other restaurants are just around the corner. The room we had was nothing fancy, but clean and comfortable. Only the receptionist could use some customer service training. She wasn't rude, she was just not very welcoming. A smile can make the difference.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r230136941-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
@@ -870,6 +1381,42 @@
  Room was very large. The a/c fan cycled on and off, despite turning on a switch labeled "continuous" fan. Metal deflector sheet on a/c unit rattled whenever unit was on. Some airplane noise but not bad. Bathroom door squeaked VERY loudly. Would wake anyone up during the nightly trips to the bathroom.Mentioned to desk the next morning but NOT fixed when we returned that night. Nice shower and ammenities. No nightlights, so room was dark as the inside of a cave if the lights were off. Only solution appeared to be to leave the bathroom exhaust fan and light on and it's noisy. Pillow stuffing appears to be skimpy and lumpy. They apparently made up for it by shaking the contents to one end and tucking in the pillow case. This leaves one with a pillow about 15" square. Great, IF you never turned over. There were 4 pillows for each bed. Beds were comfy....May be a tad hard to find, if you're not looking hard and driving yourself. On Kennedy Blvd. heading South, If you miss the turn in, you have to go 1/4 mile, make a U turn across a divided Hwy., then go back a mile to make another U turn. Check in was fast and efficient. Did not use the shuttle bus since we had a rental car. Next to a Country Inn. Appears to be a few restaurants around, but did not try any. Room was very large. The a/c fan cycled on and off, despite turning on a switch labeled "continuous" fan. Metal deflector sheet on a/c unit rattled whenever unit was on. Some airplane noise but not bad. Bathroom door squeaked VERY loudly. Would wake anyone up during the nightly trips to the bathroom.Mentioned to desk the next morning but NOT fixed when we returned that night. Nice shower and ammenities. No nightlights, so room was dark as the inside of a cave if the lights were off. Only solution appeared to be to leave the bathroom exhaust fan and light on and it's noisy. Pillow stuffing appears to be skimpy and lumpy. They apparently made up for it by shaking the contents to one end and tucking in the pillow case. This leaves one with a pillow about 15" square. Great, IF you never turned over. There were 4 pillows for each bed. Beds were comfy. No printed nor on screen TV guide.Continental breakfast was the usual fare. Belgian waffles in the shape of Texas. Fixed hot tea the 1st morning, but the water was only lukewarm. Finally translated to attendant to microwave the water in the back area. 2nd morning, the same drill, except this time the water was COLD.There is one computer and printer in business office. Note on printer that they charge for more than 5 sheets. Overall, just an OK hotel, convenient to airport.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r202481144-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202481144</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Poor shuttle service, rude front desk personnel</t>
+  </si>
+  <si>
+    <t>I booked this hotel through bookings.com for an overnight stay on April 11th 2014 because I had a connecting flight the next day. My search criteria included shuttle service from the airport. No where did they specify that the shuttle service stopped at midnight. My flight landed at 11:45 pm and I called the hotel around 11:50 pm from the baggage claim area. She said they will contact the shuttle and ask him to come. She did not say that they stopped the shuttle at midnight. At 12;05 am when the shuttle did not turn up and shuttles for every other chain were around, I called the hotel and she said he's on his way back, to give him 10 minutes. I waited 15-20 minutes and called the hotel again. This time she admitted the shuttle driver said he was not going back to the airport, so they asked a Best Western shuttle driver to come and get me. I was furious at this point and asked when was she going to inform me that I had to look out for a Best Western shuttle. She said they did not have my phone number (which I listed on the booking form), but also said if the shuttle did not turn up then take a taxi and they would pay. When I got to the hotel needless to say I was really annoyed. I told her this sort of service was...I booked this hotel through bookings.com for an overnight stay on April 11th 2014 because I had a connecting flight the next day. My search criteria included shuttle service from the airport. No where did they specify that the shuttle service stopped at midnight. My flight landed at 11:45 pm and I called the hotel around 11:50 pm from the baggage claim area. She said they will contact the shuttle and ask him to come. She did not say that they stopped the shuttle at midnight. At 12;05 am when the shuttle did not turn up and shuttles for every other chain were around, I called the hotel and she said he's on his way back, to give him 10 minutes. I waited 15-20 minutes and called the hotel again. This time she admitted the shuttle driver said he was not going back to the airport, so they asked a Best Western shuttle driver to come and get me. I was furious at this point and asked when was she going to inform me that I had to look out for a Best Western shuttle. She said they did not have my phone number (which I listed on the booking form), but also said if the shuttle did not turn up then take a taxi and they would pay. When I got to the hotel needless to say I was really annoyed. I told her this sort of service was really poor and it's really bad business for the driver to say he was not coming back when a customer was waiting at the airport. She said he was going to be written up. Although I apologized to her having to deal with my annoyance over this, she ended up becoming rude and said the shuttle only runs till midnight and they did not HAVE to run a shuttle at all, that it's a courtesy to customers.  I said they weren't doing anyone any extra favors because almost every other airport hotel in the area included a free shuttle service. The room was really average and run down, broken baseboards and flaking doors to the bathroom that sticks. For one night this was not worth the hassle, given that I had a long international flight the next day.  I took a taxi to the airport the next day because the shuttle was again late.  All up, I will not again be staying at this hotel chain at any location.  Why stay where the service is so unreliable when clearly other airport hotels appear to be providing the services they offer customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I booked this hotel through bookings.com for an overnight stay on April 11th 2014 because I had a connecting flight the next day. My search criteria included shuttle service from the airport. No where did they specify that the shuttle service stopped at midnight. My flight landed at 11:45 pm and I called the hotel around 11:50 pm from the baggage claim area. She said they will contact the shuttle and ask him to come. She did not say that they stopped the shuttle at midnight. At 12;05 am when the shuttle did not turn up and shuttles for every other chain were around, I called the hotel and she said he's on his way back, to give him 10 minutes. I waited 15-20 minutes and called the hotel again. This time she admitted the shuttle driver said he was not going back to the airport, so they asked a Best Western shuttle driver to come and get me. I was furious at this point and asked when was she going to inform me that I had to look out for a Best Western shuttle. She said they did not have my phone number (which I listed on the booking form), but also said if the shuttle did not turn up then take a taxi and they would pay. When I got to the hotel needless to say I was really annoyed. I told her this sort of service was...I booked this hotel through bookings.com for an overnight stay on April 11th 2014 because I had a connecting flight the next day. My search criteria included shuttle service from the airport. No where did they specify that the shuttle service stopped at midnight. My flight landed at 11:45 pm and I called the hotel around 11:50 pm from the baggage claim area. She said they will contact the shuttle and ask him to come. She did not say that they stopped the shuttle at midnight. At 12;05 am when the shuttle did not turn up and shuttles for every other chain were around, I called the hotel and she said he's on his way back, to give him 10 minutes. I waited 15-20 minutes and called the hotel again. This time she admitted the shuttle driver said he was not going back to the airport, so they asked a Best Western shuttle driver to come and get me. I was furious at this point and asked when was she going to inform me that I had to look out for a Best Western shuttle. She said they did not have my phone number (which I listed on the booking form), but also said if the shuttle did not turn up then take a taxi and they would pay. When I got to the hotel needless to say I was really annoyed. I told her this sort of service was really poor and it's really bad business for the driver to say he was not coming back when a customer was waiting at the airport. She said he was going to be written up. Although I apologized to her having to deal with my annoyance over this, she ended up becoming rude and said the shuttle only runs till midnight and they did not HAVE to run a shuttle at all, that it's a courtesy to customers.  I said they weren't doing anyone any extra favors because almost every other airport hotel in the area included a free shuttle service. The room was really average and run down, broken baseboards and flaking doors to the bathroom that sticks. For one night this was not worth the hassle, given that I had a long international flight the next day.  I took a taxi to the airport the next day because the shuttle was again late.  All up, I will not again be staying at this hotel chain at any location.  Why stay where the service is so unreliable when clearly other airport hotels appear to be providing the services they offer customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r201868421-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201868421</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>Great hotel. Incredibly rude front desk person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had booked this hotel for my daughter to stay on her trip home from Alaska. Paid in advance, confirmed her name on res and thought it was a done deal. The woman at the front desk refused her the room. My daughter calls me in tears because this idiot can't read the reservation. After 20 minutes I finally have her manager sort it out. Once this was done, my daughter had a great stay and loved the hotel. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r197166030-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -918,7 +1465,40 @@
     <t>Nice clean comfortable hotel. We live in Houston but because of forecast ice we opted to go to the airport the night before our early morning flight. The hotel had a very nice continental breakfast. The hotel allows to guests to leave their car in their hotel parking lot when taking a cruise for a charge of $5 per day . The hotel provides free shuttle service  to and from the terminal</t>
   </si>
   <si>
-    <t>February 2014</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r185517451-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185517451</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>I was worried about being so close to the airport and the road, but was pleasantly surprised at the noise level in the room.  I stayed on the third floor and as long as the air was on the noise level was very minimal.  The bed was very comfortable and I slept very good.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r182830770-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182830770</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Good night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spend a night/ layover at comfort suites. Good deal at $89.99 after taxes because I created a choice hotels account login. Speedy shuttle service from IAH. Good comfy beds, nice quiet room on the 3rd floor and nice continental breakfast in the morning from 6-9am. Good choice. For a budget stay. </t>
+  </si>
+  <si>
+    <t>October 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r180776918-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
@@ -934,9 +1514,6 @@
   </si>
   <si>
     <t>The hotel itself is fine, rooms well laid out, breakfast more than ample, clean spaces, very comfortable bed but sometimes the way you are handles also carries weight and in the last few times i stayed here i noticed some attitude changes in staffing, this trip was no different. Especially on our arrival service was less than stellar. The phone was not answered promptly a few times and finally we were told the driver was at the airport and would be with us right away. So after my three year old suffering almost half an hour of carbon monoxide and smoke inhalation in the smokers area where you are forced to wait for the hotel buses, i called again to be told he will be right there. he was BUT when he saw our 5 cases he simply opened the back door and ignored us to start chatting to a friend behind, i had to load all the bags to the bus and also unload them with no assistance. The front desk clerk looked like she was about to go out to a party with a denim jacket, tattoos on the neck and an attitude to match. She was not really interested in us much at all and could not be bothered to answer any of my questions.  When i was rolling our luggage on the upstairs corridor she seemed however very happy on her personal calls which seemed to...The hotel itself is fine, rooms well laid out, breakfast more than ample, clean spaces, very comfortable bed but sometimes the way you are handles also carries weight and in the last few times i stayed here i noticed some attitude changes in staffing, this trip was no different. Especially on our arrival service was less than stellar. The phone was not answered promptly a few times and finally we were told the driver was at the airport and would be with us right away. So after my three year old suffering almost half an hour of carbon monoxide and smoke inhalation in the smokers area where you are forced to wait for the hotel buses, i called again to be told he will be right there. he was BUT when he saw our 5 cases he simply opened the back door and ignored us to start chatting to a friend behind, i had to load all the bags to the bus and also unload them with no assistance. The front desk clerk looked like she was about to go out to a party with a denim jacket, tattoos on the neck and an attitude to match. She was not really interested in us much at all and could not be bothered to answer any of my questions.  When i was rolling our luggage on the upstairs corridor she seemed however very happy on her personal calls which seemed to cheer her up no end! In the morning the young lady was helpful dressed nicely and pointed us in the right direction and ordered a cab for us to the shopping areas. The morning driver (a different one) was also more pleasant and assisted with luggage. Seems like the night staff don't care much and this is the second time i experience this. Also the prices were much higher than in the past. In contrast i visited the brand new Best Western Plus right behind the hotel, the receptionist was very responsive and showed me the new rooms which were lovely and the prices seemed good. I wont say the rooms were better but they were obviously fresh and new and the lobby area was nicely presented. Maybe time for a change, staff DO make a difference in consumers choices, i hope the management look for the right staff with a can do attitude, there are a lot of choices at the airport.MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2013</t>
   </si>
   <si>
     <t>The hotel itself is fine, rooms well laid out, breakfast more than ample, clean spaces, very comfortable bed but sometimes the way you are handles also carries weight and in the last few times i stayed here i noticed some attitude changes in staffing, this trip was no different. Especially on our arrival service was less than stellar. The phone was not answered promptly a few times and finally we were told the driver was at the airport and would be with us right away. So after my three year old suffering almost half an hour of carbon monoxide and smoke inhalation in the smokers area where you are forced to wait for the hotel buses, i called again to be told he will be right there. he was BUT when he saw our 5 cases he simply opened the back door and ignored us to start chatting to a friend behind, i had to load all the bags to the bus and also unload them with no assistance. The front desk clerk looked like she was about to go out to a party with a denim jacket, tattoos on the neck and an attitude to match. She was not really interested in us much at all and could not be bothered to answer any of my questions.  When i was rolling our luggage on the upstairs corridor she seemed however very happy on her personal calls which seemed to...The hotel itself is fine, rooms well laid out, breakfast more than ample, clean spaces, very comfortable bed but sometimes the way you are handles also carries weight and in the last few times i stayed here i noticed some attitude changes in staffing, this trip was no different. Especially on our arrival service was less than stellar. The phone was not answered promptly a few times and finally we were told the driver was at the airport and would be with us right away. So after my three year old suffering almost half an hour of carbon monoxide and smoke inhalation in the smokers area where you are forced to wait for the hotel buses, i called again to be told he will be right there. he was BUT when he saw our 5 cases he simply opened the back door and ignored us to start chatting to a friend behind, i had to load all the bags to the bus and also unload them with no assistance. The front desk clerk looked like she was about to go out to a party with a denim jacket, tattoos on the neck and an attitude to match. She was not really interested in us much at all and could not be bothered to answer any of my questions.  When i was rolling our luggage on the upstairs corridor she seemed however very happy on her personal calls which seemed to cheer her up no end! In the morning the young lady was helpful dressed nicely and pointed us in the right direction and ordered a cab for us to the shopping areas. The morning driver (a different one) was also more pleasant and assisted with luggage. Seems like the night staff don't care much and this is the second time i experience this. Also the prices were much higher than in the past. In contrast i visited the brand new Best Western Plus right behind the hotel, the receptionist was very responsive and showed me the new rooms which were lovely and the prices seemed good. I wont say the rooms were better but they were obviously fresh and new and the lobby area was nicely presented. Maybe time for a change, staff DO make a difference in consumers choices, i hope the management look for the right staff with a can do attitude, there are a lot of choices at the airport.More</t>
@@ -988,6 +1565,39 @@
 I can tell the front desk personnel from the night shift was not really helpful nor nice. Let´s say they just took my name, give me my key card and answer in short sentence my questions about breakfast, airport shutttle and about a store nearby. The...I was in the need of a hotel due to a flight connection cancelation so I called the distressed passengers hotel booking and they offer 3 hotels. I asked for a hotel close to a convenient store so I could buy something to eat, wear or be able to buy basic needs. The operator told me that this hotel was close to a convenient store. But she never told me it was a gas station store beside a taco bell and it was close to the hotel but not that close to walk by myself at night. The shuttle from the airport took forever to come and pick me up. When driving to the hotel I realized they were several other hotels closer to the airport and not that expensive. FInally When I arrived to the hotel is a little bit basic, it look a bit old, with those big window a/c that are really noisy. The hotel is beside Double tree and the highway. Is about 3 large blocks to get to the closer Subway and another big block to get to the convenience store of the gas station and the taco bell. I can tell the front desk personnel from the night shift was not really helpful nor nice. Let´s say they just took my name, give me my key card and answer in short sentence my questions about breakfast, airport shutttle and about a store nearby. The morning personnel was a bit more friendly and helpful.The room was old fashioned but functional with 2 double beds, It is spacious with a little fridge and microwave and a coffeemaker and a big bathroom.The good things are they offer Free breakfast with fruit, bagels,and waffles, Free WiFi and complimentary Airport shuttle.I expected a little bit more but It was Ok.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r169192822-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169192822</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Noisy a/c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one drawback for me and that was the a/c. Designed to power off once the temp is reached, then it comes back on. So all night it was on off on off. That kept me from sleeping well. When it was on it was fairly loud even on low. The jet plane noise didn't bother me I expected that. I chose this hotel because its proximity to the airport. Close to long term parking.That being said EVERYTHING else was great! Spacious room, comfortable bed, good wifi, very clean. Liked having a sitting area in the room with a couch. Didn't try the breakfast. </t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r167276504-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167276504</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>IAH</t>
+  </si>
+  <si>
+    <t>When travelling out of IAH-Bush Intercontinental Airport, we generally stay at this Comfort Suites hotel.  We stay because of the location, but mostly because we receive excellent treatment.  The staff is always friendly, courteous and helpful. The rooms are very comfortable and clean. Oh &amp; for you business people....Free WIFI!!  I have had several different shuttle drivers and they are all very friendly and helpful as well.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r165221348-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1036,6 +1646,42 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r162527944-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162527944</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>OK property</t>
+  </si>
+  <si>
+    <t>This is an OK property very close to George Bush Intercontinental Airport. The hotel is on a one-way street heading OUT of the airport, if entering the airport road from the south, one must make a u-turn in order to access the hotel, just a bit annoying.The surrounding area is OK, not the best but not scary. I wouldn't recommend walking around at night alone, but shouldn't feel unsafe. The area is a typical airport area, a lot of hotels, traffic, small dining options and high price gas stations. The hotel itself was ok. Not super clean but not scary dirty. Some issues here and there but would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an OK property very close to George Bush Intercontinental Airport. The hotel is on a one-way street heading OUT of the airport, if entering the airport road from the south, one must make a u-turn in order to access the hotel, just a bit annoying.The surrounding area is OK, not the best but not scary. I wouldn't recommend walking around at night alone, but shouldn't feel unsafe. The area is a typical airport area, a lot of hotels, traffic, small dining options and high price gas stations. The hotel itself was ok. Not super clean but not scary dirty. Some issues here and there but would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r157455686-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157455686</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Comfort Soured</t>
+  </si>
+  <si>
+    <t>Front desk staff was very friendly.  Showers never got warm regardless time of day. Didn't have coffee after the morning.   Walking distance to many restaurants.  Rooms need to be updated but were clean.  Parking is small because this hotel shares a lot with another hotel.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r155439406-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1090,6 +1736,36 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r153221590-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153221590</t>
+  </si>
+  <si>
+    <t>Not so good</t>
+  </si>
+  <si>
+    <t>Pros:  For being close to the airport, our room (2nd floor, over the entrance/parking lot) was fairly quiet, with periodic take-off noises making themselves audible. Although the hotel was supposed to be full, it sure didn’t seem like it.Cons:  The room we were assigned (with double beds rather than the queen we had requested) had plumbing problems in both the shower and sink, where the hot/cold mix valve just wasn’t working right and the water temperature never exceeded barely warm.  Not what we were looking for after a long flight and before another the next day.  We notified management immediately, but they could do nothing to fix the problem except offer to switch us to another room (weren’t they “full”?) after we had already gotten settled.  The included breakfast was nothing special, especially compared to what we had enjoyed the previous day at the Portland Clarion. We won’t be choosing this hotel on future trips requiring an overnight in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros:  For being close to the airport, our room (2nd floor, over the entrance/parking lot) was fairly quiet, with periodic take-off noises making themselves audible. Although the hotel was supposed to be full, it sure didn’t seem like it.Cons:  The room we were assigned (with double beds rather than the queen we had requested) had plumbing problems in both the shower and sink, where the hot/cold mix valve just wasn’t working right and the water temperature never exceeded barely warm.  Not what we were looking for after a long flight and before another the next day.  We notified management immediately, but they could do nothing to fix the problem except offer to switch us to another room (weren’t they “full”?) after we had already gotten settled.  The included breakfast was nothing special, especially compared to what we had enjoyed the previous day at the Portland Clarion. We won’t be choosing this hotel on future trips requiring an overnight in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r152056961-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152056961</t>
+  </si>
+  <si>
+    <t>02/13/2013</t>
+  </si>
+  <si>
+    <t>Try somewhere else</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one night because it was reasonably cheap and close to the airport but would not do so again. The staff are unhelpful, the room just ok and the buffet breakfast poor. There are plenty of places to choose in the area so I would recommend  you try somewhere else.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r151500844-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1820,48 @@
     <t>My family stayed here while attending a Houston Astros game and was wary of staying here because of some slightly negative reviews of this hotel.  Not the case with this property.  The hotel is maintained very well and exceeded my expectations especially of its location near the airport.  The noise from the jets are only heard when outside by the pool.  Breakfast is good, beds are soft and comfortable, and the staff is attentive and friendly.After staying at this Comfort Suites hotel I wonder why some reviewers are so critical.  Rest assured that this property is representing the Quality Hotels brand very nicely.  I would definitely stay here again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r147349729-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147349729</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>not bad</t>
+  </si>
+  <si>
+    <t>very close to bush airport, van service is reliable, staff is friendley, nice breakfast, close to small shopping center, computer room, I wished the van service picked up later than 12am for late night arrivals at the airport,</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r145083185-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145083185</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>First I want to say, if you look at all my reviews, this is the first 1 dot I have given anyone!  Stayed here for an interview, the company paying for one night and I was paying for 2 nights.  It took three, yes three attempts to finally get the reservation set up so we were not changing rooms.First morning, out of coffee by 7AM, and the coffee bar is mess.  Second morning coffee bar is a bigger mess and again out of coffee at 9AM.Tried to get shuttle bus to take me to car rental, it was half way to airport.  No we only take guests to the airport.  Do you understand the meaning of the word; GUEST???This is all a reflection of the Management of this facility not training or empowering their people.Walked to the car rental and the the lady said; Maybe you should stay at the Hampton next time, they are nice people.  So my Trip Advisor advice .... stay at the Hampton they are nice people!MoreShow less</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded November 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2012</t>
+  </si>
+  <si>
+    <t>First I want to say, if you look at all my reviews, this is the first 1 dot I have given anyone!  Stayed here for an interview, the company paying for one night and I was paying for 2 nights.  It took three, yes three attempts to finally get the reservation set up so we were not changing rooms.First morning, out of coffee by 7AM, and the coffee bar is mess.  Second morning coffee bar is a bigger mess and again out of coffee at 9AM.Tried to get shuttle bus to take me to car rental, it was half way to airport.  No we only take guests to the airport.  Do you understand the meaning of the word; GUEST???This is all a reflection of the Management of this facility not training or empowering their people.Walked to the car rental and the the lady said; Maybe you should stay at the Hampton next time, they are nice people.  So my Trip Advisor advice .... stay at the Hampton they are nice people!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r145002511-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1177,9 +1895,6 @@
     <t>I had an overnight layover between domestic and international flights and stayed at Comfort Suites. The Good Points: You can call the hotel using a free courtesy phone in baggage claim at Bush Intercontinental Airport so the shuttle knows to come pick you up. The shuttle came within 15 minutes and that was at 9:45 pm. Fast 10 minutes to the hotel from the airport. Fast check-in with my reservation using Booking.com (which was easy and great, by the way). Shuttle was efficient in the morning ... EXCEPT watch that you are waiting for the shuttle at least 10 minutes early. I showed up for the 7:00 am shuttle at 6:55 am and it had already left. The receptionist had to call the driver back for me and another guest. The room is simple yet very spacious. Bathroom shower is great. Breakfast OK, not anything to write home about. Room is quiet despite being close to a freeway and the airport.The Bad Points: Reception staff don't know much. When asked about making long-distance phone calls from the room, the front desk staff did not know the cost. In-room "high speed" internet connection is the farthest thing from high speed I've ever seen. Couldn't connect to Skype over a 30 minute period because the connection was too slow. Bed sheets were quite worn and a little stained in parts. Watch the departing shuttle times (see above).MoreShow less</t>
   </si>
   <si>
-    <t>November 2012</t>
-  </si>
-  <si>
     <t>Houston_TXManager, Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded November 9, 2012</t>
   </si>
   <si>
@@ -1207,6 +1922,42 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r142906974-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142906974</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Good Location for any business or flights near IAH</t>
+  </si>
+  <si>
+    <t>I have stayed here often.  I like the proximity to the airport as that is my main reason for coming to Houston.  I like to run and just a block and a half into my run from the hotel I am on wooded "back" roads where there is no traffic/pollution.The hotel rooms are comfortable, I think the beds were replaced in the last few months.  I find them very comfortable and sleep well here.The breakfast is decent as complimentary breakfasts go and the rooms have coffee makers, refrigerator and microwave.Good and timely shuttle service to the airport and the staff from front desk to house keeping is cheery and efficient.Near IAH this is a very good hotel value.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I have stayed here often.  I like the proximity to the airport as that is my main reason for coming to Houston.  I like to run and just a block and a half into my run from the hotel I am on wooded "back" roads where there is no traffic/pollution.The hotel rooms are comfortable, I think the beds were replaced in the last few months.  I find them very comfortable and sleep well here.The breakfast is decent as complimentary breakfasts go and the rooms have coffee makers, refrigerator and microwave.Good and timely shuttle service to the airport and the staff from front desk to house keeping is cheery and efficient.Near IAH this is a very good hotel value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r142597475-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142597475</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>Ok accomodation close to the airport</t>
+  </si>
+  <si>
+    <t>I went to Houston for business and stayed at this hotel. My stay was ok and I did not have any issues about this place. Location is convenient as close to the airport, staff is nice, price is good and room was clean. The hotel looks a bit old, the gym has only 2 pieces of equipment and is in a tiny room and there is no dining options around. I did not checked out the pool. Not a fancy hotel but does it job.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r141919159-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1222,9 +1973,6 @@
     <t>I am a flight attendant commuter who stays here in between trips.  Rooms are always clean, the beds are comfortable, it is close to the airport and the van runs on time--these things are all important to anyone in the airline business.</t>
   </si>
   <si>
-    <t>September 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r140766675-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1261,6 +2009,39 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r139070811-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139070811</t>
+  </si>
+  <si>
+    <t>09/01/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>The staff was friendly &amp; efficient, the room nice and clean with a very comfortable bed and large flat screen T.V. The hot breakfast was good. The location is convenient to the airport and the shuttle service very reliable. Overall, a pleasant place and I would stay there again on a trip to Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r137759724-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137759724</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>"Excellent Hotel"</t>
+  </si>
+  <si>
+    <t>I always stay here the night before flying out of Houston.  I call the Comfort Suites, "my home away from home".  The rooms are huge and always clean. This hotel provides a microwave, refrigerator, coffeemaker, free internet, and a flat screen tv in every room. They even have a business center with a computer and printer.  I enjoy the complimentary breakfast. I am offered a variety of hot and cold breakfast choices. A gym/workout room is also on site.The Staff has always been friendly and very professional.  I wish other hotels had such nice employees. The Van service is very dependable. The Drivers are courteous and I have never been late to the airport. The Van is there on schedule. I will continue to stay at the Comfort Suites and I will recommend this Hotel to everyone. Cyn S. New Orleans, La.Thanks again for the fine service and hospitality from the Comfort Suites family.MoreShow less</t>
+  </si>
+  <si>
+    <t>I always stay here the night before flying out of Houston.  I call the Comfort Suites, "my home away from home".  The rooms are huge and always clean. This hotel provides a microwave, refrigerator, coffeemaker, free internet, and a flat screen tv in every room. They even have a business center with a computer and printer.  I enjoy the complimentary breakfast. I am offered a variety of hot and cold breakfast choices. A gym/workout room is also on site.The Staff has always been friendly and very professional.  I wish other hotels had such nice employees. The Van service is very dependable. The Drivers are courteous and I have never been late to the airport. The Van is there on schedule. I will continue to stay at the Comfort Suites and I will recommend this Hotel to everyone. Cyn S. New Orleans, La.Thanks again for the fine service and hospitality from the Comfort Suites family.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r137678908-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1315,6 +2096,48 @@
     <t>I will start at the beginning.  We arrived at IAH, went through customs, got our luggage and were standing at the hotel shuttle pick-up sign before we called the hotel for pick-up.  They said no problem, someone would be right there to pick us up.  After waiting 35 minutes without being picked up, my husband called the hotel again.  The girl that answered the phone said that the shuttle driver came by and we weren't there.  He told her that we were standing right next to the sign for hotel shuttle pick-up and no shuttle had ever gone by for their hotel.  All of a sudden, mid-sentence, the phone went dead.  Ten minutes later, we were still at the hotel shuttle pick-up sign discussing what we were going to do, when the shutle driver showed up.  He never spoke a single word to us when he arrived or during the drive to the hotel.  Not sorry I didn't see you or hello or anything.  When we arrived at the hotel, my husband asked the girl at the desk why she hung up on him.  At first, she didn't acknowledge even talking to him.  When he asked her a second time, she said that she had put him on hold.  She had not put him on hold.  He was mid-sentence and she never said anything about being put on hold.  At that time, I inquired about the shuttle in the morning...I will start at the beginning.  We arrived at IAH, went through customs, got our luggage and were standing at the hotel shuttle pick-up sign before we called the hotel for pick-up.  They said no problem, someone would be right there to pick us up.  After waiting 35 minutes without being picked up, my husband called the hotel again.  The girl that answered the phone said that the shuttle driver came by and we weren't there.  He told her that we were standing right next to the sign for hotel shuttle pick-up and no shuttle had ever gone by for their hotel.  All of a sudden, mid-sentence, the phone went dead.  Ten minutes later, we were still at the hotel shuttle pick-up sign discussing what we were going to do, when the shutle driver showed up.  He never spoke a single word to us when he arrived or during the drive to the hotel.  Not sorry I didn't see you or hello or anything.  When we arrived at the hotel, my husband asked the girl at the desk why she hung up on him.  At first, she didn't acknowledge even talking to him.  When he asked her a second time, she said that she had put him on hold.  She had not put him on hold.  He was mid-sentence and she never said anything about being put on hold.  At that time, I inquired about the shuttle in the morning because we had a 9A.M. flight.  She said that the shuttle started at 5A.M. and went every 1/2 hour throughout the day so we didn't need a reservation.  The hotel smelled like it hadn't been vacuumed in months.  The appearance was O.K. but the carpeted hallways and the room itself smelled. In the morning,the breakfast was available early and the shuttle was on schedule.  The different shuttle driver was quite pleasant.  We did receive a 10% discount but that was because both phones in our room were not working.   We will be staying near IAH again next month and I am so glad that I waited until after this stay to make the second reservation.  Needless to say, it will be at another hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r135889060-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135889060</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Good and Convenient</t>
+  </si>
+  <si>
+    <t>If you fly out of IAH, this is the place to stay.  The shuttle service gets you there quickly, and it is an easy drive off of the highway.  You also get a quick, hot breakfast to get you going on the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>If you fly out of IAH, this is the place to stay.  The shuttle service gets you there quickly, and it is an easy drive off of the highway.  You also get a quick, hot breakfast to get you going on the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r127199542-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127199542</t>
+  </si>
+  <si>
+    <t>04/03/2012</t>
+  </si>
+  <si>
+    <t>Customer Service is no good!</t>
+  </si>
+  <si>
+    <t>Check in was horrible, i reserved 3 rooms, one for myself, one for my mom and the other for my brother.  Each paid for their room and they still charged me for theres because they checked them in as walk ins instead of from the rooms I had already reserved....a monther later, i'm still trying to get the issues resolved.  The elevator was broken, so getting up and down from the 2nd and 3rd floor was a hassle.  The price and cleanliness was ok, there is nothing within a 10 mile radius.  There are plenty of other hotels around the area, will not stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Check in was horrible, i reserved 3 rooms, one for myself, one for my mom and the other for my brother.  Each paid for their room and they still charged me for theres because they checked them in as walk ins instead of from the rooms I had already reserved....a monther later, i'm still trying to get the issues resolved.  The elevator was broken, so getting up and down from the 2nd and 3rd floor was a hassle.  The price and cleanliness was ok, there is nothing within a 10 mile radius.  There are plenty of other hotels around the area, will not stay here again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r121426980-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1375,6 +2198,54 @@
     <t>First, we were put into a room with stains all over the comforters and trash on the floor. We were given attitude about it then put into another room with hair all over the bathroom. We were too tired to do anything about it. The last straw however was being woke up at 7am by housekeeping! All these doors were slamming starting around 6 but my husband got woken up at 7, went to the hallway and it was the maids! He told them politely to please stop slamming the doors, that itwas shaking the whole room. We were given attitude when we complained and were told the doors were heavy and they have to clean the rooms. Uhhhh hello, the guests are the reason the cleaning staff is even here. Care should be taken as to not disturb them. Closing the door instead of letting it slam itself would have been awesome. We were also told that they couldn't do anything about all of this as there is no manager on duty. All i can say about this stay is wtf!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r116492140-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116492140</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>Nice hotel in a great location</t>
+  </si>
+  <si>
+    <t>Nice hotel just where I needed it!  Heading out of Bush airport this hotel was perfect.  Good value, great placement, shuttle to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded October 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2011</t>
+  </si>
+  <si>
+    <t>Nice hotel just where I needed it!  Heading out of Bush airport this hotel was perfect.  Good value, great placement, shuttle to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r115947814-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115947814</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>They can do better</t>
+  </si>
+  <si>
+    <t>I stayed here for one night.Goodness:Room was clean &amp; spacious. Free shuttle to the airport, leaves every 30min.Comfortable bed.Need improvements:The AC was making so much noise, felt like i was on the plane. Their Sunday breakfast doesnt open until 7am...a disadvantage for those whose flights are as early as 6am. Wifi didnt work in the room. Staffs are not friendly. If you're just basically looking for a place to crash it'll work just fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, General Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded September 17, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2011</t>
+  </si>
+  <si>
+    <t>I stayed here for one night.Goodness:Room was clean &amp; spacious. Free shuttle to the airport, leaves every 30min.Comfortable bed.Need improvements:The AC was making so much noise, felt like i was on the plane. Their Sunday breakfast doesnt open until 7am...a disadvantage for those whose flights are as early as 6am. Wifi didnt work in the room. Staffs are not friendly. If you're just basically looking for a place to crash it'll work just fine.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r115456523-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1391,12 +2262,6 @@
   </si>
   <si>
     <t>July 2011</t>
-  </si>
-  <si>
-    <t>Houston_TXManager, Manager at Comfort Suites Bush Intercontinental Airport, responded to this reviewResponded October 19, 2011</t>
-  </si>
-  <si>
-    <t>Responded October 19, 2011</t>
   </si>
   <si>
     <t>Pros:Room clean (but I did go over it with clorox wipes and spray for bedding)WiFi worked but slowMicrowave clean workedBreakfast (Fresh Fruit, waffles, yogurt, danishes, cereal, toast,instant oatmeal etc.)Good water pressure in showerAC excellentwe received a brand new flat screen TV as did all the rooms I believeCustomer Service A+Cons I didn't use the pool as I did not smell any colorine and I had to exchange my key 3 times becuase it just wouldn't work. I will stay here again.More</t>
@@ -1446,6 +2311,48 @@
     <t>This meets the requirements of a comfortable, clean, quiet place to sleep near the airport - if thats what you want you shouldn't have any problems. More than that it depends on what you want. No restaurant on site for example. But in the immediate vicinity there is Subway or equivalent so you won't starve (unlike some places I've been where I had to subsist on vending machine crackers) and I'd think there are restaurants in nearby full-service hotels. It has all the usual amenities and a fair breakfast with waffles being the only hot food item. Wasn't flying so didn't get a chance to see how airport transport works. I seem to recall from previous experience tho the adjacent Clarion may have the better park/fly deal for Choice Elite members.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r37960874-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>37960874</t>
+  </si>
+  <si>
+    <t>08/17/2009</t>
+  </si>
+  <si>
+    <t>Good Hotel If You Are An Elite Program Member</t>
+  </si>
+  <si>
+    <t>First off I am an elite diamond member with choice hotels.  I get many perks just for the title alone so I typically stay with Comfort Inn, Quality Inn, Clarion Inn, etc... I've stayed at fantastic bargains and some real stinkers but this hotel is somewhere in the middle of those two extremes.  I reserved one of the King whirlpool suites on the 1st floor.  It was a large room but the whirlpool takes up almost 1/3 of the room.  There is no separation of the whirlpool area from the bedroom area and the two are about 6 feet apart from each other?!?!  The room did have a tinge of smoke in the air but that could be due to the overworked air conditioner.  The bed was big and soft but the TV was a 27" regular TV.  One big plus was that I did not hear the airport noise one time during the night.  True, I had the air conditioner on all night because it was 102 during the day but the surrounding environment could have been much noisier - but wasn't.  The carpets did look like they could use a shampooing but overall it seemed clean in the room.  The breakfast was skimpy and not worthy of a typical Comfort Inn Suites hotel.  It was not a deluxe breakfast as advertised.  Their fitness center consisted of two treadmill type of devices in a small air conditioned room.  The...First off I am an elite diamond member with choice hotels.  I get many perks just for the title alone so I typically stay with Comfort Inn, Quality Inn, Clarion Inn, etc... I've stayed at fantastic bargains and some real stinkers but this hotel is somewhere in the middle of those two extremes.  I reserved one of the King whirlpool suites on the 1st floor.  It was a large room but the whirlpool takes up almost 1/3 of the room.  There is no separation of the whirlpool area from the bedroom area and the two are about 6 feet apart from each other?!?!  The room did have a tinge of smoke in the air but that could be due to the overworked air conditioner.  The bed was big and soft but the TV was a 27" regular TV.  One big plus was that I did not hear the airport noise one time during the night.  True, I had the air conditioner on all night because it was 102 during the day but the surrounding environment could have been much noisier - but wasn't.  The carpets did look like they could use a shampooing but overall it seemed clean in the room.  The breakfast was skimpy and not worthy of a typical Comfort Inn Suites hotel.  It was not a deluxe breakfast as advertised.  Their fitness center consisted of two treadmill type of devices in a small air conditioned room.  The staff members were very accomodating and worth staying just for their helpful attitude.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>First off I am an elite diamond member with choice hotels.  I get many perks just for the title alone so I typically stay with Comfort Inn, Quality Inn, Clarion Inn, etc... I've stayed at fantastic bargains and some real stinkers but this hotel is somewhere in the middle of those two extremes.  I reserved one of the King whirlpool suites on the 1st floor.  It was a large room but the whirlpool takes up almost 1/3 of the room.  There is no separation of the whirlpool area from the bedroom area and the two are about 6 feet apart from each other?!?!  The room did have a tinge of smoke in the air but that could be due to the overworked air conditioner.  The bed was big and soft but the TV was a 27" regular TV.  One big plus was that I did not hear the airport noise one time during the night.  True, I had the air conditioner on all night because it was 102 during the day but the surrounding environment could have been much noisier - but wasn't.  The carpets did look like they could use a shampooing but overall it seemed clean in the room.  The breakfast was skimpy and not worthy of a typical Comfort Inn Suites hotel.  It was not a deluxe breakfast as advertised.  Their fitness center consisted of two treadmill type of devices in a small air conditioned room.  The...First off I am an elite diamond member with choice hotels.  I get many perks just for the title alone so I typically stay with Comfort Inn, Quality Inn, Clarion Inn, etc... I've stayed at fantastic bargains and some real stinkers but this hotel is somewhere in the middle of those two extremes.  I reserved one of the King whirlpool suites on the 1st floor.  It was a large room but the whirlpool takes up almost 1/3 of the room.  There is no separation of the whirlpool area from the bedroom area and the two are about 6 feet apart from each other?!?!  The room did have a tinge of smoke in the air but that could be due to the overworked air conditioner.  The bed was big and soft but the TV was a 27" regular TV.  One big plus was that I did not hear the airport noise one time during the night.  True, I had the air conditioner on all night because it was 102 during the day but the surrounding environment could have been much noisier - but wasn't.  The carpets did look like they could use a shampooing but overall it seemed clean in the room.  The breakfast was skimpy and not worthy of a typical Comfort Inn Suites hotel.  It was not a deluxe breakfast as advertised.  Their fitness center consisted of two treadmill type of devices in a small air conditioned room.  The staff members were very accomodating and worth staying just for their helpful attitude.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r33940308-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>33940308</t>
+  </si>
+  <si>
+    <t>07/05/2009</t>
+  </si>
+  <si>
+    <t>Bad Experience for Airport Travel</t>
+  </si>
+  <si>
+    <t>I had a problem with customer service at this location.  People who want to find a hotel simply as a place to stay before flying out of IAH should look elsewhere.  I made a phone reservation at $99, but when I said I needed to park my car there for the week (durning my travels) she said that they could only offer me "free" parking for $119/night.  I mentioned that it wasn't free parking and she reduced the rate to $109.  So far, so good.  When I checked in, they had the reservation entered for the wrong night.  Strike 1.  I came back from getting some food and happened to ask about the procedure for parking during the week.  Had I not investigated myself, I would have parked "illegally" for the week.  They also tried to charge me again until I explained myself.  Strike 2.  Finally, I had a 5:45 AM flight and asked for a wake-up call at 3:45 AM.  Never got it.  Strike 3.Final notes:  There are no restaurants in this area.  You might want to stay at a facility that has an in-house eatery.  Also, I used Yellow Cab [--]  w/ 4:30 AM pick-up and was very happy with it.  The driver called me 10 mins before he arrived with his ETA and cab number.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>I had a problem with customer service at this location.  People who want to find a hotel simply as a place to stay before flying out of IAH should look elsewhere.  I made a phone reservation at $99, but when I said I needed to park my car there for the week (durning my travels) she said that they could only offer me "free" parking for $119/night.  I mentioned that it wasn't free parking and she reduced the rate to $109.  So far, so good.  When I checked in, they had the reservation entered for the wrong night.  Strike 1.  I came back from getting some food and happened to ask about the procedure for parking during the week.  Had I not investigated myself, I would have parked "illegally" for the week.  They also tried to charge me again until I explained myself.  Strike 2.  Finally, I had a 5:45 AM flight and asked for a wake-up call at 3:45 AM.  Never got it.  Strike 3.Final notes:  There are no restaurants in this area.  You might want to stay at a facility that has an in-house eatery.  Also, I used Yellow Cab [--]  w/ 4:30 AM pick-up and was very happy with it.  The driver called me 10 mins before he arrived with his ETA and cab number.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r32802587-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1494,6 +2401,42 @@
     <t>The room was spacious but it smells like someone smoked on a non-smoking room. The house keeper went and sprayed the floors to cover up the smell but it still smell. There was no water pressure in the shower, the bed is ok but seems like the pillow case was not change. My overall take on the room doesn't feel clean. I will not stay in this place again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r24358183-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>24358183</t>
+  </si>
+  <si>
+    <t>02/07/2009</t>
+  </si>
+  <si>
+    <t>very good hotel</t>
+  </si>
+  <si>
+    <t>I stayed here the night before flying out of Houston.  It had everything I wanted, including good Internet, refrigerator, microwave, hair dryer, and airport transportation.  There was a good hot and cold breakfast in the morning.  They provided an ethernet cable for wired connection in addition to wireless.  The room was clean and comfortable.  The price was decent.  I had no complaints.</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r14038115-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14038115</t>
+  </si>
+  <si>
+    <t>03/04/2008</t>
+  </si>
+  <si>
+    <t>Very good!</t>
+  </si>
+  <si>
+    <t>Quiet and very clean, spacious rooms. Comfortabel beds, clean bathroom. Linens and towels clean and of good quality. Inexpensive (80 USD). Prompt hotel/airport-shuttle (15 minutes after call at IAH). Friendly staff. Continental breakfast okay. Godfather`s Pizza and Subway in 100 m distance. Taxi to Galleria = 50 - 60 USD.We would stay there again!</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r12647660-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1555,6 +2498,36 @@
   </si>
   <si>
     <t>I was in town for one day and stayed over night at this hotel and I found it to be a great experience.  The hotel close to the airport and provides airport transportation (free of charge).  The hotel is clean and the rooms are very nice.  The bathroom was also 'spacious' compared to other hotels I've stayed in.  Only draw back was the food selection---there is a subway and a 'Denny's type' restaurant nearby but I really wasn't in the mood to go out but I was able to order from a local restaurant and have the food delivered right to my room- The menus are located in the rooms--real food---not pizza.  This was nice. Also, they allowed early check-in. Check-in time is at 3:00pm and my plane arrived at noon. I called them and they sent the airport transporation van immediately for me and my room was already nice and clean!! Will stay here again definitely. Also, quiet at night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r4614938-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4614938</t>
+  </si>
+  <si>
+    <t>03/12/2006</t>
+  </si>
+  <si>
+    <t>Enjoyable stay!</t>
+  </si>
+  <si>
+    <t>Stayed here after researching several Houston area hotels.  Very pleased.  Room was very spacious, had a sitting area and even had a real closet!  Microwave and fridge were also included.  Bed was comfortable.  I am mostly concerned with cleanliness when it comes to hotels and I felt very comfortable here.  Our AC did not work, so we were quickly given another room.  Great price for a very enjoyable stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r3277883-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3277883</t>
+  </si>
+  <si>
+    <t>03/15/2005</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>spacious, clean room, nice breakfast, but one problem, was told there was a 24 hour complimentary shuttle from airport, arrived just before midnight, called hotel at 11: 55 and was told shottle finished at midnight- had to take a cab, $12, and a very disgruntled driver. Otherwise waspleased with hotel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107783-r3213224-Comfort_Suites_Bush_Intercontinental_Airport-Houston_Texas.html</t>
@@ -2146,17 +3119,11 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2200,7 +3167,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -2208,12 +3175,18 @@
       <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -2257,7 +3230,7 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
@@ -2314,13 +3287,13 @@
         <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
         <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2334,7 +3307,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -2350,40 +3323,42 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>59</v>
-      </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -2395,7 +3370,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2432,13 +3407,13 @@
         <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
         <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2449,14 +3424,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>87</v>
-      </c>
-      <c r="X7" t="s">
-        <v>88</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -2472,34 +3443,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
-      </c>
-      <c r="J8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2510,14 +3481,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>96</v>
-      </c>
-      <c r="X8" t="s">
-        <v>97</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -2533,7 +3500,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2542,49 +3509,45 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>96</v>
-      </c>
-      <c r="X9" t="s">
-        <v>97</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2600,7 +3563,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2609,45 +3572,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
         <v>60</v>
       </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -2663,7 +3620,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2672,43 +3629,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2724,7 +3677,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2733,39 +3686,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -2781,7 +3738,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2790,16 +3747,16 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -2808,27 +3765,25 @@
         <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" t="s">
+        <v>123</v>
+      </c>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -2844,54 +3799,52 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
         <v>128</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>129</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>130</v>
       </c>
-      <c r="K14" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" t="s">
-        <v>132</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>133</v>
-      </c>
       <c r="O14" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>122</v>
+      </c>
+      <c r="X14" t="s">
+        <v>123</v>
+      </c>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -2907,34 +3860,34 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
         <v>134</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>135</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>136</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>137</v>
       </c>
-      <c r="L15" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>133</v>
-      </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2945,10 +3898,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s">
+        <v>139</v>
+      </c>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -2964,7 +3921,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2973,45 +3930,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" t="s">
+        <v>148</v>
+      </c>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -3027,7 +3982,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3036,43 +3991,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
         <v>146</v>
       </c>
-      <c r="J17" t="s">
-        <v>147</v>
-      </c>
-      <c r="K17" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" t="s">
-        <v>149</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>150</v>
-      </c>
       <c r="O17" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="X17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -3088,7 +4049,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3097,35 +4058,37 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3133,7 +4096,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -3149,7 +4112,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3158,43 +4121,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
         <v>161</v>
       </c>
-      <c r="J19" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19" t="s">
-        <v>164</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>159</v>
-      </c>
       <c r="O19" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
@@ -3210,7 +4169,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3219,37 +4178,37 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
         <v>67</v>
       </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3257,7 +4216,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -3273,7 +4232,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3282,37 +4241,35 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3320,7 +4277,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
@@ -3357,13 +4314,13 @@
         <v>182</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
         <v>183</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3414,35 +4371,33 @@
         <v>189</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>191</v>
-      </c>
-      <c r="X23" t="s">
-        <v>192</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
@@ -3458,52 +4413,54 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
         <v>194</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>195</v>
       </c>
-      <c r="J24" t="s">
-        <v>196</v>
-      </c>
-      <c r="K24" t="s">
-        <v>197</v>
-      </c>
-      <c r="L24" t="s">
-        <v>198</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>190</v>
-      </c>
       <c r="O24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>199</v>
-      </c>
-      <c r="X24" t="s">
-        <v>200</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
@@ -3519,7 +4476,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3528,45 +4485,39 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
@@ -3582,43 +4533,43 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
         <v>206</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>207</v>
       </c>
-      <c r="J26" t="s">
-        <v>208</v>
-      </c>
-      <c r="K26" t="s">
-        <v>209</v>
-      </c>
-      <c r="L26" t="s">
-        <v>210</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>211</v>
-      </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3629,7 +4580,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
@@ -3645,52 +4596,48 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
         <v>212</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>213</v>
-      </c>
-      <c r="J27" t="s">
-        <v>214</v>
-      </c>
-      <c r="K27" t="s">
-        <v>215</v>
-      </c>
-      <c r="L27" t="s">
-        <v>216</v>
-      </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>1</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
@@ -3706,7 +4653,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3715,39 +4662,45 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
         <v>60</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
@@ -3763,7 +4716,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3772,25 +4725,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3804,7 +4757,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
@@ -3820,7 +4773,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3829,43 +4782,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>231</v>
+      </c>
+      <c r="X30" t="s">
+        <v>232</v>
+      </c>
       <c r="Y30" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -3881,54 +4834,52 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>239</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>240</v>
-      </c>
-      <c r="J31" t="s">
-        <v>241</v>
-      </c>
-      <c r="K31" t="s">
-        <v>242</v>
-      </c>
-      <c r="L31" t="s">
-        <v>243</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>237</v>
-      </c>
       <c r="O31" t="s">
-        <v>104</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>240</v>
+      </c>
+      <c r="X31" t="s">
+        <v>241</v>
+      </c>
       <c r="Y31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32">
@@ -3944,46 +4895,44 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>244</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>245</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>246</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>247</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
         <v>248</v>
       </c>
-      <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s">
-        <v>249</v>
-      </c>
       <c r="O32" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3991,7 +4940,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33">
@@ -4007,46 +4956,44 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" t="s">
         <v>251</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>252</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>253</v>
       </c>
-      <c r="K33" t="s">
-        <v>254</v>
-      </c>
-      <c r="L33" t="s">
-        <v>255</v>
-      </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
         <v>5</v>
       </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4054,7 +5001,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -4070,43 +5017,43 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
         <v>256</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>257</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>258</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>259</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
         <v>260</v>
       </c>
-      <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s">
-        <v>249</v>
-      </c>
       <c r="O34" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
       <c r="R34" t="n">
         <v>4</v>
       </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>4</v>
@@ -4117,7 +5064,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
@@ -4133,7 +5080,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4142,37 +5089,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>260</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
       <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4180,7 +5127,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36">
@@ -4196,7 +5143,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4205,35 +5152,37 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s">
-        <v>104</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4241,7 +5190,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
@@ -4257,50 +5206,46 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>273</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>274</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>275</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>276</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
         <v>277</v>
       </c>
-      <c r="M37" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" t="s">
-        <v>278</v>
-      </c>
       <c r="O37" t="s">
-        <v>60</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -4308,7 +5253,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38">
@@ -4324,54 +5269,48 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>278</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>279</v>
+      </c>
+      <c r="J38" t="s">
         <v>280</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>281</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>282</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
         <v>283</v>
       </c>
-      <c r="L38" t="s">
-        <v>284</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39">
@@ -4387,46 +5326,44 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>285</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
         <v>286</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>287</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>288</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>289</v>
       </c>
-      <c r="L39" t="s">
-        <v>290</v>
-      </c>
       <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>283</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4471,10 +5408,10 @@
         <v>295</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="O40" t="s">
         <v>60</v>
@@ -4488,10 +5425,14 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>296</v>
+      </c>
+      <c r="X40" t="s">
+        <v>297</v>
+      </c>
       <c r="Y40" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41">
@@ -4507,7 +5448,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4516,38 +5457,32 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J41" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K41" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L41" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O41" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>3</v>
@@ -4555,10 +5490,14 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>296</v>
+      </c>
+      <c r="X41" t="s">
+        <v>297</v>
+      </c>
       <c r="Y41" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42">
@@ -4574,58 +5513,52 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>307</v>
+      </c>
+      <c r="J42" t="s">
+        <v>308</v>
+      </c>
+      <c r="K42" t="s">
+        <v>309</v>
+      </c>
+      <c r="L42" t="s">
+        <v>310</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
         <v>304</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
-        <v>305</v>
-      </c>
-      <c r="J42" t="s">
-        <v>306</v>
-      </c>
-      <c r="K42" t="s">
-        <v>307</v>
-      </c>
-      <c r="L42" t="s">
-        <v>308</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="s">
-        <v>309</v>
-      </c>
       <c r="O42" t="s">
-        <v>67</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>1</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>311</v>
+      </c>
+      <c r="X42" t="s">
+        <v>312</v>
+      </c>
       <c r="Y42" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43">
@@ -4641,7 +5574,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4650,41 +5583,37 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J43" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="O43" t="s">
-        <v>104</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4723,43 +5652,33 @@
         <v>320</v>
       </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="L44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s">
-        <v>316</v>
-      </c>
-      <c r="O44" t="s">
-        <v>74</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>3</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>323</v>
+      </c>
+      <c r="X44" t="s">
+        <v>324</v>
+      </c>
       <c r="Y44" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45">
@@ -4775,7 +5694,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4784,41 +5703,35 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J45" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K45" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4826,7 +5739,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46">
@@ -4842,7 +5755,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4851,37 +5764,33 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J46" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K46" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L46" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O46" t="s">
         <v>67</v>
       </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -4893,7 +5802,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47">
@@ -4909,7 +5818,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4918,41 +5827,35 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J47" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K47" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O47" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4960,7 +5863,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48">
@@ -4976,7 +5879,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4985,49 +5888,39 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="J48" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K48" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="O48" t="s">
-        <v>74</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49">
@@ -5043,7 +5936,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5052,49 +5945,35 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="J49" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K49" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L49" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s">
-        <v>351</v>
-      </c>
-      <c r="O49" t="s">
-        <v>67</v>
-      </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>4</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50">
@@ -5110,7 +5989,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5119,37 +5998,37 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="J50" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K50" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L50" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>343</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5157,7 +6036,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51">
@@ -5173,7 +6052,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5182,53 +6061,39 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="J51" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K51" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="O51" t="s">
-        <v>74</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>1</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>362</v>
-      </c>
-      <c r="X51" t="s">
-        <v>363</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52">
@@ -5244,7 +6109,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5253,37 +6118,35 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="J52" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K52" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L52" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>374</v>
+      </c>
+      <c r="O52" t="s">
+        <v>73</v>
+      </c>
       <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5291,7 +6154,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53">
@@ -5307,7 +6170,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5316,34 +6179,34 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="J53" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K53" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L53" t="s">
+        <v>380</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
         <v>374</v>
       </c>
-      <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
+      <c r="O53" t="s">
+        <v>155</v>
+      </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
         <v>5</v>
@@ -5354,7 +6217,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54">
@@ -5370,7 +6233,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5379,53 +6242,43 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J54" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="K54" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="O54" t="s">
-        <v>74</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>3</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>382</v>
-      </c>
-      <c r="X54" t="s">
-        <v>383</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55">
@@ -5441,7 +6294,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5450,41 +6303,37 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J55" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K55" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L55" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O55" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
         <v>4</v>
       </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5492,7 +6341,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56">
@@ -5508,7 +6357,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5517,41 +6366,37 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J56" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K56" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L56" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
-      </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5559,7 +6404,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57">
@@ -5575,7 +6420,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5584,41 +6429,37 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
+        <v>401</v>
+      </c>
+      <c r="J57" t="s">
+        <v>402</v>
+      </c>
+      <c r="K57" t="s">
+        <v>403</v>
+      </c>
+      <c r="L57" t="s">
+        <v>404</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
         <v>398</v>
       </c>
-      <c r="J57" t="s">
-        <v>399</v>
-      </c>
-      <c r="K57" t="s">
-        <v>400</v>
-      </c>
-      <c r="L57" t="s">
-        <v>401</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5</v>
-      </c>
-      <c r="N57" t="s">
-        <v>396</v>
-      </c>
       <c r="O57" t="s">
-        <v>74</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R57" t="n">
         <v>5</v>
       </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5626,7 +6467,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58">
@@ -5642,7 +6483,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5651,32 +6492,28 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J58" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K58" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L58" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
       <c r="R58" t="n">
         <v>4</v>
       </c>
@@ -5685,7 +6522,7 @@
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5693,7 +6530,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59">
@@ -5709,7 +6546,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5718,41 +6555,35 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J59" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L59" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="O59" t="s">
-        <v>74</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
-        <v>5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5760,7 +6591,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60">
@@ -5776,7 +6607,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5785,41 +6616,35 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J60" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K60" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L60" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5827,7 +6652,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61">
@@ -5843,7 +6668,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5852,37 +6677,33 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J61" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K61" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L61" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
-      <c r="N61" t="s">
-        <v>408</v>
-      </c>
-      <c r="O61" t="s">
-        <v>60</v>
-      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
       <c r="P61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -5891,12 +6712,8 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s">
-        <v>424</v>
-      </c>
-      <c r="X61" t="s">
-        <v>425</v>
-      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
       <c r="Y61" t="s">
         <v>426</v>
       </c>
@@ -5935,39 +6752,29 @@
         <v>431</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N62" t="s">
         <v>432</v>
       </c>
       <c r="O62" t="s">
-        <v>67</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>4</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
       <c r="R62" t="n">
-        <v>5</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s">
-        <v>424</v>
-      </c>
-      <c r="X62" t="s">
-        <v>425</v>
-      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
       <c r="Y62" t="s">
         <v>433</v>
       </c>
@@ -6006,25 +6813,25 @@
         <v>438</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="O63" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R63" t="n">
         <v>4</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
@@ -6036,7 +6843,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64">
@@ -6052,7 +6859,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6061,49 +6868,49 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J64" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K64" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>446</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="n">
         <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>444</v>
-      </c>
-      <c r="X64" t="s">
-        <v>445</v>
-      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65">
@@ -6119,7 +6926,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6128,49 +6935,45 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J65" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K65" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L65" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
-      <c r="N65" t="s">
-        <v>452</v>
-      </c>
-      <c r="O65" t="s">
-        <v>67</v>
-      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
       <c r="P65" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
       <c r="S65" t="n">
         <v>5</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s">
-        <v>453</v>
-      </c>
-      <c r="X65" t="s">
-        <v>454</v>
-      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66">
@@ -6186,50 +6989,46 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
+        <v>453</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>454</v>
+      </c>
+      <c r="J66" t="s">
+        <v>455</v>
+      </c>
+      <c r="K66" t="s">
         <v>456</v>
       </c>
-      <c r="G66" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="L66" t="s">
         <v>457</v>
       </c>
-      <c r="J66" t="s">
-        <v>458</v>
-      </c>
-      <c r="K66" t="s">
-        <v>459</v>
-      </c>
-      <c r="L66" t="s">
-        <v>460</v>
-      </c>
       <c r="M66" t="n">
-        <v>2</v>
-      </c>
-      <c r="N66" t="s">
-        <v>461</v>
-      </c>
-      <c r="O66" t="s">
-        <v>74</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
       <c r="P66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -6237,7 +7036,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67">
@@ -6253,37 +7052,33 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
+        <v>459</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>460</v>
+      </c>
+      <c r="J67" t="s">
+        <v>461</v>
+      </c>
+      <c r="K67" t="s">
+        <v>462</v>
+      </c>
+      <c r="L67" t="s">
         <v>463</v>
       </c>
-      <c r="G67" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67" t="s">
-        <v>464</v>
-      </c>
-      <c r="J67" t="s">
-        <v>465</v>
-      </c>
-      <c r="K67" t="s">
-        <v>466</v>
-      </c>
-      <c r="L67" t="s">
-        <v>467</v>
-      </c>
       <c r="M67" t="n">
-        <v>4</v>
-      </c>
-      <c r="N67" t="s">
-        <v>468</v>
-      </c>
-      <c r="O67" t="s">
-        <v>74</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="n">
         <v>4</v>
@@ -6296,7 +7091,7 @@
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6304,7 +7099,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68">
@@ -6320,7 +7115,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6329,49 +7124,39 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J68" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K68" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L68" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
-      </c>
-      <c r="P68" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>3</v>
-      </c>
-      <c r="R68" t="n">
-        <v>5</v>
-      </c>
-      <c r="S68" t="n">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
-      <c r="U68" t="n">
-        <v>4</v>
-      </c>
+      <c r="U68" t="s"/>
       <c r="V68" t="n">
         <v>0</v>
       </c>
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69">
@@ -6387,7 +7172,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6396,41 +7181,41 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J69" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="K69" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="L69" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O69" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -6438,7 +7223,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70">
@@ -6454,7 +7239,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6463,49 +7248,39 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J70" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K70" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L70" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="O70" t="s">
-        <v>74</v>
-      </c>
-      <c r="P70" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1</v>
-      </c>
-      <c r="R70" t="n">
-        <v>4</v>
-      </c>
-      <c r="S70" t="n">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
       <c r="T70" t="s"/>
-      <c r="U70" t="n">
-        <v>2</v>
-      </c>
+      <c r="U70" t="s"/>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71">
@@ -6521,48 +7296,58 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
+        <v>481</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>482</v>
+      </c>
+      <c r="J71" t="s">
+        <v>483</v>
+      </c>
+      <c r="K71" t="s">
+        <v>484</v>
+      </c>
+      <c r="L71" t="s">
+        <v>485</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>480</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
         <v>486</v>
-      </c>
-      <c r="G71" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" t="s">
-        <v>47</v>
-      </c>
-      <c r="I71" t="s">
-        <v>487</v>
-      </c>
-      <c r="J71" t="s">
-        <v>488</v>
-      </c>
-      <c r="K71" t="s">
-        <v>489</v>
-      </c>
-      <c r="L71" t="s">
-        <v>490</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="s"/>
-      <c r="O71" t="s"/>
-      <c r="P71" t="s"/>
-      <c r="Q71" t="s"/>
-      <c r="R71" t="s"/>
-      <c r="S71" t="s"/>
-      <c r="T71" t="s"/>
-      <c r="U71" t="s"/>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="s">
-        <v>491</v>
-      </c>
-      <c r="X71" t="s">
-        <v>492</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="72">
@@ -6578,7 +7363,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6587,41 +7372,41 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="J72" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="K72" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="L72" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="O72" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -6629,7 +7414,7 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73">
@@ -6645,7 +7430,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6654,39 +7439,41 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J73" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K73" t="s">
-        <v>175</v>
+        <v>497</v>
       </c>
       <c r="L73" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="O73" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
       </c>
       <c r="Q73" t="n">
-        <v>4</v>
-      </c>
-      <c r="R73" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -6694,7 +7481,7 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74">
@@ -6710,7 +7497,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -6719,22 +7506,26 @@
         <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="J74" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K74" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L74" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
-      </c>
-      <c r="N74" t="s"/>
-      <c r="O74" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>506</v>
+      </c>
+      <c r="O74" t="s">
+        <v>73</v>
+      </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
       <c r="R74" t="s"/>
@@ -6747,7 +7538,7 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="75">
@@ -6763,7 +7554,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -6772,35 +7563,49 @@
         <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="J75" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K75" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L75" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
-      </c>
-      <c r="N75" t="s"/>
-      <c r="O75" t="s"/>
-      <c r="P75" t="s"/>
-      <c r="Q75" t="s"/>
-      <c r="R75" t="s"/>
-      <c r="S75" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>499</v>
+      </c>
+      <c r="O75" t="s">
+        <v>73</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
       <c r="T75" t="s"/>
-      <c r="U75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
       <c r="V75" t="n">
         <v>0</v>
       </c>
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="76">
@@ -6816,48 +7621,3492 @@
         <v>44</v>
       </c>
       <c r="F76" t="s">
+        <v>512</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>513</v>
+      </c>
+      <c r="J76" t="s">
+        <v>514</v>
+      </c>
+      <c r="K76" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" t="s">
+        <v>515</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>499</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>516</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
         <v>517</v>
       </c>
-      <c r="G76" t="s">
-        <v>46</v>
-      </c>
-      <c r="H76" t="s">
-        <v>47</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="J77" t="s">
         <v>518</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K77" t="s">
         <v>519</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L77" t="s">
         <v>520</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
         <v>521</v>
       </c>
-      <c r="M76" t="n">
-        <v>4</v>
-      </c>
-      <c r="N76" t="s"/>
-      <c r="O76" t="s"/>
-      <c r="P76" t="s"/>
-      <c r="Q76" t="s"/>
-      <c r="R76" t="s"/>
-      <c r="S76" t="s"/>
-      <c r="T76" t="s"/>
-      <c r="U76" t="s"/>
-      <c r="V76" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" t="s">
-        <v>491</v>
-      </c>
-      <c r="X76" t="s">
-        <v>492</v>
-      </c>
-      <c r="Y76" t="s">
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
         <v>522</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>523</v>
+      </c>
+      <c r="J78" t="s">
+        <v>524</v>
+      </c>
+      <c r="K78" t="s">
+        <v>525</v>
+      </c>
+      <c r="L78" t="s">
+        <v>526</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>527</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>528</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>529</v>
+      </c>
+      <c r="J79" t="s">
+        <v>530</v>
+      </c>
+      <c r="K79" t="s">
+        <v>531</v>
+      </c>
+      <c r="L79" t="s">
+        <v>532</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>521</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>534</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>535</v>
+      </c>
+      <c r="J80" t="s">
+        <v>536</v>
+      </c>
+      <c r="K80" t="s">
+        <v>537</v>
+      </c>
+      <c r="L80" t="s">
+        <v>538</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>539</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>540</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>541</v>
+      </c>
+      <c r="J81" t="s">
+        <v>542</v>
+      </c>
+      <c r="K81" t="s">
+        <v>543</v>
+      </c>
+      <c r="L81" t="s">
+        <v>544</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>545</v>
+      </c>
+      <c r="O81" t="s">
+        <v>155</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>546</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>547</v>
+      </c>
+      <c r="J82" t="s">
+        <v>548</v>
+      </c>
+      <c r="K82" t="s">
+        <v>549</v>
+      </c>
+      <c r="L82" t="s">
+        <v>550</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>551</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>552</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>553</v>
+      </c>
+      <c r="J83" t="s">
+        <v>554</v>
+      </c>
+      <c r="K83" t="s">
+        <v>555</v>
+      </c>
+      <c r="L83" t="s">
+        <v>556</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>557</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>558</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>559</v>
+      </c>
+      <c r="J84" t="s">
+        <v>554</v>
+      </c>
+      <c r="K84" t="s">
+        <v>560</v>
+      </c>
+      <c r="L84" t="s">
+        <v>561</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>551</v>
+      </c>
+      <c r="O84" t="s">
+        <v>73</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>563</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>564</v>
+      </c>
+      <c r="J85" t="s">
+        <v>565</v>
+      </c>
+      <c r="K85" t="s">
+        <v>566</v>
+      </c>
+      <c r="L85" t="s">
+        <v>567</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>557</v>
+      </c>
+      <c r="O85" t="s">
+        <v>73</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>568</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>569</v>
+      </c>
+      <c r="J86" t="s">
+        <v>570</v>
+      </c>
+      <c r="K86" t="s">
+        <v>571</v>
+      </c>
+      <c r="L86" t="s">
+        <v>572</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>573</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>574</v>
+      </c>
+      <c r="J87" t="s">
+        <v>575</v>
+      </c>
+      <c r="K87" t="s">
+        <v>576</v>
+      </c>
+      <c r="L87" t="s">
+        <v>577</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>557</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>578</v>
+      </c>
+      <c r="X87" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>581</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>582</v>
+      </c>
+      <c r="J88" t="s">
+        <v>583</v>
+      </c>
+      <c r="K88" t="s">
+        <v>584</v>
+      </c>
+      <c r="L88" t="s">
+        <v>585</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>586</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>587</v>
+      </c>
+      <c r="J89" t="s">
+        <v>588</v>
+      </c>
+      <c r="K89" t="s">
+        <v>589</v>
+      </c>
+      <c r="L89" t="s">
+        <v>590</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>591</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>592</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>593</v>
+      </c>
+      <c r="J90" t="s">
+        <v>594</v>
+      </c>
+      <c r="K90" t="s">
+        <v>595</v>
+      </c>
+      <c r="L90" t="s">
+        <v>596</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>591</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>597</v>
+      </c>
+      <c r="X90" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>600</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>601</v>
+      </c>
+      <c r="J91" t="s">
+        <v>602</v>
+      </c>
+      <c r="K91" t="s">
+        <v>603</v>
+      </c>
+      <c r="L91" t="s">
+        <v>604</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>606</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>607</v>
+      </c>
+      <c r="J92" t="s">
+        <v>608</v>
+      </c>
+      <c r="K92" t="s">
+        <v>609</v>
+      </c>
+      <c r="L92" t="s">
+        <v>610</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>591</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>611</v>
+      </c>
+      <c r="X92" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>614</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>615</v>
+      </c>
+      <c r="J93" t="s">
+        <v>616</v>
+      </c>
+      <c r="K93" t="s">
+        <v>617</v>
+      </c>
+      <c r="L93" t="s">
+        <v>618</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>619</v>
+      </c>
+      <c r="O93" t="s">
+        <v>155</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>620</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>621</v>
+      </c>
+      <c r="J94" t="s">
+        <v>622</v>
+      </c>
+      <c r="K94" t="s">
+        <v>623</v>
+      </c>
+      <c r="L94" t="s">
+        <v>624</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>625</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>627</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>628</v>
+      </c>
+      <c r="J95" t="s">
+        <v>629</v>
+      </c>
+      <c r="K95" t="s">
+        <v>630</v>
+      </c>
+      <c r="L95" t="s">
+        <v>631</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>619</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>632</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>633</v>
+      </c>
+      <c r="J96" t="s">
+        <v>634</v>
+      </c>
+      <c r="K96" t="s">
+        <v>635</v>
+      </c>
+      <c r="L96" t="s">
+        <v>636</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>625</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>637</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>638</v>
+      </c>
+      <c r="J97" t="s">
+        <v>639</v>
+      </c>
+      <c r="K97" t="s">
+        <v>640</v>
+      </c>
+      <c r="L97" t="s">
+        <v>641</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>625</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>643</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>644</v>
+      </c>
+      <c r="J98" t="s">
+        <v>645</v>
+      </c>
+      <c r="K98" t="s">
+        <v>646</v>
+      </c>
+      <c r="L98" t="s">
+        <v>647</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>648</v>
+      </c>
+      <c r="O98" t="s">
+        <v>73</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>649</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>650</v>
+      </c>
+      <c r="J99" t="s">
+        <v>651</v>
+      </c>
+      <c r="K99" t="s">
+        <v>652</v>
+      </c>
+      <c r="L99" t="s">
+        <v>653</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>648</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>654</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>655</v>
+      </c>
+      <c r="J100" t="s">
+        <v>656</v>
+      </c>
+      <c r="K100" t="s">
+        <v>657</v>
+      </c>
+      <c r="L100" t="s">
+        <v>658</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>648</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>660</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>661</v>
+      </c>
+      <c r="J101" t="s">
+        <v>662</v>
+      </c>
+      <c r="K101" t="s">
+        <v>663</v>
+      </c>
+      <c r="L101" t="s">
+        <v>664</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>648</v>
+      </c>
+      <c r="O101" t="s">
+        <v>60</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>665</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>666</v>
+      </c>
+      <c r="J102" t="s">
+        <v>667</v>
+      </c>
+      <c r="K102" t="s">
+        <v>668</v>
+      </c>
+      <c r="L102" t="s">
+        <v>669</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>648</v>
+      </c>
+      <c r="O102" t="s">
+        <v>73</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>670</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>671</v>
+      </c>
+      <c r="J103" t="s">
+        <v>672</v>
+      </c>
+      <c r="K103" t="s">
+        <v>673</v>
+      </c>
+      <c r="L103" t="s">
+        <v>674</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>648</v>
+      </c>
+      <c r="O103" t="s">
+        <v>73</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>675</v>
+      </c>
+      <c r="X103" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>678</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>679</v>
+      </c>
+      <c r="J104" t="s">
+        <v>680</v>
+      </c>
+      <c r="K104" t="s">
+        <v>681</v>
+      </c>
+      <c r="L104" t="s">
+        <v>682</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>683</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>675</v>
+      </c>
+      <c r="X104" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>685</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>686</v>
+      </c>
+      <c r="J105" t="s">
+        <v>687</v>
+      </c>
+      <c r="K105" t="s">
+        <v>688</v>
+      </c>
+      <c r="L105" t="s">
+        <v>689</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>690</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>675</v>
+      </c>
+      <c r="X105" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>692</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>693</v>
+      </c>
+      <c r="J106" t="s">
+        <v>694</v>
+      </c>
+      <c r="K106" t="s">
+        <v>695</v>
+      </c>
+      <c r="L106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>697</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>675</v>
+      </c>
+      <c r="X106" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>699</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>700</v>
+      </c>
+      <c r="J107" t="s">
+        <v>701</v>
+      </c>
+      <c r="K107" t="s">
+        <v>702</v>
+      </c>
+      <c r="L107" t="s">
+        <v>703</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>697</v>
+      </c>
+      <c r="O107" t="s">
+        <v>155</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>704</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>705</v>
+      </c>
+      <c r="J108" t="s">
+        <v>706</v>
+      </c>
+      <c r="K108" t="s">
+        <v>707</v>
+      </c>
+      <c r="L108" t="s">
+        <v>708</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>2</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>2</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>709</v>
+      </c>
+      <c r="X108" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>712</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>713</v>
+      </c>
+      <c r="J109" t="s">
+        <v>714</v>
+      </c>
+      <c r="K109" t="s">
+        <v>715</v>
+      </c>
+      <c r="L109" t="s">
+        <v>716</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>683</v>
+      </c>
+      <c r="O109" t="s">
+        <v>60</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>717</v>
+      </c>
+      <c r="X109" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>720</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>721</v>
+      </c>
+      <c r="J110" t="s">
+        <v>722</v>
+      </c>
+      <c r="K110" t="s">
+        <v>723</v>
+      </c>
+      <c r="L110" t="s">
+        <v>724</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>3</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>3</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>725</v>
+      </c>
+      <c r="X110" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>728</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>729</v>
+      </c>
+      <c r="J111" t="s">
+        <v>730</v>
+      </c>
+      <c r="K111" t="s">
+        <v>731</v>
+      </c>
+      <c r="L111" t="s">
+        <v>732</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>733</v>
+      </c>
+      <c r="O111" t="s">
+        <v>53</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>717</v>
+      </c>
+      <c r="X111" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>735</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>736</v>
+      </c>
+      <c r="J112" t="s">
+        <v>737</v>
+      </c>
+      <c r="K112" t="s">
+        <v>738</v>
+      </c>
+      <c r="L112" t="s">
+        <v>739</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="s">
+        <v>740</v>
+      </c>
+      <c r="O112" t="s">
+        <v>60</v>
+      </c>
+      <c r="P112" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>2</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>742</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>743</v>
+      </c>
+      <c r="J113" t="s">
+        <v>744</v>
+      </c>
+      <c r="K113" t="s">
+        <v>745</v>
+      </c>
+      <c r="L113" t="s">
+        <v>746</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>747</v>
+      </c>
+      <c r="O113" t="s">
+        <v>60</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>749</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>750</v>
+      </c>
+      <c r="J114" t="s">
+        <v>751</v>
+      </c>
+      <c r="K114" t="s">
+        <v>752</v>
+      </c>
+      <c r="L114" t="s">
+        <v>753</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="s">
+        <v>754</v>
+      </c>
+      <c r="O114" t="s">
+        <v>60</v>
+      </c>
+      <c r="P114" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>756</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>757</v>
+      </c>
+      <c r="J115" t="s">
+        <v>758</v>
+      </c>
+      <c r="K115" t="s">
+        <v>759</v>
+      </c>
+      <c r="L115" t="s">
+        <v>760</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="s">
+        <v>761</v>
+      </c>
+      <c r="O115" t="s">
+        <v>155</v>
+      </c>
+      <c r="P115" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>3</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>3</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>1</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>763</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>764</v>
+      </c>
+      <c r="J116" t="s">
+        <v>765</v>
+      </c>
+      <c r="K116" t="s">
+        <v>766</v>
+      </c>
+      <c r="L116" t="s">
+        <v>767</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="s">
+        <v>768</v>
+      </c>
+      <c r="O116" t="s">
+        <v>73</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>3</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>3</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>4</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>769</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>770</v>
+      </c>
+      <c r="J117" t="s">
+        <v>771</v>
+      </c>
+      <c r="K117" t="s">
+        <v>772</v>
+      </c>
+      <c r="L117" t="s">
+        <v>773</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2</v>
+      </c>
+      <c r="N117" t="s">
+        <v>768</v>
+      </c>
+      <c r="O117" t="s">
+        <v>60</v>
+      </c>
+      <c r="P117" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>3</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>2</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>774</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>775</v>
+      </c>
+      <c r="J118" t="s">
+        <v>776</v>
+      </c>
+      <c r="K118" t="s">
+        <v>777</v>
+      </c>
+      <c r="L118" t="s">
+        <v>778</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" t="s">
+        <v>768</v>
+      </c>
+      <c r="O118" t="s">
+        <v>60</v>
+      </c>
+      <c r="P118" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>2</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>2</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>779</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>780</v>
+      </c>
+      <c r="J119" t="s">
+        <v>781</v>
+      </c>
+      <c r="K119" t="s">
+        <v>782</v>
+      </c>
+      <c r="L119" t="s">
+        <v>783</v>
+      </c>
+      <c r="M119" t="n">
+        <v>5</v>
+      </c>
+      <c r="N119" t="s">
+        <v>784</v>
+      </c>
+      <c r="O119" t="s">
+        <v>155</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>5</v>
+      </c>
+      <c r="R119" t="n">
+        <v>5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>5</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>785</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>786</v>
+      </c>
+      <c r="J120" t="s">
+        <v>787</v>
+      </c>
+      <c r="K120" t="s">
+        <v>788</v>
+      </c>
+      <c r="L120" t="s">
+        <v>789</v>
+      </c>
+      <c r="M120" t="n">
+        <v>4</v>
+      </c>
+      <c r="N120" t="s">
+        <v>790</v>
+      </c>
+      <c r="O120" t="s">
+        <v>53</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>4</v>
+      </c>
+      <c r="R120" t="s"/>
+      <c r="S120" t="n">
+        <v>5</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>4</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>791</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>792</v>
+      </c>
+      <c r="J121" t="s">
+        <v>793</v>
+      </c>
+      <c r="K121" t="s">
+        <v>794</v>
+      </c>
+      <c r="L121" t="s">
+        <v>795</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="s"/>
+      <c r="O121" t="s"/>
+      <c r="P121" t="s"/>
+      <c r="Q121" t="s"/>
+      <c r="R121" t="s"/>
+      <c r="S121" t="s"/>
+      <c r="T121" t="s"/>
+      <c r="U121" t="s"/>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s">
+        <v>796</v>
+      </c>
+      <c r="X121" t="s">
+        <v>797</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>799</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>800</v>
+      </c>
+      <c r="J122" t="s">
+        <v>801</v>
+      </c>
+      <c r="K122" t="s">
+        <v>802</v>
+      </c>
+      <c r="L122" t="s">
+        <v>803</v>
+      </c>
+      <c r="M122" t="n">
+        <v>5</v>
+      </c>
+      <c r="N122" t="s">
+        <v>804</v>
+      </c>
+      <c r="O122" t="s">
+        <v>60</v>
+      </c>
+      <c r="P122" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>5</v>
+      </c>
+      <c r="R122" t="n">
+        <v>5</v>
+      </c>
+      <c r="S122" t="n">
+        <v>5</v>
+      </c>
+      <c r="T122" t="s"/>
+      <c r="U122" t="n">
+        <v>5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s"/>
+      <c r="X122" t="s"/>
+      <c r="Y122" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>806</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s">
+        <v>807</v>
+      </c>
+      <c r="J123" t="s">
+        <v>808</v>
+      </c>
+      <c r="K123" t="s">
+        <v>275</v>
+      </c>
+      <c r="L123" t="s">
+        <v>809</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4</v>
+      </c>
+      <c r="N123" t="s">
+        <v>810</v>
+      </c>
+      <c r="O123" t="s">
+        <v>60</v>
+      </c>
+      <c r="P123" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>4</v>
+      </c>
+      <c r="R123" t="s"/>
+      <c r="S123" t="n">
+        <v>5</v>
+      </c>
+      <c r="T123" t="s"/>
+      <c r="U123" t="n">
+        <v>4</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s"/>
+      <c r="X123" t="s"/>
+      <c r="Y123" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B124" t="s"/>
+      <c r="C124" t="s"/>
+      <c r="D124" t="n">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" t="s">
+        <v>812</v>
+      </c>
+      <c r="G124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" t="s">
+        <v>813</v>
+      </c>
+      <c r="J124" t="s">
+        <v>814</v>
+      </c>
+      <c r="K124" t="s">
+        <v>815</v>
+      </c>
+      <c r="L124" t="s">
+        <v>816</v>
+      </c>
+      <c r="M124" t="n">
+        <v>4</v>
+      </c>
+      <c r="N124" t="s"/>
+      <c r="O124" t="s"/>
+      <c r="P124" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>4</v>
+      </c>
+      <c r="R124" t="s"/>
+      <c r="S124" t="n">
+        <v>5</v>
+      </c>
+      <c r="T124" t="s"/>
+      <c r="U124" t="n">
+        <v>4</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="s"/>
+      <c r="X124" t="s"/>
+      <c r="Y124" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B125" t="s"/>
+      <c r="C125" t="s"/>
+      <c r="D125" t="n">
+        <v>124</v>
+      </c>
+      <c r="E125" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" t="s">
+        <v>817</v>
+      </c>
+      <c r="G125" t="s">
+        <v>46</v>
+      </c>
+      <c r="H125" t="s">
+        <v>47</v>
+      </c>
+      <c r="I125" t="s">
+        <v>818</v>
+      </c>
+      <c r="J125" t="s">
+        <v>819</v>
+      </c>
+      <c r="K125" t="s">
+        <v>820</v>
+      </c>
+      <c r="L125" t="s">
+        <v>821</v>
+      </c>
+      <c r="M125" t="n">
+        <v>4</v>
+      </c>
+      <c r="N125" t="s"/>
+      <c r="O125" t="s"/>
+      <c r="P125" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>4</v>
+      </c>
+      <c r="R125" t="s"/>
+      <c r="S125" t="n">
+        <v>5</v>
+      </c>
+      <c r="T125" t="s"/>
+      <c r="U125" t="n">
+        <v>2</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="s"/>
+      <c r="X125" t="s"/>
+      <c r="Y125" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B126" t="s"/>
+      <c r="C126" t="s"/>
+      <c r="D126" t="n">
+        <v>125</v>
+      </c>
+      <c r="E126" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" t="s">
+        <v>822</v>
+      </c>
+      <c r="G126" t="s">
+        <v>46</v>
+      </c>
+      <c r="H126" t="s">
+        <v>47</v>
+      </c>
+      <c r="I126" t="s">
+        <v>823</v>
+      </c>
+      <c r="J126" t="s">
+        <v>824</v>
+      </c>
+      <c r="K126" t="s">
+        <v>825</v>
+      </c>
+      <c r="L126" t="s">
+        <v>826</v>
+      </c>
+      <c r="M126" t="n">
+        <v>4</v>
+      </c>
+      <c r="N126" t="s"/>
+      <c r="O126" t="s"/>
+      <c r="P126" t="s"/>
+      <c r="Q126" t="s"/>
+      <c r="R126" t="s"/>
+      <c r="S126" t="s"/>
+      <c r="T126" t="s"/>
+      <c r="U126" t="s"/>
+      <c r="V126" t="n">
+        <v>0</v>
+      </c>
+      <c r="W126" t="s"/>
+      <c r="X126" t="s"/>
+      <c r="Y126" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B127" t="s"/>
+      <c r="C127" t="s"/>
+      <c r="D127" t="n">
+        <v>126</v>
+      </c>
+      <c r="E127" t="s">
+        <v>44</v>
+      </c>
+      <c r="F127" t="s">
+        <v>827</v>
+      </c>
+      <c r="G127" t="s">
+        <v>46</v>
+      </c>
+      <c r="H127" t="s">
+        <v>47</v>
+      </c>
+      <c r="I127" t="s">
+        <v>828</v>
+      </c>
+      <c r="J127" t="s">
+        <v>829</v>
+      </c>
+      <c r="K127" t="s">
+        <v>830</v>
+      </c>
+      <c r="L127" t="s">
+        <v>831</v>
+      </c>
+      <c r="M127" t="n">
+        <v>4</v>
+      </c>
+      <c r="N127" t="s"/>
+      <c r="O127" t="s"/>
+      <c r="P127" t="s"/>
+      <c r="Q127" t="s"/>
+      <c r="R127" t="s"/>
+      <c r="S127" t="s"/>
+      <c r="T127" t="s"/>
+      <c r="U127" t="s"/>
+      <c r="V127" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" t="s"/>
+      <c r="X127" t="s"/>
+      <c r="Y127" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>34023</v>
+      </c>
+      <c r="B128" t="s"/>
+      <c r="C128" t="s"/>
+      <c r="D128" t="n">
+        <v>127</v>
+      </c>
+      <c r="E128" t="s">
+        <v>44</v>
+      </c>
+      <c r="F128" t="s">
+        <v>832</v>
+      </c>
+      <c r="G128" t="s">
+        <v>46</v>
+      </c>
+      <c r="H128" t="s">
+        <v>47</v>
+      </c>
+      <c r="I128" t="s">
+        <v>833</v>
+      </c>
+      <c r="J128" t="s">
+        <v>834</v>
+      </c>
+      <c r="K128" t="s">
+        <v>835</v>
+      </c>
+      <c r="L128" t="s">
+        <v>836</v>
+      </c>
+      <c r="M128" t="n">
+        <v>4</v>
+      </c>
+      <c r="N128" t="s"/>
+      <c r="O128" t="s"/>
+      <c r="P128" t="s"/>
+      <c r="Q128" t="s"/>
+      <c r="R128" t="s"/>
+      <c r="S128" t="s"/>
+      <c r="T128" t="s"/>
+      <c r="U128" t="s"/>
+      <c r="V128" t="n">
+        <v>0</v>
+      </c>
+      <c r="W128" t="s">
+        <v>796</v>
+      </c>
+      <c r="X128" t="s">
+        <v>797</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>837</v>
       </c>
     </row>
   </sheetData>
